--- a/PublicContentList.xlsx
+++ b/PublicContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB86A09-6F7D-4F30-A359-EA972B82DFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315C94F1-918F-415D-A0C8-548BDCEA96FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="480">
   <si>
     <t>Name</t>
   </si>
@@ -1656,6 +1656,12 @@
   </si>
   <si>
     <t>Blood Thirster</t>
+  </si>
+  <si>
+    <t>Grey Seer</t>
+  </si>
+  <si>
+    <t>Angler Mimic</t>
   </si>
 </sst>
 </file>
@@ -1984,22 +1990,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2020,10 +2014,22 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2031,160 +2037,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <fill>
         <patternFill>
@@ -2767,11 +2620,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2779,7 +2632,7 @@
     <col min="1" max="1" width="33.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="40" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -2798,7 +2651,7 @@
       <c r="C1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="39" t="s">
         <v>454</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -2824,7 +2677,7 @@
       <c r="C2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="40" t="s">
         <v>458</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -2847,7 +2700,7 @@
       <c r="C3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="40" t="s">
         <v>458</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -2870,7 +2723,7 @@
       <c r="C4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="40" t="s">
         <v>458</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -2893,7 +2746,7 @@
       <c r="C5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="40" t="s">
         <v>458</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -2916,7 +2769,7 @@
       <c r="C6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="40" t="s">
         <v>458</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -2939,7 +2792,7 @@
       <c r="C7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="40" t="s">
         <v>467</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -2962,7 +2815,7 @@
       <c r="C8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="40" t="s">
         <v>467</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -2985,7 +2838,7 @@
       <c r="C9" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="40" t="s">
         <v>467</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -3008,7 +2861,7 @@
       <c r="C10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="40" t="s">
         <v>467</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -3031,7 +2884,7 @@
       <c r="C11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="40" t="s">
         <v>467</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -3054,7 +2907,7 @@
       <c r="C12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="40" t="s">
         <v>467</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -3077,7 +2930,7 @@
       <c r="C13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="40" t="s">
         <v>460</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -3100,7 +2953,7 @@
       <c r="C14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="40" t="s">
         <v>460</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -3123,7 +2976,7 @@
       <c r="C15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="40" t="s">
         <v>463</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -3146,7 +2999,7 @@
       <c r="C16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="40" t="s">
         <v>458</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -3169,7 +3022,7 @@
       <c r="C17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="40" t="s">
         <v>458</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -3192,7 +3045,7 @@
       <c r="C18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="40" t="s">
         <v>458</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -3215,7 +3068,7 @@
       <c r="C19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="40" t="s">
         <v>464</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -3238,7 +3091,7 @@
       <c r="C20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="40" t="s">
         <v>458</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -3261,7 +3114,7 @@
       <c r="C21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="40" t="s">
         <v>457</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -3284,7 +3137,7 @@
       <c r="C22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="40" t="s">
         <v>457</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -3307,7 +3160,7 @@
       <c r="C23" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="40" t="s">
         <v>457</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -3330,7 +3183,7 @@
       <c r="C24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="40" t="s">
         <v>457</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -3353,7 +3206,7 @@
       <c r="C25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="40" t="s">
         <v>457</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -3376,7 +3229,7 @@
       <c r="C26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="40" t="s">
         <v>457</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -3399,7 +3252,7 @@
       <c r="C27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="40" t="s">
         <v>457</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -3422,7 +3275,7 @@
       <c r="C28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="40" t="s">
         <v>457</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -3445,7 +3298,7 @@
       <c r="C29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="52" t="s">
+      <c r="D29" s="40" t="s">
         <v>457</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -3468,7 +3321,7 @@
       <c r="C30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="52" t="s">
+      <c r="D30" s="40" t="s">
         <v>457</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -3491,7 +3344,7 @@
       <c r="C31" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="52" t="s">
+      <c r="D31" s="40" t="s">
         <v>457</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -3514,7 +3367,7 @@
       <c r="C32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="52" t="s">
+      <c r="D32" s="40" t="s">
         <v>457</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -3537,7 +3390,7 @@
       <c r="C33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="40" t="s">
         <v>457</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -3560,7 +3413,7 @@
       <c r="C34" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="40" t="s">
         <v>457</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -3583,7 +3436,7 @@
       <c r="C35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="40" t="s">
         <v>466</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -3606,7 +3459,7 @@
       <c r="C36" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D36" s="52" t="s">
+      <c r="D36" s="40" t="s">
         <v>475</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -3629,7 +3482,7 @@
       <c r="C37" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="52" t="s">
+      <c r="D37" s="40" t="s">
         <v>468</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -3652,7 +3505,7 @@
       <c r="C38" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="40" t="s">
         <v>468</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -3675,7 +3528,7 @@
       <c r="C39" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="52" t="s">
+      <c r="D39" s="40" t="s">
         <v>458</v>
       </c>
       <c r="E39" s="3" t="s">
@@ -3698,7 +3551,7 @@
       <c r="C40" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="52" t="s">
+      <c r="D40" s="40" t="s">
         <v>465</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -3721,7 +3574,7 @@
       <c r="C41" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="52" t="s">
+      <c r="D41" s="40" t="s">
         <v>468</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -3744,7 +3597,7 @@
       <c r="C42" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D42" s="52" t="s">
+      <c r="D42" s="40" t="s">
         <v>463</v>
       </c>
       <c r="E42" s="3" t="s">
@@ -3767,7 +3620,7 @@
       <c r="C43" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="52" t="s">
+      <c r="D43" s="40" t="s">
         <v>463</v>
       </c>
       <c r="E43" s="3" t="s">
@@ -3790,7 +3643,7 @@
       <c r="C44" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D44" s="52" t="s">
+      <c r="D44" s="40" t="s">
         <v>463</v>
       </c>
       <c r="E44" s="3" t="s">
@@ -3813,7 +3666,7 @@
       <c r="C45" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D45" s="52" t="s">
+      <c r="D45" s="40" t="s">
         <v>461</v>
       </c>
       <c r="E45" s="3" t="s">
@@ -3836,7 +3689,7 @@
       <c r="C46" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="52" t="s">
+      <c r="D46" s="40" t="s">
         <v>463</v>
       </c>
       <c r="E46" s="3" t="s">
@@ -3859,7 +3712,7 @@
       <c r="C47" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="52" t="s">
+      <c r="D47" s="40" t="s">
         <v>463</v>
       </c>
       <c r="E47" s="3" t="s">
@@ -3882,7 +3735,7 @@
       <c r="C48" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="52" t="s">
+      <c r="D48" s="40" t="s">
         <v>458</v>
       </c>
       <c r="E48" s="3" t="s">
@@ -3905,7 +3758,7 @@
       <c r="C49" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="52" t="s">
+      <c r="D49" s="40" t="s">
         <v>458</v>
       </c>
       <c r="E49" s="3" t="s">
@@ -3928,7 +3781,7 @@
       <c r="C50" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="52" t="s">
+      <c r="D50" s="40" t="s">
         <v>458</v>
       </c>
       <c r="E50" s="3" t="s">
@@ -3951,7 +3804,7 @@
       <c r="C51" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D51" s="52" t="s">
+      <c r="D51" s="40" t="s">
         <v>461</v>
       </c>
       <c r="E51" s="3" t="s">
@@ -3974,7 +3827,7 @@
       <c r="C52" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D52" s="52" t="s">
+      <c r="D52" s="40" t="s">
         <v>473</v>
       </c>
       <c r="E52" s="3" t="s">
@@ -3997,7 +3850,7 @@
       <c r="C53" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="52" t="s">
+      <c r="D53" s="40" t="s">
         <v>467</v>
       </c>
       <c r="E53" s="3" t="s">
@@ -4020,7 +3873,7 @@
       <c r="C54" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D54" s="52" t="s">
+      <c r="D54" s="40" t="s">
         <v>467</v>
       </c>
       <c r="E54" s="3" t="s">
@@ -4043,7 +3896,7 @@
       <c r="C55" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D55" s="52" t="s">
+      <c r="D55" s="40" t="s">
         <v>467</v>
       </c>
       <c r="E55" s="3" t="s">
@@ -4066,7 +3919,7 @@
       <c r="C56" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D56" s="52" t="s">
+      <c r="D56" s="40" t="s">
         <v>467</v>
       </c>
       <c r="E56" s="3" t="s">
@@ -4089,7 +3942,7 @@
       <c r="C57" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D57" s="52" t="s">
+      <c r="D57" s="40" t="s">
         <v>467</v>
       </c>
       <c r="E57" s="3" t="s">
@@ -4112,7 +3965,7 @@
       <c r="C58" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D58" s="52" t="s">
+      <c r="D58" s="40" t="s">
         <v>467</v>
       </c>
       <c r="E58" s="3" t="s">
@@ -4135,7 +3988,7 @@
       <c r="C59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="52" t="s">
+      <c r="D59" s="40" t="s">
         <v>463</v>
       </c>
       <c r="E59" s="3" t="s">
@@ -4158,7 +4011,7 @@
       <c r="C60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D60" s="52" t="s">
+      <c r="D60" s="40" t="s">
         <v>463</v>
       </c>
       <c r="E60" s="3" t="s">
@@ -4181,7 +4034,7 @@
       <c r="C61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D61" s="52" t="s">
+      <c r="D61" s="40" t="s">
         <v>463</v>
       </c>
       <c r="E61" s="3" t="s">
@@ -4204,7 +4057,7 @@
       <c r="C62" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D62" s="52" t="s">
+      <c r="D62" s="40" t="s">
         <v>456</v>
       </c>
       <c r="E62" s="3" t="s">
@@ -4227,7 +4080,7 @@
       <c r="C63" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D63" s="52" t="s">
+      <c r="D63" s="40" t="s">
         <v>465</v>
       </c>
       <c r="E63" s="3" t="s">
@@ -4250,7 +4103,7 @@
       <c r="C64" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D64" s="52" t="s">
+      <c r="D64" s="40" t="s">
         <v>455</v>
       </c>
       <c r="E64" s="3" t="s">
@@ -4273,7 +4126,7 @@
       <c r="C65" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D65" s="52" t="s">
+      <c r="D65" s="40" t="s">
         <v>455</v>
       </c>
       <c r="E65" s="3" t="s">
@@ -4296,7 +4149,7 @@
       <c r="C66" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D66" s="52" t="s">
+      <c r="D66" s="40" t="s">
         <v>455</v>
       </c>
       <c r="E66" s="3" t="s">
@@ -4319,7 +4172,7 @@
       <c r="C67" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D67" s="52" t="s">
+      <c r="D67" s="40" t="s">
         <v>455</v>
       </c>
       <c r="E67" s="3" t="s">
@@ -4342,7 +4195,7 @@
       <c r="C68" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D68" s="52" t="s">
+      <c r="D68" s="40" t="s">
         <v>455</v>
       </c>
       <c r="E68" s="3" t="s">
@@ -4365,7 +4218,7 @@
       <c r="C69" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D69" s="52" t="s">
+      <c r="D69" s="40" t="s">
         <v>455</v>
       </c>
       <c r="E69" s="3" t="s">
@@ -4388,7 +4241,7 @@
       <c r="C70" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D70" s="52" t="s">
+      <c r="D70" s="40" t="s">
         <v>459</v>
       </c>
       <c r="E70" s="3" t="s">
@@ -4411,7 +4264,7 @@
       <c r="C71" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D71" s="52" t="s">
+      <c r="D71" s="40" t="s">
         <v>473</v>
       </c>
       <c r="E71" s="3" t="s">
@@ -4434,7 +4287,7 @@
       <c r="C72" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D72" s="52" t="s">
+      <c r="D72" s="40" t="s">
         <v>473</v>
       </c>
       <c r="E72" s="3" t="s">
@@ -4457,7 +4310,7 @@
       <c r="C73" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D73" s="52" t="s">
+      <c r="D73" s="40" t="s">
         <v>473</v>
       </c>
       <c r="E73" s="3" t="s">
@@ -4480,7 +4333,7 @@
       <c r="C74" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D74" s="52" t="s">
+      <c r="D74" s="40" t="s">
         <v>461</v>
       </c>
       <c r="E74" s="3" t="s">
@@ -4503,7 +4356,7 @@
       <c r="C75" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D75" s="52" t="s">
+      <c r="D75" s="40" t="s">
         <v>461</v>
       </c>
       <c r="E75" s="3" t="s">
@@ -4526,7 +4379,7 @@
       <c r="C76" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D76" s="52" t="s">
+      <c r="D76" s="40" t="s">
         <v>473</v>
       </c>
       <c r="E76" s="3" t="s">
@@ -4549,7 +4402,7 @@
       <c r="C77" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D77" s="52" t="s">
+      <c r="D77" s="40" t="s">
         <v>473</v>
       </c>
       <c r="E77" s="3" t="s">
@@ -4575,7 +4428,7 @@
       <c r="C78" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D78" s="52" t="s">
+      <c r="D78" s="40" t="s">
         <v>473</v>
       </c>
       <c r="E78" s="3" t="s">
@@ -4598,7 +4451,7 @@
       <c r="C79" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D79" s="52" t="s">
+      <c r="D79" s="40" t="s">
         <v>473</v>
       </c>
       <c r="E79" s="3" t="s">
@@ -4621,7 +4474,7 @@
       <c r="C80" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D80" s="52" t="s">
+      <c r="D80" s="40" t="s">
         <v>473</v>
       </c>
       <c r="E80" s="3" t="s">
@@ -4644,7 +4497,7 @@
       <c r="C81" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D81" s="52" t="s">
+      <c r="D81" s="40" t="s">
         <v>474</v>
       </c>
       <c r="E81" s="3" t="s">
@@ -4667,7 +4520,7 @@
       <c r="C82" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D82" s="52" t="s">
+      <c r="D82" s="40" t="s">
         <v>473</v>
       </c>
       <c r="E82" s="3" t="s">
@@ -4690,7 +4543,7 @@
       <c r="C83" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D83" s="52" t="s">
+      <c r="D83" s="40" t="s">
         <v>473</v>
       </c>
       <c r="E83" s="3" t="s">
@@ -4713,7 +4566,7 @@
       <c r="C84" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D84" s="52" t="s">
+      <c r="D84" s="40" t="s">
         <v>473</v>
       </c>
       <c r="E84" s="3" t="s">
@@ -4736,7 +4589,7 @@
       <c r="C85" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D85" s="52" t="s">
+      <c r="D85" s="40" t="s">
         <v>473</v>
       </c>
       <c r="E85" s="3" t="s">
@@ -4759,7 +4612,7 @@
       <c r="C86" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D86" s="52" t="s">
+      <c r="D86" s="40" t="s">
         <v>473</v>
       </c>
       <c r="E86" s="3" t="s">
@@ -4782,7 +4635,7 @@
       <c r="C87" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D87" s="52" t="s">
+      <c r="D87" s="40" t="s">
         <v>473</v>
       </c>
       <c r="E87" s="3" t="s">
@@ -4805,7 +4658,7 @@
       <c r="C88" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D88" s="52" t="s">
+      <c r="D88" s="40" t="s">
         <v>473</v>
       </c>
       <c r="E88" s="3" t="s">
@@ -4828,7 +4681,7 @@
       <c r="C89" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D89" s="52" t="s">
+      <c r="D89" s="40" t="s">
         <v>461</v>
       </c>
       <c r="E89" s="3" t="s">
@@ -4851,7 +4704,7 @@
       <c r="C90" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D90" s="52" t="s">
+      <c r="D90" s="40" t="s">
         <v>461</v>
       </c>
       <c r="E90" s="3" t="s">
@@ -4874,7 +4727,7 @@
       <c r="C91" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D91" s="52" t="s">
+      <c r="D91" s="40" t="s">
         <v>461</v>
       </c>
       <c r="E91" s="3" t="s">
@@ -4897,7 +4750,7 @@
       <c r="C92" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D92" s="52" t="s">
+      <c r="D92" s="40" t="s">
         <v>461</v>
       </c>
       <c r="E92" s="3" t="s">
@@ -4920,7 +4773,7 @@
       <c r="C93" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D93" s="52" t="s">
+      <c r="D93" s="40" t="s">
         <v>461</v>
       </c>
       <c r="E93" s="3" t="s">
@@ -4943,7 +4796,7 @@
       <c r="C94" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D94" s="52" t="s">
+      <c r="D94" s="40" t="s">
         <v>461</v>
       </c>
       <c r="E94" s="3" t="s">
@@ -4966,7 +4819,7 @@
       <c r="C95" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D95" s="52" t="s">
+      <c r="D95" s="40" t="s">
         <v>461</v>
       </c>
       <c r="E95" s="3" t="s">
@@ -4989,7 +4842,7 @@
       <c r="C96" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D96" s="52" t="s">
+      <c r="D96" s="40" t="s">
         <v>461</v>
       </c>
       <c r="E96" s="3" t="s">
@@ -5012,7 +4865,7 @@
       <c r="C97" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D97" s="52" t="s">
+      <c r="D97" s="40" t="s">
         <v>461</v>
       </c>
       <c r="E97" s="3" t="s">
@@ -5035,7 +4888,7 @@
       <c r="C98" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D98" s="52" t="s">
+      <c r="D98" s="40" t="s">
         <v>461</v>
       </c>
       <c r="E98" s="3" t="s">
@@ -5058,7 +4911,7 @@
       <c r="C99" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D99" s="52" t="s">
+      <c r="D99" s="40" t="s">
         <v>475</v>
       </c>
       <c r="E99" s="3" t="s">
@@ -5081,7 +4934,7 @@
       <c r="C100" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D100" s="52" t="s">
+      <c r="D100" s="40" t="s">
         <v>475</v>
       </c>
       <c r="E100" s="3" t="s">
@@ -5104,7 +4957,7 @@
       <c r="C101" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D101" s="52" t="s">
+      <c r="D101" s="40" t="s">
         <v>475</v>
       </c>
       <c r="E101" s="3" t="s">
@@ -5127,7 +4980,7 @@
       <c r="C102" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D102" s="52" t="s">
+      <c r="D102" s="40" t="s">
         <v>461</v>
       </c>
       <c r="E102" s="3" t="s">
@@ -5150,7 +5003,7 @@
       <c r="C103" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D103" s="52" t="s">
+      <c r="D103" s="40" t="s">
         <v>461</v>
       </c>
       <c r="E103" s="3" t="s">
@@ -5173,7 +5026,7 @@
       <c r="C104" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="52" t="s">
+      <c r="D104" s="40" t="s">
         <v>466</v>
       </c>
       <c r="E104" s="3" t="s">
@@ -5196,7 +5049,7 @@
       <c r="C105" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D105" s="52" t="s">
+      <c r="D105" s="40" t="s">
         <v>461</v>
       </c>
       <c r="E105" s="3" t="s">
@@ -5219,7 +5072,7 @@
       <c r="C106" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D106" s="52" t="s">
+      <c r="D106" s="40" t="s">
         <v>461</v>
       </c>
       <c r="E106" s="3" t="s">
@@ -5242,7 +5095,7 @@
       <c r="C107" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D107" s="52" t="s">
+      <c r="D107" s="40" t="s">
         <v>461</v>
       </c>
       <c r="E107" s="3" t="s">
@@ -5265,7 +5118,7 @@
       <c r="C108" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D108" s="52" t="s">
+      <c r="D108" s="40" t="s">
         <v>461</v>
       </c>
       <c r="E108" s="3" t="s">
@@ -5288,7 +5141,7 @@
       <c r="C109" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D109" s="52" t="s">
+      <c r="D109" s="40" t="s">
         <v>461</v>
       </c>
       <c r="E109" s="3" t="s">
@@ -5311,7 +5164,7 @@
       <c r="C110" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D110" s="52" t="s">
+      <c r="D110" s="40" t="s">
         <v>461</v>
       </c>
       <c r="E110" s="3" t="s">
@@ -5334,7 +5187,7 @@
       <c r="C111" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D111" s="52" t="s">
+      <c r="D111" s="40" t="s">
         <v>475</v>
       </c>
       <c r="E111" s="3" t="s">
@@ -5357,7 +5210,7 @@
       <c r="C112" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D112" s="52" t="s">
+      <c r="D112" s="40" t="s">
         <v>472</v>
       </c>
       <c r="E112" s="3" t="s">
@@ -5380,7 +5233,7 @@
       <c r="C113" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D113" s="52" t="s">
+      <c r="D113" s="40" t="s">
         <v>472</v>
       </c>
       <c r="E113" s="3" t="s">
@@ -5403,7 +5256,7 @@
       <c r="C114" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D114" s="52" t="s">
+      <c r="D114" s="40" t="s">
         <v>472</v>
       </c>
       <c r="E114" s="3" t="s">
@@ -5426,7 +5279,7 @@
       <c r="C115" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D115" s="52" t="s">
+      <c r="D115" s="40" t="s">
         <v>469</v>
       </c>
       <c r="E115" s="3" t="s">
@@ -5449,7 +5302,7 @@
       <c r="C116" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D116" s="52" t="s">
+      <c r="D116" s="40" t="s">
         <v>469</v>
       </c>
       <c r="E116" s="3" t="s">
@@ -5472,7 +5325,7 @@
       <c r="C117" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D117" s="52" t="s">
+      <c r="D117" s="40" t="s">
         <v>469</v>
       </c>
       <c r="E117" s="3" t="s">
@@ -5495,7 +5348,7 @@
       <c r="C118" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D118" s="52" t="s">
+      <c r="D118" s="40" t="s">
         <v>470</v>
       </c>
       <c r="E118" s="3" t="s">
@@ -5518,7 +5371,7 @@
       <c r="C119" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D119" s="52" t="s">
+      <c r="D119" s="40" t="s">
         <v>470</v>
       </c>
       <c r="E119" s="3" t="s">
@@ -5541,7 +5394,7 @@
       <c r="C120" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D120" s="52" t="s">
+      <c r="D120" s="40" t="s">
         <v>470</v>
       </c>
       <c r="E120" s="3" t="s">
@@ -5564,7 +5417,7 @@
       <c r="C121" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D121" s="52" t="s">
+      <c r="D121" s="40" t="s">
         <v>470</v>
       </c>
       <c r="E121" s="3" t="s">
@@ -5587,7 +5440,7 @@
       <c r="C122" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D122" s="52" t="s">
+      <c r="D122" s="40" t="s">
         <v>470</v>
       </c>
       <c r="E122" s="3" t="s">
@@ -5610,7 +5463,7 @@
       <c r="C123" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D123" s="52" t="s">
+      <c r="D123" s="40" t="s">
         <v>470</v>
       </c>
       <c r="E123" s="3" t="s">
@@ -5633,7 +5486,7 @@
       <c r="C124" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D124" s="52" t="s">
+      <c r="D124" s="40" t="s">
         <v>470</v>
       </c>
       <c r="E124" s="3" t="s">
@@ -5656,7 +5509,7 @@
       <c r="C125" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D125" s="52" t="s">
+      <c r="D125" s="40" t="s">
         <v>459</v>
       </c>
       <c r="E125" s="3" t="s">
@@ -5679,7 +5532,7 @@
       <c r="C126" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D126" s="52" t="s">
+      <c r="D126" s="40" t="s">
         <v>467</v>
       </c>
       <c r="E126" s="3" t="s">
@@ -5702,7 +5555,7 @@
       <c r="C127" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D127" s="52" t="s">
+      <c r="D127" s="40" t="s">
         <v>467</v>
       </c>
       <c r="E127" s="3" t="s">
@@ -5725,7 +5578,7 @@
       <c r="C128" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D128" s="52" t="s">
+      <c r="D128" s="40" t="s">
         <v>458</v>
       </c>
       <c r="E128" s="3" t="s">
@@ -5748,7 +5601,7 @@
       <c r="C129" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D129" s="52" t="s">
+      <c r="D129" s="40" t="s">
         <v>458</v>
       </c>
       <c r="E129" s="3" t="s">
@@ -5771,7 +5624,7 @@
       <c r="C130" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D130" s="52" t="s">
+      <c r="D130" s="40" t="s">
         <v>468</v>
       </c>
       <c r="E130" s="3" t="s">
@@ -5794,7 +5647,7 @@
       <c r="C131" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D131" s="52" t="s">
+      <c r="D131" s="40" t="s">
         <v>468</v>
       </c>
       <c r="E131" s="3" t="s">
@@ -5817,7 +5670,7 @@
       <c r="C132" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D132" s="52" t="s">
+      <c r="D132" s="40" t="s">
         <v>462</v>
       </c>
       <c r="E132" s="3" t="s">
@@ -5840,7 +5693,7 @@
       <c r="C133" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D133" s="52" t="s">
+      <c r="D133" s="40" t="s">
         <v>471</v>
       </c>
       <c r="E133" s="3" t="s">
@@ -5850,6 +5703,52 @@
         <v>253</v>
       </c>
       <c r="G133" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B134" s="6">
+        <v>13</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D134" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B135" s="6">
+        <v>12</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D135" s="40" t="s">
+        <v>461</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5860,84 +5759,104 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F65 F70:F1048576">
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Playtest Ready">
+  <conditionalFormatting sqref="F1:F65 F70:F133 F136:F1048576">
+    <cfRule type="containsText" dxfId="35" priority="25" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="34" priority="26" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="33" priority="27" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",F66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="28" priority="20" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="27" priority="21" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",F66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",F67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",F67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68:F69">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",F68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",F68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F68)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",F68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F134:F135">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",F134)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",F134)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",F134)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",F134)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",F134)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",F68)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Complete",F134)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -6031,9 +5950,11 @@
     <hyperlink ref="E33:E34" r:id="rId88" display="Demons of Rage" xr:uid="{64F69B6A-8835-4BE9-971B-52540B0C4B58}"/>
     <hyperlink ref="E38:E41" r:id="rId89" display="Geese" xr:uid="{C6FAD9DC-F9DE-4613-8F07-5DA459A6B29A}"/>
     <hyperlink ref="E43:E44" r:id="rId90" display="Hippos" xr:uid="{57CAEAD6-C500-4CCD-9449-FBAF7AF5D220}"/>
+    <hyperlink ref="E134" r:id="rId91" xr:uid="{CC0283CA-AF8C-4DEA-A3DA-7048B7B4DE1E}"/>
+    <hyperlink ref="E135" r:id="rId92" xr:uid="{FDD9596E-C1E9-447C-B186-D45E64BD8897}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId91"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId93"/>
 </worksheet>
 </file>
 
@@ -6227,87 +6148,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="47" t="s">
         <v>450</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="47" t="s">
         <v>367</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="47" t="s">
         <v>391</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="51" t="s">
         <v>392</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="49" t="s">
         <v>394</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="49" t="s">
         <v>395</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="41" t="s">
         <v>397</v>
       </c>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="47" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="43" t="s">
         <v>401</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="45" t="s">
         <v>402</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="45" t="s">
         <v>403</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="45" t="s">
         <v>404</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="45" t="s">
         <v>405</v>
       </c>
-      <c r="O2" s="49" t="s">
+      <c r="O2" s="45" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
     </row>
     <row r="4" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
@@ -6353,7 +6274,7 @@
         <v>1</v>
       </c>
       <c r="O4" s="35">
-        <f>AVERAGE(J4:N4)</f>
+        <f t="shared" ref="O4:O14" si="0">AVERAGE(J4:N4)</f>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -6401,7 +6322,7 @@
         <v>3</v>
       </c>
       <c r="O5" s="35">
-        <f>AVERAGE(J5:N5)</f>
+        <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
     </row>
@@ -6449,7 +6370,7 @@
         <v>4</v>
       </c>
       <c r="O6" s="35">
-        <f>AVERAGE(J6:N6)</f>
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -6497,7 +6418,7 @@
         <v>4</v>
       </c>
       <c r="O7" s="35">
-        <f>AVERAGE(J7:N7)</f>
+        <f t="shared" si="0"/>
         <v>3.4</v>
       </c>
     </row>
@@ -6545,7 +6466,7 @@
         <v>4</v>
       </c>
       <c r="O8" s="35">
-        <f>AVERAGE(J8:N8)</f>
+        <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
     </row>
@@ -6593,7 +6514,7 @@
         <v>4</v>
       </c>
       <c r="O9" s="35">
-        <f>AVERAGE(J9:N9)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -6641,7 +6562,7 @@
         <v>5</v>
       </c>
       <c r="O10" s="35">
-        <f>AVERAGE(J10:N10)</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
     </row>
@@ -6689,7 +6610,7 @@
         <v>4</v>
       </c>
       <c r="O11" s="35">
-        <f>AVERAGE(J11:N11)</f>
+        <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
     </row>
@@ -6737,7 +6658,7 @@
         <v>3</v>
       </c>
       <c r="O12" s="35">
-        <f>AVERAGE(J12:N12)</f>
+        <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
     </row>
@@ -6785,7 +6706,7 @@
         <v>5</v>
       </c>
       <c r="O13" s="35">
-        <f>AVERAGE(J13:N13)</f>
+        <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -6833,24 +6754,17 @@
         <v>4</v>
       </c>
       <c r="O14" s="35">
-        <f>AVERAGE(J14:N14)</f>
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I8" xr:uid="{45E52FED-6497-4FDC-A0DA-7ECEAA0549B9}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I8">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:I8">
       <sortCondition ref="F1:F8"/>
     </sortState>
   </autoFilter>
   <mergeCells count="16">
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
@@ -6860,6 +6774,13 @@
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{B4A7D905-D120-4788-AC98-B53455EB3FC4}"/>
@@ -9081,22 +9002,22 @@
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/PublicContentList.xlsx
+++ b/PublicContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315C94F1-918F-415D-A0C8-548BDCEA96FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B42DC89-B0E9-48F0-9F2D-113D32984138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="475">
   <si>
     <t>Name</t>
   </si>
@@ -269,9 +269,6 @@
     <t>Rod of Magic Detection</t>
   </si>
   <si>
-    <t>Publicly Released</t>
-  </si>
-  <si>
     <t>Mox</t>
   </si>
   <si>
@@ -281,9 +278,6 @@
     <t>Druid</t>
   </si>
   <si>
-    <t>Not Released</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -296,9 +290,6 @@
     <t>Demons of Excess</t>
   </si>
   <si>
-    <t>Name may be copyrighted</t>
-  </si>
-  <si>
     <t>Demons of Rage</t>
   </si>
   <si>
@@ -335,9 +326,6 @@
     <t>River Navigation</t>
   </si>
   <si>
-    <t>Needs Review</t>
-  </si>
-  <si>
     <t>Crocodilians</t>
   </si>
   <si>
@@ -981,9 +969,6 @@
   </si>
   <si>
     <t>Witch Bolt</t>
-  </si>
-  <si>
-    <t>Needs Review (Erin)</t>
   </si>
   <si>
     <t>New/ Revised</t>
@@ -1996,6 +1981,24 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2014,81 +2017,12 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <fill>
         <patternFill>
@@ -2623,8 +2557,8 @@
   <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B142" sqref="B142"/>
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2646,13 +2580,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>1</v>
@@ -2669,1431 +2603,1062 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B3" s="6">
         <v>0.5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B4" s="6">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B5" s="6">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B8" s="6">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B9" s="6">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B10" s="6">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B11" s="6">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B12" s="6">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B13" s="6">
         <v>0.5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B14" s="6">
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B15" s="6">
         <v>0.25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B16" s="6">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B17" s="6">
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B18" s="6">
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B19" s="6">
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B20" s="6">
         <v>0.5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21" s="6">
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="B23" s="6">
         <v>0.5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B24" s="6">
         <v>0.25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B25" s="6">
         <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B26" s="6">
         <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B27" s="6">
         <v>17</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="B28" s="6">
         <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B29" s="6">
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B30" s="6">
         <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B31" s="6">
         <v>17</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="B32" s="6">
         <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B33" s="6">
         <v>17</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B34" s="6">
         <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B35" s="6">
         <v>0.5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B36" s="6">
         <v>16</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B37" s="6">
         <v>0.125</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B38" s="6">
         <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="B39" s="6">
         <v>0.25</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B40" s="6">
         <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B41" s="6">
         <v>0.5</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B42" s="6">
         <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B43" s="6">
         <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B44" s="6">
         <v>0.5</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B45" s="6">
         <v>7</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B46" s="6">
         <v>2</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B47" s="6">
         <v>3</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B48" s="6">
         <v>5</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B49" s="6">
         <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B50" s="6">
         <v>14</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B51" s="6">
         <v>5</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B52" s="6">
         <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B53" s="6">
         <v>3</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B54" s="6">
         <v>7</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B55" s="6">
         <v>2</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B56" s="6">
         <v>6</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B57" s="6">
         <v>10</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" s="40" t="s">
+        <v>462</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D57" s="40" t="s">
-        <v>467</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="B58" s="6">
         <v>15</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B59" s="6">
         <v>0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B60" s="6">
         <v>0.125</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B61" s="6">
         <v>0.5</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E61" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="B62" s="6">
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B63" s="6">
         <v>5</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>5</v>
       </c>
@@ -4101,22 +3666,16 @@
         <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -4124,22 +3683,16 @@
         <v>0.125</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>7</v>
       </c>
@@ -4147,22 +3700,16 @@
         <v>0.5</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -4170,22 +3717,16 @@
         <v>2</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>9</v>
       </c>
@@ -4193,22 +3734,16 @@
         <v>3</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>10</v>
       </c>
@@ -4216,22 +3751,16 @@
         <v>6</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>11</v>
       </c>
@@ -4239,1517 +3768,1133 @@
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B71" s="6">
         <v>2</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B72" s="6">
         <v>3</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B73" s="6">
         <v>2</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B74" s="6">
         <v>6</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B75" s="6">
         <v>10</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D75" s="40" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B76" s="6">
         <v>10</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B77" s="6">
         <v>16</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D77" s="40" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B78" s="6">
         <v>3</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B79" s="6">
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B80" s="6">
         <v>7</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D80" s="40" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B81" s="6">
         <v>0.5</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B82" s="6">
         <v>7</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G82" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B83" s="6">
         <v>0</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B84" s="6">
         <v>0.125</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B85" s="6">
         <v>0.25</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B86" s="6">
         <v>0.25</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D86" s="40" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E86" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="B87" s="6">
         <v>3</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D87" s="40" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B88" s="6">
         <v>1</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D88" s="40" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B89" s="6">
         <v>0.125</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B90" s="6">
         <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B91" s="6">
         <v>3</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D91" s="40" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B92" s="6">
         <v>0</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D92" s="40" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B93" s="6">
         <v>3</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D93" s="40" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B94" s="6">
         <v>0.5</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B95" s="6">
         <v>4</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B96" s="6">
         <v>7</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D96" s="40" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B97" s="6">
         <v>1</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D97" s="40" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B98" s="6">
         <v>0.25</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B99" s="6">
         <v>6</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B100" s="6">
         <v>0.5</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D100" s="40" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B101" s="6">
         <v>5</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B102" s="6">
         <v>1</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B103" s="6">
         <v>3</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B104" s="6">
         <v>3</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D104" s="40" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B105" s="6">
         <v>5</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B106" s="6">
         <v>3</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B107" s="6">
         <v>2</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B108" s="6">
         <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B109" s="6">
         <v>3</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B110" s="6">
         <v>4</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B111" s="6">
         <v>4</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D111" s="40" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B112" s="6">
         <v>3</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D112" s="40" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B113" s="6">
         <v>4</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D113" s="40" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B114" s="6">
         <v>4</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D114" s="40" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B115" s="6">
         <v>0</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B116" s="6">
         <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D116" s="40" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B117" s="6">
         <v>0.25</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D117" s="40" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E117" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="B118" s="6">
         <v>1</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D118" s="40" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B119" s="6">
         <v>5</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D119" s="40" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B120" s="6">
         <v>8</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D120" s="40" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B121" s="6">
         <v>0.125</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D121" s="40" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B122" s="6">
         <v>4</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D122" s="40" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B123" s="6">
         <v>3</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D123" s="40" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B124" s="6">
         <v>8</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D124" s="40" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B125" s="6">
         <v>0</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D125" s="40" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B126" s="6">
         <v>1</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D126" s="40" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B127" s="6">
         <v>5</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D127" s="40" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B128" s="6">
         <v>5</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D128" s="40" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B129" s="6">
         <v>2</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D129" s="40" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B130" s="6">
         <v>8</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D130" s="40" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B131" s="6">
         <v>11</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D131" s="40" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B132" s="6">
         <v>4</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D132" s="40" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B133" s="6">
         <v>8</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D133" s="40" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B134" s="6">
         <v>13</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D134" s="40" t="s">
+        <v>468</v>
+      </c>
+      <c r="E134" s="3" t="s">
         <v>473</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>478</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G134" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B135" s="6">
         <v>12</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D135" s="40" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>15</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -5759,202 +4904,171 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F65 F70:F133 F136:F1048576">
-    <cfRule type="containsText" dxfId="35" priority="25" operator="containsText" text="Playtest Ready">
+  <conditionalFormatting sqref="F1:F65 F136:F1048576 F70:F134">
+    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="26" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="27" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",F66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="20" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="21" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",F66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",F67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",F67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68:F69">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",F68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",F68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F68)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F134:F135">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Playtest Ready">
-      <formula>NOT(ISERROR(SEARCH("Playtest Ready",F134)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",F134)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",F134)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Needs Clean Up">
-      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",F134)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",F134)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",F134)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E64" r:id="rId1" xr:uid="{24378804-81F8-4AA1-B1AD-E2BAE71E62F7}"/>
-    <hyperlink ref="E65" r:id="rId2" xr:uid="{A9FB66EA-522D-430C-9E8B-142F64896909}"/>
-    <hyperlink ref="E66" r:id="rId3" xr:uid="{F60E707F-6A0A-4BC6-AF30-86A7E5ADD7B8}"/>
-    <hyperlink ref="E67" r:id="rId4" xr:uid="{96016D77-CFCC-4FA1-9227-88628B0203DD}"/>
-    <hyperlink ref="E68" r:id="rId5" xr:uid="{F0CF64C5-E8BD-4E6C-A3E9-ABD3E3A260BB}"/>
-    <hyperlink ref="E69" r:id="rId6" xr:uid="{D9F6503E-37EC-4D9C-A100-7C1CB48A89BF}"/>
-    <hyperlink ref="E70" r:id="rId7" xr:uid="{88B0AE93-8621-4015-BAC5-A94BE11B7EDF}"/>
-    <hyperlink ref="E29" r:id="rId8" xr:uid="{7740B376-4459-4FAA-AB98-1A2D8A29C31B}"/>
-    <hyperlink ref="E32" r:id="rId9" xr:uid="{C150CCA9-0F5F-46AB-943C-BD01528A8B1F}"/>
-    <hyperlink ref="E132" r:id="rId10" xr:uid="{EEF075A1-990E-48FE-9387-8BD7C00E2972}"/>
-    <hyperlink ref="E21" r:id="rId11" xr:uid="{8637426C-4B99-4977-8180-B781792B2D6C}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{9B5D71D0-75F3-4EE0-8DA8-B6BD9F84C82E}"/>
-    <hyperlink ref="E26" r:id="rId13" xr:uid="{CC82EA8F-F005-4EB2-9D62-3A8B0CBA91AF}"/>
-    <hyperlink ref="E42" r:id="rId14" xr:uid="{A7029CFF-3F01-4AEA-9F17-2317268BC704}"/>
-    <hyperlink ref="E46" r:id="rId15" xr:uid="{5CF6B4CC-D51B-41A3-BC86-6560F7DD59F5}"/>
-    <hyperlink ref="E47" r:id="rId16" xr:uid="{F71A1BE6-4D1A-46FE-8961-1330A798178D}"/>
-    <hyperlink ref="E59" r:id="rId17" xr:uid="{B8703380-C4DC-4D07-B8F0-A1D1308B9FA3}"/>
-    <hyperlink ref="E2" r:id="rId18" xr:uid="{7846F880-8F09-4C29-8DA3-F2246F7939E5}"/>
-    <hyperlink ref="E35" r:id="rId19" xr:uid="{570E2F56-8041-45E6-AEEF-A3857B5D5847}"/>
-    <hyperlink ref="E55" r:id="rId20" xr:uid="{E810D0E0-4900-4222-B30D-3BE97754D85D}"/>
-    <hyperlink ref="E56" r:id="rId21" xr:uid="{F9D6C143-A19F-4D5B-B044-6E312AA0F1C5}"/>
-    <hyperlink ref="E57" r:id="rId22" xr:uid="{DD1A6313-24CF-4C7C-A637-9D519E396AE2}"/>
-    <hyperlink ref="E58" r:id="rId23" xr:uid="{39A4276D-ED45-43BE-B68A-5A7115561F06}"/>
-    <hyperlink ref="E9" r:id="rId24" xr:uid="{1026E72B-801A-42F9-A958-554A9A550B91}"/>
-    <hyperlink ref="E53" r:id="rId25" xr:uid="{D228C468-F1C8-4B50-AA9A-2BFE6D1BB225}"/>
-    <hyperlink ref="E54" r:id="rId26" xr:uid="{5B4C0781-2958-4057-9DF6-0B6555F6EF5F}"/>
-    <hyperlink ref="E11" r:id="rId27" xr:uid="{71B117C9-370F-4CA6-8D09-7B1776B5E256}"/>
-    <hyperlink ref="E7" r:id="rId28" xr:uid="{2337DA2F-0366-48D1-A576-15B38ABA8FA5}"/>
-    <hyperlink ref="E37" r:id="rId29" xr:uid="{B905E699-BE8D-450A-A5E2-77DAB8DF4433}"/>
-    <hyperlink ref="E59:E62" r:id="rId30" display="Geese" xr:uid="{089B3379-5EC3-43CC-BE60-04B470802E6F}"/>
-    <hyperlink ref="E125" r:id="rId31" xr:uid="{041375A2-D067-4A40-8828-7889379EF114}"/>
-    <hyperlink ref="E64:E65" r:id="rId32" display="Turkeys" xr:uid="{88E6937D-B8A1-4AC7-B1D5-F23A14BE36C9}"/>
-    <hyperlink ref="E128" r:id="rId33" xr:uid="{5CDA5DF7-07F1-415D-92B6-ED50325661CC}"/>
-    <hyperlink ref="E67:E68" r:id="rId34" display="Water Horses" xr:uid="{15CD66D1-66E8-4FE9-80DE-F6463260B091}"/>
-    <hyperlink ref="E131" r:id="rId35" xr:uid="{0C5326F6-F3C5-4D41-A714-A391F57A0C73}"/>
-    <hyperlink ref="E115" r:id="rId36" xr:uid="{A6A2F85D-15E4-4853-98AF-6A5D1DDE42D1}"/>
-    <hyperlink ref="E71:E75" r:id="rId37" display="Toads" xr:uid="{D8183E96-41FC-413A-BF11-1FC6CCF54B17}"/>
-    <hyperlink ref="E133" r:id="rId38" xr:uid="{B0BF7381-65DF-449C-8466-065F67220649}"/>
-    <hyperlink ref="E48" r:id="rId39" xr:uid="{F801D409-31B5-4F77-897D-35F5AAE055C8}"/>
-    <hyperlink ref="E78:E79" r:id="rId40" display="Mishipeshu" xr:uid="{AA8BAF01-37F2-4EEF-9EE5-F6F30AB4E397}"/>
-    <hyperlink ref="E112" r:id="rId41" xr:uid="{83C4A64B-15DC-49A7-A939-2543A94EB330}"/>
-    <hyperlink ref="E113" r:id="rId42" xr:uid="{F23002A8-7C3D-40A5-B4A2-17B98ABBCCE5}"/>
-    <hyperlink ref="E114" r:id="rId43" xr:uid="{79FA5088-766D-4C02-BE9E-89D0488C3EB8}"/>
-    <hyperlink ref="E83" r:id="rId44" xr:uid="{7256DA5D-0B8D-49EF-985E-0B0569E2E1EB}"/>
-    <hyperlink ref="E90:E94" r:id="rId45" display="Rats" xr:uid="{84C86657-EB6B-4A04-8725-2859CB60AC5E}"/>
-    <hyperlink ref="E76" r:id="rId46" xr:uid="{549DB810-2E99-44F3-A802-C1DB01662A67}"/>
-    <hyperlink ref="E96:E100" r:id="rId47" display="Rat Monstrosities" xr:uid="{48DE7F45-FD60-48FE-9BF7-097058913AB6}"/>
-    <hyperlink ref="E104" r:id="rId48" xr:uid="{274DD5E8-044F-493C-A18A-2F9A8B7357E5}"/>
-    <hyperlink ref="E102:E107" r:id="rId49" display="Sharks" xr:uid="{AD8B1552-DEB9-4DDB-8BC3-6CEB380DDEA0}"/>
-    <hyperlink ref="E72" r:id="rId50" display="Plague Censer Bearer" xr:uid="{7010B8A8-DECA-4276-A943-BB646368232A}"/>
-    <hyperlink ref="E52" r:id="rId51" xr:uid="{B13A52D4-94A4-4BFA-8A84-7FD639267FFB}"/>
-    <hyperlink ref="E121" r:id="rId52" xr:uid="{0ADDD1EC-6A31-4480-A99C-C88929CFDEB4}"/>
-    <hyperlink ref="E122" r:id="rId53" xr:uid="{DC44308E-158C-4E01-A6E0-DF67AA0DDBFB}"/>
-    <hyperlink ref="E123" r:id="rId54" xr:uid="{56F1C81B-E486-4AB0-9F4B-9F07F081FEC8}"/>
-    <hyperlink ref="E124" r:id="rId55" xr:uid="{4519A343-0CE5-40DB-9F38-E428365F57E6}"/>
-    <hyperlink ref="E89" r:id="rId56" xr:uid="{700D5C34-6C41-4C82-A1DF-A36987B02587}"/>
-    <hyperlink ref="E90" r:id="rId57" xr:uid="{323373EE-4FEA-44E5-AE43-26C11CBB97F2}"/>
-    <hyperlink ref="E91" r:id="rId58" xr:uid="{8FD2F2BD-E35F-4E79-A0E4-6361AF8D5A4A}"/>
-    <hyperlink ref="E92" r:id="rId59" xr:uid="{B46324A9-B520-4C2E-9DD6-E6776325CB9E}"/>
-    <hyperlink ref="E93" r:id="rId60" xr:uid="{7191D103-8B11-4E7E-ACB9-34FAA9FF3017}"/>
-    <hyperlink ref="E94" r:id="rId61" xr:uid="{9E0E3EAA-84BF-4C54-8045-021ED818D754}"/>
-    <hyperlink ref="E95" r:id="rId62" xr:uid="{33449A87-6A78-46A7-9531-F92B82FB7B04}"/>
-    <hyperlink ref="E71" r:id="rId63" xr:uid="{32DD538B-701B-49F0-B818-A5BDD0A8FD42}"/>
-    <hyperlink ref="E96" r:id="rId64" xr:uid="{84A84609-F8AB-4500-9367-5EF521C3D039}"/>
-    <hyperlink ref="E97" r:id="rId65" xr:uid="{BFAA95E0-0A6A-42B6-8C1E-95E15B5109CF}"/>
-    <hyperlink ref="E98" r:id="rId66" xr:uid="{FCBB2A31-F8DF-4FB9-85C9-A97E3761B418}"/>
-    <hyperlink ref="E100" r:id="rId67" xr:uid="{A4541671-C264-4072-BA5B-64813858723B}"/>
-    <hyperlink ref="E102" r:id="rId68" xr:uid="{13749CF8-9E79-4A45-9F44-A02926FBCD4C}"/>
-    <hyperlink ref="E99" r:id="rId69" xr:uid="{9EE0C65E-666B-4477-A87E-460E0381197F}"/>
-    <hyperlink ref="E101" r:id="rId70" xr:uid="{FA3AA873-7F29-41F5-B25B-91D4EF0E01B7}"/>
-    <hyperlink ref="E103" r:id="rId71" xr:uid="{E2BECFC7-C7A8-4B70-BFC1-D6B47AB32C43}"/>
-    <hyperlink ref="E45" r:id="rId72" xr:uid="{78560ED4-F971-48FA-8E7D-0927D2102880}"/>
-    <hyperlink ref="E51" r:id="rId73" xr:uid="{72F178FC-2D46-4527-B45A-1D02A2DDCCA6}"/>
-    <hyperlink ref="E73" r:id="rId74" xr:uid="{75494AB1-681F-43E3-B13D-690DD2054A7E}"/>
-    <hyperlink ref="E111" r:id="rId75" xr:uid="{A1DB5563-BDAB-475B-A1BA-742E992BE98C}"/>
-    <hyperlink ref="E74" r:id="rId76" xr:uid="{11F5DB7C-3F00-444E-AD24-9ED27C85052F}"/>
-    <hyperlink ref="E75" r:id="rId77" xr:uid="{1D4EBE67-5B02-4A85-8B6A-DDA2F461A628}"/>
-    <hyperlink ref="E82" r:id="rId78" xr:uid="{4126C33B-2342-4483-BFEE-207D26CA0652}"/>
-    <hyperlink ref="E36" r:id="rId79" xr:uid="{CBE4BFC2-50F0-456F-918F-1ECD9DBD82E2}"/>
-    <hyperlink ref="E3:E6" r:id="rId80" display="Beavers" xr:uid="{36154117-6BFA-4765-AAC8-F1416FE9D183}"/>
-    <hyperlink ref="E8" r:id="rId81" xr:uid="{F5569ABA-F66B-43F6-8699-2D8A2D7B588E}"/>
-    <hyperlink ref="E10" r:id="rId82" xr:uid="{38BD0EFD-3B97-4FFB-8195-0425FB6DF22B}"/>
-    <hyperlink ref="E12" r:id="rId83" xr:uid="{F1295FBE-1897-4B57-8E7D-6AB37CEA0075}"/>
-    <hyperlink ref="E14:E20" r:id="rId84" display="Crocodilians" xr:uid="{E7E3C18C-987F-4FCD-9BEF-03E6185F1DBB}"/>
-    <hyperlink ref="E22:E25" r:id="rId85" display="Demons of Change" xr:uid="{5D37A975-4CA9-42D9-902D-EFEFCDE50636}"/>
-    <hyperlink ref="E27:E28" r:id="rId86" display="Demons of Decay" xr:uid="{0E1F7270-C933-44F5-9286-D2FEABAC4BFB}"/>
-    <hyperlink ref="E30:E31" r:id="rId87" display="Demons of Excess" xr:uid="{50B9951F-C749-4EA5-840F-FF3C1C2537E2}"/>
-    <hyperlink ref="E33:E34" r:id="rId88" display="Demons of Rage" xr:uid="{64F69B6A-8835-4BE9-971B-52540B0C4B58}"/>
-    <hyperlink ref="E38:E41" r:id="rId89" display="Geese" xr:uid="{C6FAD9DC-F9DE-4613-8F07-5DA459A6B29A}"/>
-    <hyperlink ref="E43:E44" r:id="rId90" display="Hippos" xr:uid="{57CAEAD6-C500-4CCD-9449-FBAF7AF5D220}"/>
-    <hyperlink ref="E134" r:id="rId91" xr:uid="{CC0283CA-AF8C-4DEA-A3DA-7048B7B4DE1E}"/>
-    <hyperlink ref="E135" r:id="rId92" xr:uid="{FDD9596E-C1E9-447C-B186-D45E64BD8897}"/>
+    <hyperlink ref="E29" r:id="rId2" xr:uid="{7740B376-4459-4FAA-AB98-1A2D8A29C31B}"/>
+    <hyperlink ref="E32" r:id="rId3" xr:uid="{C150CCA9-0F5F-46AB-943C-BD01528A8B1F}"/>
+    <hyperlink ref="E132" r:id="rId4" xr:uid="{EEF075A1-990E-48FE-9387-8BD7C00E2972}"/>
+    <hyperlink ref="E21" r:id="rId5" xr:uid="{8637426C-4B99-4977-8180-B781792B2D6C}"/>
+    <hyperlink ref="E13" r:id="rId6" xr:uid="{9B5D71D0-75F3-4EE0-8DA8-B6BD9F84C82E}"/>
+    <hyperlink ref="E26" r:id="rId7" xr:uid="{CC82EA8F-F005-4EB2-9D62-3A8B0CBA91AF}"/>
+    <hyperlink ref="E42" r:id="rId8" xr:uid="{A7029CFF-3F01-4AEA-9F17-2317268BC704}"/>
+    <hyperlink ref="E46" r:id="rId9" xr:uid="{5CF6B4CC-D51B-41A3-BC86-6560F7DD59F5}"/>
+    <hyperlink ref="E2" r:id="rId10" xr:uid="{7846F880-8F09-4C29-8DA3-F2246F7939E5}"/>
+    <hyperlink ref="E35" r:id="rId11" xr:uid="{570E2F56-8041-45E6-AEEF-A3857B5D5847}"/>
+    <hyperlink ref="E55" r:id="rId12" xr:uid="{E810D0E0-4900-4222-B30D-3BE97754D85D}"/>
+    <hyperlink ref="E9" r:id="rId13" xr:uid="{1026E72B-801A-42F9-A958-554A9A550B91}"/>
+    <hyperlink ref="E53" r:id="rId14" xr:uid="{D228C468-F1C8-4B50-AA9A-2BFE6D1BB225}"/>
+    <hyperlink ref="E11" r:id="rId15" xr:uid="{71B117C9-370F-4CA6-8D09-7B1776B5E256}"/>
+    <hyperlink ref="E7" r:id="rId16" xr:uid="{2337DA2F-0366-48D1-A576-15B38ABA8FA5}"/>
+    <hyperlink ref="E37" r:id="rId17" xr:uid="{B905E699-BE8D-450A-A5E2-77DAB8DF4433}"/>
+    <hyperlink ref="E125" r:id="rId18" xr:uid="{041375A2-D067-4A40-8828-7889379EF114}"/>
+    <hyperlink ref="E64:E65" r:id="rId19" display="Turkeys" xr:uid="{88E6937D-B8A1-4AC7-B1D5-F23A14BE36C9}"/>
+    <hyperlink ref="E128" r:id="rId20" xr:uid="{5CDA5DF7-07F1-415D-92B6-ED50325661CC}"/>
+    <hyperlink ref="E131" r:id="rId21" xr:uid="{0C5326F6-F3C5-4D41-A714-A391F57A0C73}"/>
+    <hyperlink ref="E115" r:id="rId22" xr:uid="{A6A2F85D-15E4-4853-98AF-6A5D1DDE42D1}"/>
+    <hyperlink ref="E133" r:id="rId23" xr:uid="{B0BF7381-65DF-449C-8466-065F67220649}"/>
+    <hyperlink ref="E48" r:id="rId24" xr:uid="{F801D409-31B5-4F77-897D-35F5AAE055C8}"/>
+    <hyperlink ref="E112" r:id="rId25" xr:uid="{83C4A64B-15DC-49A7-A939-2543A94EB330}"/>
+    <hyperlink ref="E83" r:id="rId26" xr:uid="{7256DA5D-0B8D-49EF-985E-0B0569E2E1EB}"/>
+    <hyperlink ref="E76" r:id="rId27" xr:uid="{549DB810-2E99-44F3-A802-C1DB01662A67}"/>
+    <hyperlink ref="E104" r:id="rId28" xr:uid="{274DD5E8-044F-493C-A18A-2F9A8B7357E5}"/>
+    <hyperlink ref="E72" r:id="rId29" display="Plague Censer Bearer" xr:uid="{7010B8A8-DECA-4276-A943-BB646368232A}"/>
+    <hyperlink ref="E52" r:id="rId30" xr:uid="{B13A52D4-94A4-4BFA-8A84-7FD639267FFB}"/>
+    <hyperlink ref="E89" r:id="rId31" xr:uid="{700D5C34-6C41-4C82-A1DF-A36987B02587}"/>
+    <hyperlink ref="E71" r:id="rId32" xr:uid="{32DD538B-701B-49F0-B818-A5BDD0A8FD42}"/>
+    <hyperlink ref="E96" r:id="rId33" xr:uid="{84A84609-F8AB-4500-9367-5EF521C3D039}"/>
+    <hyperlink ref="E45" r:id="rId34" xr:uid="{78560ED4-F971-48FA-8E7D-0927D2102880}"/>
+    <hyperlink ref="E51" r:id="rId35" xr:uid="{72F178FC-2D46-4527-B45A-1D02A2DDCCA6}"/>
+    <hyperlink ref="E73" r:id="rId36" xr:uid="{75494AB1-681F-43E3-B13D-690DD2054A7E}"/>
+    <hyperlink ref="E111" r:id="rId37" xr:uid="{A1DB5563-BDAB-475B-A1BA-742E992BE98C}"/>
+    <hyperlink ref="E74" r:id="rId38" xr:uid="{11F5DB7C-3F00-444E-AD24-9ED27C85052F}"/>
+    <hyperlink ref="E82" r:id="rId39" xr:uid="{4126C33B-2342-4483-BFEE-207D26CA0652}"/>
+    <hyperlink ref="E36" r:id="rId40" xr:uid="{CBE4BFC2-50F0-456F-918F-1ECD9DBD82E2}"/>
+    <hyperlink ref="E3:E6" r:id="rId41" display="Beavers" xr:uid="{36154117-6BFA-4765-AAC8-F1416FE9D183}"/>
+    <hyperlink ref="E8" r:id="rId42" xr:uid="{F5569ABA-F66B-43F6-8699-2D8A2D7B588E}"/>
+    <hyperlink ref="E10" r:id="rId43" xr:uid="{38BD0EFD-3B97-4FFB-8195-0425FB6DF22B}"/>
+    <hyperlink ref="E12" r:id="rId44" xr:uid="{F1295FBE-1897-4B57-8E7D-6AB37CEA0075}"/>
+    <hyperlink ref="E14:E20" r:id="rId45" display="Crocodilians" xr:uid="{E7E3C18C-987F-4FCD-9BEF-03E6185F1DBB}"/>
+    <hyperlink ref="E22:E25" r:id="rId46" display="Demons of Change" xr:uid="{5D37A975-4CA9-42D9-902D-EFEFCDE50636}"/>
+    <hyperlink ref="E27:E28" r:id="rId47" display="Demons of Decay" xr:uid="{0E1F7270-C933-44F5-9286-D2FEABAC4BFB}"/>
+    <hyperlink ref="E30:E31" r:id="rId48" display="Demons of Excess" xr:uid="{50B9951F-C749-4EA5-840F-FF3C1C2537E2}"/>
+    <hyperlink ref="E33:E34" r:id="rId49" display="Demons of Rage" xr:uid="{64F69B6A-8835-4BE9-971B-52540B0C4B58}"/>
+    <hyperlink ref="E38:E41" r:id="rId50" display="Geese" xr:uid="{C6FAD9DC-F9DE-4613-8F07-5DA459A6B29A}"/>
+    <hyperlink ref="E43:E44" r:id="rId51" display="Hippos" xr:uid="{57CAEAD6-C500-4CCD-9449-FBAF7AF5D220}"/>
+    <hyperlink ref="E134" r:id="rId52" xr:uid="{CC0283CA-AF8C-4DEA-A3DA-7048B7B4DE1E}"/>
+    <hyperlink ref="E135" r:id="rId53" xr:uid="{FDD9596E-C1E9-447C-B186-D45E64BD8897}"/>
+    <hyperlink ref="E47" r:id="rId54" xr:uid="{EE4F84C8-C4A0-4E69-BDA6-3329C744AA93}"/>
+    <hyperlink ref="E49:E50" r:id="rId55" display="Mishipeshu" xr:uid="{B0C919D6-3373-4EF9-ABAD-FB01B13440AB}"/>
+    <hyperlink ref="E54" r:id="rId56" xr:uid="{2CF48A46-D4E5-493A-8BA9-5CA018517A4A}"/>
+    <hyperlink ref="E56:E58" r:id="rId57" display="Otherworldly Patron - The Cauldron NPCs " xr:uid="{DA188EE3-B896-4DB7-8933-AECE5EE42DFA}"/>
+    <hyperlink ref="E59" r:id="rId58" xr:uid="{1D0FA85E-B898-4474-A46F-16D0013CE39B}"/>
+    <hyperlink ref="E60:E63" r:id="rId59" display="Otters" xr:uid="{7E107E97-3B70-423F-8375-05DF8977A3E6}"/>
+    <hyperlink ref="E65:E70" r:id="rId60" display="Owls" xr:uid="{4E883043-1411-4249-AB12-FF5A2D124BBB}"/>
+    <hyperlink ref="E75" r:id="rId61" xr:uid="{DA536D1A-0FFA-4A8B-ACA1-DEE439AD74D9}"/>
+    <hyperlink ref="E77:E81" r:id="rId62" display="Rat Monstrosities" xr:uid="{D46FFB8C-2DAE-4D9C-9E81-29808F0C1ACA}"/>
+    <hyperlink ref="E84:E88" r:id="rId63" display="Rats" xr:uid="{5FCA2C7B-D1C5-4C52-A778-2461B028EFAB}"/>
+    <hyperlink ref="E90" r:id="rId64" xr:uid="{0FEDDC4E-EFB1-4D3C-857A-046F341EA4B9}"/>
+    <hyperlink ref="E91" r:id="rId65" xr:uid="{FBC08E58-4F87-42CC-8A75-9C3FDF055070}"/>
+    <hyperlink ref="E92" r:id="rId66" xr:uid="{6F59902B-F74D-40B9-9336-3248897C1833}"/>
+    <hyperlink ref="E93" r:id="rId67" xr:uid="{BC45D541-AD1F-4405-8C56-F268BD60893F}"/>
+    <hyperlink ref="E94" r:id="rId68" xr:uid="{6F9189E8-D8EE-4649-9218-7BE7E74D36B9}"/>
+    <hyperlink ref="E95" r:id="rId69" xr:uid="{C9C9BE17-6967-4E21-946E-676910327B46}"/>
+    <hyperlink ref="E97" r:id="rId70" xr:uid="{5D5157F1-559B-4634-BF8E-647E780FC38B}"/>
+    <hyperlink ref="E98" r:id="rId71" xr:uid="{98D73104-5354-4CE1-8A4F-444BC0A863C5}"/>
+    <hyperlink ref="E99" r:id="rId72" xr:uid="{1A6FDD36-70E8-4A0F-87AA-7F0DDF8CA116}"/>
+    <hyperlink ref="E100" r:id="rId73" xr:uid="{84D28B3A-E8E4-4A1D-9F75-8FD83738C18B}"/>
+    <hyperlink ref="E101" r:id="rId74" xr:uid="{E6AF5147-8DBB-475B-BB13-AE4EB76B4142}"/>
+    <hyperlink ref="E102" r:id="rId75" xr:uid="{DB5E3310-B13E-4BB2-93BB-1AA0ED7F6DB5}"/>
+    <hyperlink ref="E103" r:id="rId76" xr:uid="{7C72F4C1-3370-426B-9276-2003A211B3F6}"/>
+    <hyperlink ref="E105:E110" r:id="rId77" display="Sharks" xr:uid="{26AC78B2-6E8D-4DC3-9892-27A60D0332F9}"/>
+    <hyperlink ref="E113:E114" r:id="rId78" display="Tigers" xr:uid="{1309CEBD-E415-4D59-9293-82F6B1838C4C}"/>
+    <hyperlink ref="E116:E124" r:id="rId79" display="Toads" xr:uid="{3997B53E-845B-4700-ACB9-261BE83F5220}"/>
+    <hyperlink ref="E126:E127" r:id="rId80" display="Turkeys" xr:uid="{17E8718E-27BC-4230-AFE6-99E1DB6ADBBB}"/>
+    <hyperlink ref="E129:E130" r:id="rId81" display="Water Horses" xr:uid="{21D217B7-2E1C-4AD5-A5B7-C33A2F4F7B65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId93"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId82"/>
 </worksheet>
 </file>
 
@@ -5983,13 +5097,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>1</v>
@@ -5997,36 +5111,36 @@
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6067,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>1</v>
@@ -6076,35 +5190,35 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -6148,115 +5262,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>450</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>367</v>
-      </c>
-      <c r="D1" s="47" t="s">
+      <c r="A1" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="I1" s="43" t="s">
         <v>391</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="J1" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="F1" s="49" t="s">
-        <v>393</v>
-      </c>
-      <c r="G1" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="H1" s="49" t="s">
-        <v>395</v>
-      </c>
-      <c r="I1" s="49" t="s">
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+    </row>
+    <row r="2" spans="1:15" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="K2" s="51" t="s">
         <v>397</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-    </row>
-    <row r="2" spans="1:15" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="43" t="s">
-        <v>401</v>
-      </c>
-      <c r="K2" s="45" t="s">
-        <v>402</v>
-      </c>
-      <c r="L2" s="45" t="s">
-        <v>403</v>
-      </c>
-      <c r="M2" s="45" t="s">
-        <v>404</v>
-      </c>
-      <c r="N2" s="45" t="s">
-        <v>405</v>
-      </c>
-      <c r="O2" s="45" t="s">
-        <v>446</v>
+      <c r="L2" s="51" t="s">
+        <v>398</v>
+      </c>
+      <c r="M2" s="51" t="s">
+        <v>399</v>
+      </c>
+      <c r="N2" s="51" t="s">
+        <v>400</v>
+      </c>
+      <c r="O2" s="51" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
     </row>
     <row r="4" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="J4" s="36">
         <v>2</v>
@@ -6280,31 +5394,31 @@
     </row>
     <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="J5" s="34">
         <v>3</v>
@@ -6328,31 +5442,31 @@
     </row>
     <row r="6" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E6" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="H6" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>411</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>400</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>418</v>
-      </c>
       <c r="I6" s="23" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J6" s="34">
         <v>5</v>
@@ -6376,31 +5490,31 @@
     </row>
     <row r="7" spans="1:15" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="J7" s="35">
         <v>3</v>
@@ -6424,31 +5538,31 @@
     </row>
     <row r="8" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="J8" s="35">
         <v>3</v>
@@ -6472,31 +5586,31 @@
     </row>
     <row r="9" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="J9" s="35">
         <v>3</v>
@@ -6520,31 +5634,31 @@
     </row>
     <row r="10" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="J10" s="35">
         <v>5</v>
@@ -6568,31 +5682,31 @@
     </row>
     <row r="11" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="J11" s="35">
         <v>4</v>
@@ -6616,31 +5730,31 @@
     </row>
     <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="J12" s="35">
         <v>2</v>
@@ -6664,31 +5778,31 @@
     </row>
     <row r="13" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="J13" s="35">
         <v>4</v>
@@ -6712,31 +5826,31 @@
     </row>
     <row r="14" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="J14" s="35">
         <v>3</v>
@@ -6765,6 +5879,13 @@
     </sortState>
   </autoFilter>
   <mergeCells count="16">
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
@@ -6774,13 +5895,6 @@
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{B4A7D905-D120-4788-AC98-B53455EB3FC4}"/>
@@ -6825,356 +5939,356 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -7288,16 +6402,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>1</v>
@@ -7305,327 +6419,327 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="1048567" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1048567" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -7682,43 +6796,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>156</v>
-      </c>
       <c r="N1" s="13" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>1</v>
@@ -7727,1271 +6841,1271 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C16" s="2">
         <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C17" s="2">
         <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C18" s="2">
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C19" s="2">
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C20" s="2">
         <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C21" s="2">
         <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C22" s="2">
         <v>4</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C23" s="2">
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C24" s="2">
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C25" s="2">
         <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C26" s="2">
         <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O26" s="16" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C27" s="2">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C28" s="2">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -9002,22 +8116,22 @@
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="2" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="1" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="0" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9050,10 +8164,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>1</v>
@@ -9061,86 +8175,86 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -9182,28 +8296,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>1</v>
@@ -9211,792 +8325,792 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1">
         <v>6000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1">
         <v>2000</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1">
         <v>1500</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1">
         <v>9000</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1">
         <v>12000</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1">
         <v>50000</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1">
         <v>6000</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1">
         <v>24000</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1">
         <v>26000</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1">
         <v>7000</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1">
         <v>9000</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D26" s="1">
         <v>20000</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -10004,284 +9118,284 @@
         <v>14</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D28" s="1">
         <v>100</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D29" s="1">
         <v>1000</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D30" s="1">
         <v>3000</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D31" s="1">
         <v>15000</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D32" s="1">
         <v>26000</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D33" s="1">
         <v>8000</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D34" s="1">
         <v>24000</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D35" s="1">
         <v>200</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -10418,7 +9532,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
@@ -10426,24 +9540,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/PublicContentList.xlsx
+++ b/PublicContentList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B42DC89-B0E9-48F0-9F2D-113D32984138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A220C3-9617-4699-957E-A2B4BD103F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="471">
   <si>
     <t>Name</t>
   </si>
@@ -230,15 +230,6 @@
     <t>Source Doc</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Development Status</t>
-  </si>
-  <si>
-    <t>Release Status</t>
-  </si>
-  <si>
     <t>Owl</t>
   </si>
   <si>
@@ -261,9 +252,6 @@
   </si>
   <si>
     <t>Owls</t>
-  </si>
-  <si>
-    <t>Complete</t>
   </si>
   <si>
     <t>Rod of Magic Detection</t>
@@ -1981,6 +1969,24 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1997,24 +2003,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2554,11 +2542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A139" sqref="A139"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2575,2326 +2563,2299 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B3" s="6">
         <v>0.5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B4" s="6">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B5" s="6">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B8" s="6">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B9" s="6">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B10" s="6">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B11" s="6">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B12" s="6">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" s="6">
         <v>0.5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B14" s="6">
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B15" s="6">
         <v>0.25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="B16" s="6">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B17" s="6">
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B18" s="6">
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B19" s="6">
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B20" s="6">
         <v>0.5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B21" s="6">
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B23" s="6">
         <v>0.5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B24" s="6">
         <v>0.25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B25" s="6">
         <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B26" s="6">
         <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B27" s="6">
         <v>17</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B28" s="6">
         <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B29" s="6">
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B30" s="6">
         <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B31" s="6">
         <v>17</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B32" s="6">
         <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B33" s="6">
         <v>17</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B34" s="6">
         <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B35" s="6">
         <v>0.5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B36" s="6">
         <v>16</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B37" s="6">
         <v>0.125</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B38" s="6">
         <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B39" s="6">
         <v>0.25</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B40" s="6">
         <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B41" s="6">
         <v>0.5</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B42" s="6">
         <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B43" s="6">
         <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B44" s="6">
         <v>0.5</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B45" s="6">
         <v>7</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B46" s="6">
         <v>2</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B47" s="6">
         <v>3</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B48" s="6">
         <v>5</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B49" s="6">
         <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B50" s="6">
         <v>14</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B51" s="6">
         <v>5</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B52" s="6">
         <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B53" s="6">
         <v>3</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B54" s="6">
         <v>7</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B55" s="6">
         <v>2</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B56" s="6">
         <v>6</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B57" s="6">
         <v>10</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" s="40" t="s">
+        <v>458</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="D57" s="40" t="s">
-        <v>462</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="B58" s="6">
         <v>15</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B59" s="6">
         <v>0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B60" s="6">
         <v>0.125</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B61" s="6">
         <v>0.5</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E61" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="B62" s="6">
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B63" s="6">
         <v>5</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B64" s="6">
         <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B65" s="6">
         <v>0.125</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B66" s="6">
         <v>0.5</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B67" s="6">
         <v>2</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B68" s="6">
         <v>3</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B69" s="6">
         <v>6</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B70" s="6">
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B71" s="6">
         <v>2</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B72" s="6">
         <v>3</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B73" s="6">
         <v>2</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E73" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="B74" s="6">
         <v>6</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B75" s="6">
         <v>10</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D75" s="40" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B76" s="6">
         <v>10</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B77" s="6">
         <v>16</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D77" s="40" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B78" s="6">
         <v>3</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B79" s="6">
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B80" s="6">
         <v>7</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D80" s="40" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B81" s="6">
         <v>0.5</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B82" s="6">
         <v>7</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B83" s="6">
         <v>0</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B84" s="6">
         <v>0.125</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B85" s="6">
         <v>0.25</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E85" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="B86" s="6">
         <v>0.25</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D86" s="40" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B87" s="6">
         <v>3</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D87" s="40" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B88" s="6">
         <v>1</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D88" s="40" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B89" s="6">
         <v>0.125</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B90" s="6">
         <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B91" s="6">
         <v>3</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D91" s="40" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B92" s="6">
         <v>0</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D92" s="40" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B93" s="6">
         <v>3</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D93" s="40" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B94" s="6">
         <v>0.5</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B95" s="6">
         <v>4</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E95" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>333</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="B96" s="6">
         <v>7</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D96" s="40" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B97" s="6">
         <v>1</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D97" s="40" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B98" s="6">
         <v>0.25</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B99" s="6">
         <v>6</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B100" s="6">
         <v>0.5</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D100" s="40" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B101" s="6">
         <v>5</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B102" s="6">
         <v>1</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B103" s="6">
         <v>3</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B104" s="6">
         <v>3</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D104" s="40" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B105" s="6">
         <v>5</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B106" s="6">
         <v>3</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B107" s="6">
         <v>2</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B108" s="6">
         <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B109" s="6">
         <v>3</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B110" s="6">
         <v>4</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B111" s="6">
         <v>4</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D111" s="40" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B112" s="6">
         <v>3</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D112" s="40" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B113" s="6">
         <v>4</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D113" s="40" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B114" s="6">
         <v>4</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D114" s="40" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B115" s="6">
         <v>0</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B116" s="6">
         <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D116" s="40" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B117" s="6">
         <v>0.25</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D117" s="40" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B118" s="6">
         <v>1</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D118" s="40" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B119" s="6">
         <v>5</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D119" s="40" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B120" s="6">
         <v>8</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D120" s="40" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B121" s="6">
         <v>0.125</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D121" s="40" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B122" s="6">
         <v>4</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D122" s="40" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B123" s="6">
         <v>3</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D123" s="40" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B124" s="6">
         <v>8</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D124" s="40" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B125" s="6">
         <v>0</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D125" s="40" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B126" s="6">
         <v>1</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D126" s="40" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B127" s="6">
         <v>5</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D127" s="40" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B128" s="6">
         <v>5</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D128" s="40" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B129" s="6">
         <v>2</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D129" s="40" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B130" s="6">
         <v>8</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D130" s="40" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B131" s="6">
         <v>11</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D131" s="40" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B132" s="6">
         <v>4</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D132" s="40" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B133" s="6">
         <v>8</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D133" s="40" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B134" s="6">
         <v>13</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D134" s="40" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B135" s="6">
         <v>12</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D135" s="40" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -5013,7 +4974,7 @@
     <hyperlink ref="E83" r:id="rId26" xr:uid="{7256DA5D-0B8D-49EF-985E-0B0569E2E1EB}"/>
     <hyperlink ref="E76" r:id="rId27" xr:uid="{549DB810-2E99-44F3-A802-C1DB01662A67}"/>
     <hyperlink ref="E104" r:id="rId28" xr:uid="{274DD5E8-044F-493C-A18A-2F9A8B7357E5}"/>
-    <hyperlink ref="E72" r:id="rId29" display="Plague Censer Bearer" xr:uid="{7010B8A8-DECA-4276-A943-BB646368232A}"/>
+    <hyperlink ref="E72" r:id="rId29" xr:uid="{7010B8A8-DECA-4276-A943-BB646368232A}"/>
     <hyperlink ref="E52" r:id="rId30" xr:uid="{B13A52D4-94A4-4BFA-8A84-7FD639267FFB}"/>
     <hyperlink ref="E89" r:id="rId31" xr:uid="{700D5C34-6C41-4C82-A1DF-A36987B02587}"/>
     <hyperlink ref="E71" r:id="rId32" xr:uid="{32DD538B-701B-49F0-B818-A5BDD0A8FD42}"/>
@@ -5097,13 +5058,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>1</v>
@@ -5111,36 +5072,36 @@
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5181,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>1</v>
@@ -5190,35 +5151,35 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -5262,115 +5223,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>362</v>
-      </c>
-      <c r="D1" s="41" t="s">
+      <c r="A1" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>382</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>383</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>384</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>385</v>
+      </c>
+      <c r="H1" s="49" t="s">
         <v>386</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="I1" s="49" t="s">
         <v>387</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="J1" s="41" t="s">
         <v>388</v>
       </c>
-      <c r="G1" s="43" t="s">
-        <v>389</v>
-      </c>
-      <c r="H1" s="43" t="s">
-        <v>390</v>
-      </c>
-      <c r="I1" s="43" t="s">
-        <v>391</v>
-      </c>
-      <c r="J1" s="47" t="s">
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+    </row>
+    <row r="2" spans="1:15" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="43" t="s">
         <v>392</v>
       </c>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-    </row>
-    <row r="2" spans="1:15" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="49" t="s">
+      <c r="K2" s="45" t="s">
+        <v>393</v>
+      </c>
+      <c r="L2" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="M2" s="45" t="s">
+        <v>395</v>
+      </c>
+      <c r="N2" s="45" t="s">
         <v>396</v>
       </c>
-      <c r="K2" s="51" t="s">
-        <v>397</v>
-      </c>
-      <c r="L2" s="51" t="s">
-        <v>398</v>
-      </c>
-      <c r="M2" s="51" t="s">
-        <v>399</v>
-      </c>
-      <c r="N2" s="51" t="s">
-        <v>400</v>
-      </c>
-      <c r="O2" s="51" t="s">
-        <v>441</v>
+      <c r="O2" s="45" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
     </row>
     <row r="4" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G4" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="I4" s="32" t="s">
         <v>401</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>404</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>405</v>
       </c>
       <c r="J4" s="36">
         <v>2</v>
@@ -5394,31 +5355,31 @@
     </row>
     <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="J5" s="34">
         <v>3</v>
@@ -5442,31 +5403,31 @@
     </row>
     <row r="6" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="J6" s="34">
         <v>5</v>
@@ -5490,31 +5451,31 @@
     </row>
     <row r="7" spans="1:15" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="J7" s="35">
         <v>3</v>
@@ -5538,31 +5499,31 @@
     </row>
     <row r="8" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="J8" s="35">
         <v>3</v>
@@ -5586,31 +5547,31 @@
     </row>
     <row r="9" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J9" s="35">
         <v>3</v>
@@ -5634,31 +5595,31 @@
     </row>
     <row r="10" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J10" s="35">
         <v>5</v>
@@ -5682,31 +5643,31 @@
     </row>
     <row r="11" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="J11" s="35">
         <v>4</v>
@@ -5730,31 +5691,31 @@
     </row>
     <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="J12" s="35">
         <v>2</v>
@@ -5778,31 +5739,31 @@
     </row>
     <row r="13" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="J13" s="35">
         <v>4</v>
@@ -5826,31 +5787,31 @@
     </row>
     <row r="14" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J14" s="35">
         <v>3</v>
@@ -5879,13 +5840,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="16">
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
@@ -5895,6 +5849,13 @@
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{B4A7D905-D120-4788-AC98-B53455EB3FC4}"/>
@@ -5939,356 +5900,356 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -6402,16 +6363,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>1</v>
@@ -6419,327 +6380,327 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="1048567" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1048567" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -6796,43 +6757,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>152</v>
-      </c>
       <c r="N1" s="13" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>1</v>
@@ -6841,1271 +6802,1271 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O2" s="16" t="s">
         <v>363</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O3" s="16" t="s">
         <v>363</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O4" s="16" t="s">
         <v>363</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O5" s="16" t="s">
         <v>363</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N6" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O6" s="16" t="s">
         <v>363</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O7" s="16" t="s">
         <v>363</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N8" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O8" s="16" t="s">
         <v>363</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N9" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O9" s="16" t="s">
         <v>363</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N10" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O10" s="16" t="s">
         <v>363</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N11" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O11" s="16" t="s">
         <v>363</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N12" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O12" s="16" t="s">
         <v>363</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N13" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O13" s="16" t="s">
         <v>363</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N14" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O14" s="16" t="s">
         <v>363</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N15" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O15" s="16" t="s">
         <v>363</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C16" s="2">
         <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N16" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O16" s="16" t="s">
         <v>363</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C17" s="2">
         <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N17" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O17" s="16" t="s">
         <v>363</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C18" s="2">
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N18" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O18" s="16" t="s">
         <v>363</v>
-      </c>
-      <c r="O18" s="16" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C19" s="2">
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N19" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O19" s="16" t="s">
         <v>363</v>
-      </c>
-      <c r="O19" s="16" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C20" s="2">
         <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N20" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O20" s="16" t="s">
         <v>363</v>
-      </c>
-      <c r="O20" s="16" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2">
         <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N21" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O21" s="16" t="s">
         <v>363</v>
-      </c>
-      <c r="O21" s="16" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2">
         <v>4</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N22" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O22" s="16" t="s">
         <v>363</v>
-      </c>
-      <c r="O22" s="16" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C23" s="2">
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N23" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O23" s="16" t="s">
         <v>363</v>
-      </c>
-      <c r="O23" s="16" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C24" s="2">
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N24" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O24" s="16" t="s">
         <v>363</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C25" s="2">
         <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N25" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O25" s="16" t="s">
         <v>363</v>
-      </c>
-      <c r="O25" s="16" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C26" s="2">
         <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N26" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O26" s="16" t="s">
         <v>363</v>
-      </c>
-      <c r="O26" s="16" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C27" s="2">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N27" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O27" s="16" t="s">
         <v>363</v>
-      </c>
-      <c r="O27" s="16" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C28" s="2">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N28" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O28" s="16" t="s">
         <v>363</v>
-      </c>
-      <c r="O28" s="16" t="s">
-        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -8164,10 +8125,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>1</v>
@@ -8175,86 +8136,86 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -8296,28 +8257,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>1</v>
@@ -8325,1077 +8286,1077 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1">
         <v>6000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1">
         <v>2000</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1">
         <v>1500</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1">
         <v>9000</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1">
         <v>12000</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1">
         <v>50000</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1">
         <v>6000</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1">
         <v>24000</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1">
         <v>26000</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1">
         <v>7000</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D23" s="1">
         <v>9000</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D26" s="1">
         <v>20000</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D28" s="1">
         <v>100</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D29" s="1">
         <v>1000</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D30" s="1">
         <v>3000</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D31" s="1">
         <v>15000</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D32" s="1">
         <v>26000</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D33" s="1">
         <v>8000</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D34" s="1">
         <v>24000</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D35" s="1">
         <v>200</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -9532,7 +9493,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
@@ -9540,24 +9501,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/PublicContentList.xlsx
+++ b/PublicContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A220C3-9617-4699-957E-A2B4BD103F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89CC198-B8A0-45BF-8595-8C28334A2703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="473">
   <si>
     <t>Name</t>
   </si>
@@ -1635,6 +1635,12 @@
   </si>
   <si>
     <t>Angler Mimic</t>
+  </si>
+  <si>
+    <t>Umibōzu</t>
+  </si>
+  <si>
+    <t>Undead</t>
   </si>
 </sst>
 </file>
@@ -1969,6 +1975,24 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1985,24 +2009,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2542,11 +2548,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4856,6 +4862,23 @@
       </c>
       <c r="E135" s="3" t="s">
         <v>470</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B136" s="6">
+        <v>15</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D136" s="40" t="s">
+        <v>466</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -5027,9 +5050,10 @@
     <hyperlink ref="E116:E124" r:id="rId79" display="Toads" xr:uid="{3997B53E-845B-4700-ACB9-261BE83F5220}"/>
     <hyperlink ref="E126:E127" r:id="rId80" display="Turkeys" xr:uid="{17E8718E-27BC-4230-AFE6-99E1DB6ADBBB}"/>
     <hyperlink ref="E129:E130" r:id="rId81" display="Water Horses" xr:uid="{21D217B7-2E1C-4AD5-A5B7-C33A2F4F7B65}"/>
+    <hyperlink ref="E136" r:id="rId82" xr:uid="{4EEFA9FF-45D2-4214-8665-1794562B9A08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId82"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId83"/>
 </worksheet>
 </file>
 
@@ -5223,87 +5247,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="41" t="s">
         <v>441</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="45" t="s">
         <v>383</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="43" t="s">
         <v>384</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="43" t="s">
         <v>385</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="43" t="s">
         <v>386</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="43" t="s">
         <v>387</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="47" t="s">
         <v>388</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
     </row>
     <row r="2" spans="1:15" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="43" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="49" t="s">
         <v>392</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="51" t="s">
         <v>393</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="51" t="s">
         <v>394</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="51" t="s">
         <v>395</v>
       </c>
-      <c r="N2" s="45" t="s">
+      <c r="N2" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="51" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
     </row>
     <row r="4" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
@@ -5840,6 +5864,13 @@
     </sortState>
   </autoFilter>
   <mergeCells count="16">
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
@@ -5849,13 +5880,6 @@
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{B4A7D905-D120-4788-AC98-B53455EB3FC4}"/>

--- a/PublicContentList.xlsx
+++ b/PublicContentList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89CC198-B8A0-45BF-8595-8C28334A2703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0C87D4-1B99-4D0F-866E-07246D25BDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Adventures!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ClassFeatures!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Creatures!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Creatures!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">DMResources!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Feats!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">MagicItems!$A$1:$J$35</definedName>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="479">
   <si>
     <t>Name</t>
   </si>
@@ -1094,9 +1094,6 @@
     <t>Feature Type</t>
   </si>
   <si>
-    <t>Invocation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Agonizing Infusion </t>
   </si>
   <si>
@@ -1641,6 +1638,27 @@
   </si>
   <si>
     <t>Undead</t>
+  </si>
+  <si>
+    <t>Eldritch Invocation</t>
+  </si>
+  <si>
+    <t>Public Source Doc</t>
+  </si>
+  <si>
+    <t>Patreon Source Doc</t>
+  </si>
+  <si>
+    <t>Public Encounter Guide</t>
+  </si>
+  <si>
+    <t>Patreon Encounter Guide</t>
+  </si>
+  <si>
+    <t>Mummy Lord</t>
+  </si>
+  <si>
+    <t>Desert, Underdark</t>
   </si>
 </sst>
 </file>
@@ -2548,28 +2566,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C138" sqref="C138"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H140" sqref="H140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.140625" style="40" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2580,13 +2599,22 @@
         <v>61</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
@@ -2597,13 +2625,22 @@
         <v>62</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
@@ -2614,13 +2651,22 @@
         <v>62</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
@@ -2631,13 +2677,22 @@
         <v>69</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>134</v>
       </c>
@@ -2648,13 +2703,22 @@
         <v>69</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>133</v>
       </c>
@@ -2665,13 +2729,22 @@
         <v>69</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>101</v>
       </c>
@@ -2682,13 +2755,22 @@
         <v>90</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>102</v>
       </c>
@@ -2699,13 +2781,22 @@
         <v>90</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>95</v>
       </c>
@@ -2716,13 +2807,22 @@
         <v>90</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>96</v>
       </c>
@@ -2733,13 +2833,22 @@
         <v>90</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>99</v>
       </c>
@@ -2750,13 +2859,22 @@
         <v>90</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>100</v>
       </c>
@@ -2767,13 +2885,22 @@
         <v>90</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -2784,13 +2911,22 @@
         <v>62</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -2801,13 +2937,22 @@
         <v>62</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -2818,13 +2963,22 @@
         <v>62</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -2835,13 +2989,22 @@
         <v>62</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -2852,13 +3015,22 @@
         <v>62</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -2869,13 +3041,22 @@
         <v>62</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -2886,13 +3067,22 @@
         <v>62</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -2903,13 +3093,22 @@
         <v>62</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -2920,13 +3119,22 @@
         <v>69</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -2937,13 +3145,22 @@
         <v>69</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -2954,13 +3171,22 @@
         <v>69</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -2971,13 +3197,22 @@
         <v>69</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -2988,13 +3223,22 @@
         <v>69</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
@@ -3005,13 +3249,22 @@
         <v>69</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
@@ -3022,13 +3275,22 @@
         <v>69</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>46</v>
       </c>
@@ -3039,15 +3301,24 @@
         <v>69</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B29" s="6">
         <v>3</v>
@@ -3056,13 +3327,22 @@
         <v>69</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
@@ -3073,13 +3353,22 @@
         <v>69</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
@@ -3090,13 +3379,22 @@
         <v>69</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
@@ -3107,15 +3405,24 @@
         <v>69</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B33" s="6">
         <v>17</v>
@@ -3124,13 +3431,22 @@
         <v>69</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
@@ -3141,13 +3457,22 @@
         <v>69</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>71</v>
       </c>
@@ -3158,15 +3483,24 @@
         <v>62</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B36" s="6">
         <v>16</v>
@@ -3175,13 +3509,22 @@
         <v>125</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>104</v>
       </c>
@@ -3192,13 +3535,22 @@
         <v>62</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>105</v>
       </c>
@@ -3209,13 +3561,22 @@
         <v>106</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>107</v>
       </c>
@@ -3226,13 +3587,22 @@
         <v>62</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>108</v>
       </c>
@@ -3243,13 +3613,22 @@
         <v>64</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>109</v>
       </c>
@@ -3260,13 +3639,22 @@
         <v>62</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
@@ -3277,13 +3665,22 @@
         <v>62</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
@@ -3294,13 +3691,22 @@
         <v>62</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
@@ -3311,15 +3717,24 @@
         <v>62</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B45" s="6">
         <v>7</v>
@@ -3328,13 +3743,22 @@
         <v>125</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
@@ -3345,13 +3769,22 @@
         <v>62</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
@@ -3362,13 +3795,22 @@
         <v>62</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>129</v>
       </c>
@@ -3379,13 +3821,22 @@
         <v>63</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>130</v>
       </c>
@@ -3396,13 +3847,22 @@
         <v>63</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>131</v>
       </c>
@@ -3413,15 +3873,24 @@
         <v>63</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B51" s="6">
         <v>5</v>
@@ -3430,13 +3899,22 @@
         <v>125</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>286</v>
       </c>
@@ -3444,16 +3922,25 @@
         <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>97</v>
       </c>
@@ -3464,13 +3951,22 @@
         <v>90</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>98</v>
       </c>
@@ -3481,13 +3977,22 @@
         <v>90</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>89</v>
       </c>
@@ -3498,13 +4003,22 @@
         <v>90</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>92</v>
       </c>
@@ -3515,13 +4029,22 @@
         <v>90</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>93</v>
       </c>
@@ -3532,13 +4055,22 @@
         <v>90</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>94</v>
       </c>
@@ -3549,13 +4081,22 @@
         <v>90</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
@@ -3566,13 +4107,22 @@
         <v>62</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
@@ -3583,13 +4133,22 @@
         <v>62</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>57</v>
       </c>
@@ -3600,13 +4159,22 @@
         <v>62</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>58</v>
       </c>
@@ -3617,13 +4185,22 @@
         <v>62</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>59</v>
       </c>
@@ -3634,13 +4211,22 @@
         <v>64</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>2</v>
       </c>
@@ -3651,13 +4237,22 @@
         <v>62</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
@@ -3668,13 +4263,22 @@
         <v>62</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>4</v>
       </c>
@@ -3685,13 +4289,22 @@
         <v>62</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -3702,13 +4315,22 @@
         <v>62</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
@@ -3719,13 +4341,22 @@
         <v>62</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>7</v>
       </c>
@@ -3736,13 +4367,22 @@
         <v>62</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -3753,30 +4393,48 @@
         <v>63</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B71" s="6">
         <v>2</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>284</v>
       </c>
@@ -3784,35 +4442,53 @@
         <v>3</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B73" s="6">
         <v>2</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B74" s="6">
         <v>6</v>
@@ -3821,15 +4497,24 @@
         <v>62</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B75" s="6">
         <v>10</v>
@@ -3838,13 +4523,22 @@
         <v>62</v>
       </c>
       <c r="D75" s="40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>262</v>
       </c>
@@ -3855,13 +4549,22 @@
         <v>125</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>263</v>
       </c>
@@ -3872,13 +4575,22 @@
         <v>125</v>
       </c>
       <c r="D77" s="40" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>264</v>
       </c>
@@ -3889,13 +4601,22 @@
         <v>125</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>265</v>
       </c>
@@ -3906,13 +4627,22 @@
         <v>91</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>266</v>
       </c>
@@ -3923,13 +4653,22 @@
         <v>91</v>
       </c>
       <c r="D80" s="40" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F80" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>267</v>
       </c>
@@ -3940,30 +4679,48 @@
         <v>125</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B82" s="6">
         <v>7</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>248</v>
       </c>
@@ -3974,13 +4731,22 @@
         <v>62</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>249</v>
       </c>
@@ -3991,13 +4757,22 @@
         <v>62</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>250</v>
       </c>
@@ -4008,13 +4783,22 @@
         <v>62</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>251</v>
       </c>
@@ -4025,13 +4809,22 @@
         <v>106</v>
       </c>
       <c r="D86" s="40" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>252</v>
       </c>
@@ -4042,13 +4835,22 @@
         <v>106</v>
       </c>
       <c r="D87" s="40" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>253</v>
       </c>
@@ -4059,15 +4861,24 @@
         <v>125</v>
       </c>
       <c r="D88" s="40" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B89" s="6">
         <v>0.125</v>
@@ -4076,15 +4887,24 @@
         <v>62</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B90" s="6">
         <v>1</v>
@@ -4093,15 +4913,24 @@
         <v>62</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B91" s="6">
         <v>3</v>
@@ -4110,15 +4939,24 @@
         <v>62</v>
       </c>
       <c r="D91" s="40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B92" s="6">
         <v>0</v>
@@ -4127,15 +4965,24 @@
         <v>62</v>
       </c>
       <c r="D92" s="40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B93" s="6">
         <v>3</v>
@@ -4144,15 +4991,24 @@
         <v>62</v>
       </c>
       <c r="D93" s="40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B94" s="6">
         <v>0.5</v>
@@ -4161,15 +5017,24 @@
         <v>62</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B95" s="6">
         <v>4</v>
@@ -4178,15 +5043,24 @@
         <v>62</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B96" s="6">
         <v>7</v>
@@ -4195,15 +5069,24 @@
         <v>62</v>
       </c>
       <c r="D96" s="40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B97" s="6">
         <v>1</v>
@@ -4212,15 +5095,24 @@
         <v>62</v>
       </c>
       <c r="D97" s="40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B98" s="6">
         <v>0.25</v>
@@ -4229,15 +5121,24 @@
         <v>62</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B99" s="6">
         <v>6</v>
@@ -4246,15 +5147,24 @@
         <v>62</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B100" s="6">
         <v>0.5</v>
@@ -4263,15 +5173,24 @@
         <v>62</v>
       </c>
       <c r="D100" s="40" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B101" s="6">
         <v>5</v>
@@ -4280,15 +5199,24 @@
         <v>62</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B102" s="6">
         <v>1</v>
@@ -4297,15 +5225,24 @@
         <v>62</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B103" s="6">
         <v>3</v>
@@ -4314,13 +5251,22 @@
         <v>62</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>276</v>
       </c>
@@ -4331,13 +5277,22 @@
         <v>62</v>
       </c>
       <c r="D104" s="40" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>277</v>
       </c>
@@ -4348,13 +5303,22 @@
         <v>62</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>278</v>
       </c>
@@ -4365,13 +5329,22 @@
         <v>62</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>279</v>
       </c>
@@ -4382,13 +5355,22 @@
         <v>62</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>280</v>
       </c>
@@ -4399,13 +5381,22 @@
         <v>62</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>281</v>
       </c>
@@ -4416,13 +5407,22 @@
         <v>62</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>282</v>
       </c>
@@ -4433,15 +5433,24 @@
         <v>62</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B111" s="6">
         <v>4</v>
@@ -4450,13 +5459,22 @@
         <v>125</v>
       </c>
       <c r="D111" s="40" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>205</v>
       </c>
@@ -4467,13 +5485,22 @@
         <v>62</v>
       </c>
       <c r="D112" s="40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F112" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>206</v>
       </c>
@@ -4484,13 +5511,22 @@
         <v>62</v>
       </c>
       <c r="D113" s="40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F113" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>207</v>
       </c>
@@ -4501,13 +5537,22 @@
         <v>91</v>
       </c>
       <c r="D114" s="40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>121</v>
       </c>
@@ -4518,13 +5563,22 @@
         <v>62</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>122</v>
       </c>
@@ -4535,13 +5589,22 @@
         <v>62</v>
       </c>
       <c r="D116" s="40" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>123</v>
       </c>
@@ -4552,13 +5615,22 @@
         <v>106</v>
       </c>
       <c r="D117" s="40" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>124</v>
       </c>
@@ -4569,13 +5641,22 @@
         <v>125</v>
       </c>
       <c r="D118" s="40" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>126</v>
       </c>
@@ -4586,13 +5667,22 @@
         <v>125</v>
       </c>
       <c r="D119" s="40" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>127</v>
       </c>
@@ -4603,13 +5693,22 @@
         <v>125</v>
       </c>
       <c r="D120" s="40" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>136</v>
       </c>
@@ -4620,13 +5719,22 @@
         <v>125</v>
       </c>
       <c r="D121" s="40" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>137</v>
       </c>
@@ -4637,13 +5745,22 @@
         <v>125</v>
       </c>
       <c r="D122" s="40" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>138</v>
       </c>
@@ -4654,13 +5771,22 @@
         <v>139</v>
       </c>
       <c r="D123" s="40" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>140</v>
       </c>
@@ -4671,13 +5797,22 @@
         <v>125</v>
       </c>
       <c r="D124" s="40" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>111</v>
       </c>
@@ -4688,13 +5823,22 @@
         <v>62</v>
       </c>
       <c r="D125" s="40" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>112</v>
       </c>
@@ -4705,13 +5849,22 @@
         <v>64</v>
       </c>
       <c r="D126" s="40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>113</v>
       </c>
@@ -4722,13 +5875,22 @@
         <v>64</v>
       </c>
       <c r="D127" s="40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>115</v>
       </c>
@@ -4739,13 +5901,22 @@
         <v>64</v>
       </c>
       <c r="D128" s="40" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>116</v>
       </c>
@@ -4756,13 +5927,22 @@
         <v>64</v>
       </c>
       <c r="D129" s="40" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>117</v>
       </c>
@@ -4773,13 +5953,22 @@
         <v>64</v>
       </c>
       <c r="D130" s="40" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>119</v>
       </c>
@@ -4790,13 +5979,22 @@
         <v>64</v>
       </c>
       <c r="D131" s="40" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>22</v>
       </c>
@@ -4807,13 +6005,22 @@
         <v>91</v>
       </c>
       <c r="D132" s="40" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>128</v>
       </c>
@@ -4824,32 +6031,50 @@
         <v>63</v>
       </c>
       <c r="D133" s="40" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B134" s="6">
         <v>13</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D134" s="40" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E134" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>469</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="B135" s="6">
         <v>12</v>
@@ -4858,114 +6083,138 @@
         <v>125</v>
       </c>
       <c r="D135" s="40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E135" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>470</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>471</v>
       </c>
       <c r="B136" s="6">
         <v>15</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D136" s="40" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E136" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B137" s="6">
+        <v>17</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>471</v>
       </c>
+      <c r="D137" s="40" t="s">
+        <v>478</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H133">
+  <autoFilter ref="A1:I1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I133">
       <sortCondition ref="E1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F65 F136:F1048576 F70:F134">
-    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Playtest Ready">
-      <formula>NOT(ISERROR(SEARCH("Playtest Ready",F1)))</formula>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="containsText" dxfId="29" priority="43" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",F1)))</formula>
+    <cfRule type="containsText" dxfId="28" priority="44" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",F1)))</formula>
+    <cfRule type="containsText" dxfId="27" priority="45" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Needs Clean Up">
-      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",F1)))</formula>
+    <cfRule type="containsText" dxfId="26" priority="46" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",F1)))</formula>
+    <cfRule type="containsText" dxfId="25" priority="47" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",F1)))</formula>
+    <cfRule type="containsText" dxfId="24" priority="48" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F66">
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Playtest Ready">
-      <formula>NOT(ISERROR(SEARCH("Playtest Ready",F66)))</formula>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",F66)))</formula>
+    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",F66)))</formula>
+    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Needs Clean Up">
-      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",F66)))</formula>
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",F66)))</formula>
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",F66)))</formula>
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Playtest Ready">
-      <formula>NOT(ISERROR(SEARCH("Playtest Ready",F67)))</formula>
+  <conditionalFormatting sqref="F2:F137">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",F67)))</formula>
+    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",F67)))</formula>
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Needs Clean Up">
-      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",F67)))</formula>
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",F67)))</formula>
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",F67)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F68:F69">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Playtest Ready">
-      <formula>NOT(ISERROR(SEARCH("Playtest Ready",F68)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",F68)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",F68)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Needs Clean Up">
-      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",F68)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",F68)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",F68)))</formula>
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -5051,9 +6300,10 @@
     <hyperlink ref="E126:E127" r:id="rId80" display="Turkeys" xr:uid="{17E8718E-27BC-4230-AFE6-99E1DB6ADBBB}"/>
     <hyperlink ref="E129:E130" r:id="rId81" display="Water Horses" xr:uid="{21D217B7-2E1C-4AD5-A5B7-C33A2F4F7B65}"/>
     <hyperlink ref="E136" r:id="rId82" xr:uid="{4EEFA9FF-45D2-4214-8665-1794562B9A08}"/>
+    <hyperlink ref="E137" r:id="rId83" xr:uid="{FD67F0CC-BE83-4C59-B2D3-52C60052B333}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId83"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId84"/>
 </worksheet>
 </file>
 
@@ -5082,13 +6332,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>368</v>
-      </c>
       <c r="D1" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>1</v>
@@ -5099,13 +6349,13 @@
         <v>135</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>135</v>
@@ -5116,13 +6366,13 @@
         <v>132</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>132</v>
@@ -5149,7 +6399,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5166,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>1</v>
@@ -5178,7 +6428,7 @@
         <v>158</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>159</v>
@@ -5189,7 +6439,7 @@
         <v>255</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>256</v>
@@ -5197,13 +6447,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>311</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -5251,31 +6501,31 @@
         <v>142</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D1" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="E1" s="45" t="s">
         <v>382</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="F1" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="G1" s="43" t="s">
         <v>384</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="H1" s="43" t="s">
         <v>385</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="I1" s="43" t="s">
         <v>386</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="J1" s="47" t="s">
         <v>387</v>
-      </c>
-      <c r="J1" s="47" t="s">
-        <v>388</v>
       </c>
       <c r="K1" s="48"/>
       <c r="L1" s="48"/>
@@ -5294,22 +6544,22 @@
       <c r="H2" s="43"/>
       <c r="I2" s="43"/>
       <c r="J2" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="K2" s="51" t="s">
         <v>392</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="L2" s="51" t="s">
         <v>393</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="M2" s="51" t="s">
         <v>394</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="N2" s="51" t="s">
         <v>395</v>
       </c>
-      <c r="N2" s="51" t="s">
-        <v>396</v>
-      </c>
       <c r="O2" s="51" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5337,25 +6587,25 @@
         <v>72</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D4" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="31" t="s">
         <v>398</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="31" t="s">
+      <c r="G4" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="H4" s="32" t="s">
         <v>399</v>
       </c>
-      <c r="G4" s="31" t="s">
-        <v>397</v>
-      </c>
-      <c r="H4" s="32" t="s">
+      <c r="I4" s="32" t="s">
         <v>400</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>401</v>
       </c>
       <c r="J4" s="36">
         <v>2</v>
@@ -5385,25 +6635,25 @@
         <v>75</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>403</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="F5" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="H5" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="H5" s="26" t="s">
+      <c r="I5" s="26" t="s">
         <v>405</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>406</v>
       </c>
       <c r="J5" s="34">
         <v>3</v>
@@ -5433,25 +6683,25 @@
         <v>79</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D6" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="H6" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>404</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>402</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="H6" s="23" t="s">
+      <c r="I6" s="23" t="s">
         <v>409</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>410</v>
       </c>
       <c r="J6" s="34">
         <v>5</v>
@@ -5475,31 +6725,31 @@
     </row>
     <row r="7" spans="1:15" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D7" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="H7" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>404</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="H7" s="23" t="s">
+      <c r="I7" s="24" t="s">
         <v>413</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>414</v>
       </c>
       <c r="J7" s="35">
         <v>3</v>
@@ -5529,25 +6779,25 @@
         <v>74</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D8" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="H8" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="E8" s="30" t="s">
-        <v>404</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>416</v>
-      </c>
       <c r="I8" s="24" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J8" s="35">
         <v>3</v>
@@ -5577,25 +6827,25 @@
         <v>77</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D9" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="E9" s="30" t="s">
-        <v>404</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>402</v>
-      </c>
-      <c r="G9" s="23" t="s">
+      <c r="I9" s="24" t="s">
         <v>418</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>421</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>419</v>
       </c>
       <c r="J9" s="35">
         <v>3</v>
@@ -5625,25 +6875,25 @@
         <v>83</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D10" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="H10" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="E10" s="30" t="s">
-        <v>404</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>402</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>423</v>
-      </c>
       <c r="I10" s="24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J10" s="35">
         <v>5</v>
@@ -5673,25 +6923,25 @@
         <v>81</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D11" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="H11" s="23" t="s">
         <v>425</v>
       </c>
-      <c r="E11" s="30" t="s">
-        <v>389</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>402</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="H11" s="23" t="s">
+      <c r="I11" s="24" t="s">
         <v>426</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>427</v>
       </c>
       <c r="J11" s="35">
         <v>4</v>
@@ -5718,28 +6968,28 @@
         <v>41</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D12" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="H12" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="E12" s="30" t="s">
-        <v>389</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="H12" s="23" t="s">
+      <c r="I12" s="24" t="s">
         <v>429</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>430</v>
       </c>
       <c r="J12" s="35">
         <v>2</v>
@@ -5766,28 +7016,28 @@
         <v>88</v>
       </c>
       <c r="B13" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="D13" s="14" t="s">
+      <c r="E13" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="H13" s="23" t="s">
         <v>432</v>
       </c>
-      <c r="E13" s="30" t="s">
-        <v>404</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>402</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>418</v>
-      </c>
-      <c r="H13" s="23" t="s">
+      <c r="I13" s="24" t="s">
         <v>433</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>434</v>
       </c>
       <c r="J13" s="35">
         <v>4</v>
@@ -5817,25 +7067,25 @@
         <v>254</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D14" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="H14" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="E14" s="30" t="s">
-        <v>404</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>402</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>424</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>436</v>
-      </c>
       <c r="I14" s="24" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J14" s="35">
         <v>3</v>
@@ -5906,7 +7156,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5930,7 +7180,7 @@
         <v>289</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>143</v>
@@ -5938,16 +7188,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>290</v>
+        <v>472</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>141</v>
@@ -5955,16 +7205,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>290</v>
+        <v>472</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>141</v>
@@ -5972,16 +7222,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>290</v>
+        <v>472</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>141</v>
@@ -5989,16 +7239,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>290</v>
+        <v>472</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>141</v>
@@ -6006,16 +7256,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>290</v>
+        <v>472</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>141</v>
@@ -6023,16 +7273,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>290</v>
+        <v>472</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>141</v>
@@ -6040,16 +7290,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>290</v>
+        <v>472</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>141</v>
@@ -6057,16 +7307,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>290</v>
+        <v>472</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>141</v>
@@ -6074,16 +7324,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>290</v>
+        <v>472</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>141</v>
@@ -6091,16 +7341,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>290</v>
+        <v>472</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>141</v>
@@ -6108,16 +7358,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>290</v>
+        <v>472</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>141</v>
@@ -6125,16 +7375,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>290</v>
+        <v>472</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>141</v>
@@ -6142,16 +7392,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>290</v>
+        <v>472</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>141</v>
@@ -6159,16 +7409,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>290</v>
+        <v>472</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>141</v>
@@ -6176,16 +7426,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>290</v>
+        <v>472</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>141</v>
@@ -6193,16 +7443,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>290</v>
+        <v>472</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>141</v>
@@ -6210,16 +7460,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>290</v>
+        <v>472</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>141</v>
@@ -6227,16 +7477,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>290</v>
+        <v>472</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>141</v>
@@ -6244,16 +7494,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>290</v>
+        <v>472</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>141</v>
@@ -6261,16 +7511,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>290</v>
+        <v>472</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>141</v>
@@ -6368,7 +7618,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6396,7 +7646,7 @@
         <v>288</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>1</v>
@@ -6416,7 +7666,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>160</v>
@@ -6436,7 +7686,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>160</v>
@@ -6456,7 +7706,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>160</v>
@@ -6476,7 +7726,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>160</v>
@@ -6496,7 +7746,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>160</v>
@@ -6516,10 +7766,10 @@
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6536,15 +7786,15 @@
         <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>269</v>
@@ -6556,15 +7806,15 @@
         <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>269</v>
@@ -6576,15 +7826,15 @@
         <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>269</v>
@@ -6596,27 +7846,27 @@
         <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>375</v>
-      </c>
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>159</v>
@@ -6624,107 +7874,107 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1048567" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1048567" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -6817,7 +8067,7 @@
         <v>148</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>1</v>
@@ -6865,10 +8115,10 @@
         <v>21</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -6912,10 +8162,10 @@
         <v>21</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -6959,10 +8209,10 @@
         <v>14</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -7006,10 +8256,10 @@
         <v>21</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -7053,10 +8303,10 @@
         <v>21</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -7100,10 +8350,10 @@
         <v>21</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -7147,10 +8397,10 @@
         <v>21</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -7194,10 +8444,10 @@
         <v>14</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -7241,10 +8491,10 @@
         <v>14</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -7288,10 +8538,10 @@
         <v>14</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -7335,10 +8585,10 @@
         <v>14</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -7382,10 +8632,10 @@
         <v>14</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -7429,10 +8679,10 @@
         <v>21</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -7476,10 +8726,10 @@
         <v>21</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -7523,10 +8773,10 @@
         <v>14</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -7570,10 +8820,10 @@
         <v>21</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -7617,10 +8867,10 @@
         <v>14</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -7664,10 +8914,10 @@
         <v>21</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -7711,10 +8961,10 @@
         <v>21</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -7758,10 +9008,10 @@
         <v>21</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -7805,10 +9055,10 @@
         <v>21</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -7852,10 +9102,10 @@
         <v>21</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -7899,10 +9149,10 @@
         <v>21</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -7946,10 +9196,10 @@
         <v>21</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -7993,10 +9243,10 @@
         <v>14</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O26" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -8040,10 +9290,10 @@
         <v>21</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -8087,10 +9337,10 @@
         <v>14</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -8101,22 +9351,22 @@
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8152,7 +9402,7 @@
         <v>153</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>1</v>
@@ -8166,10 +9416,10 @@
         <v>269</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8180,10 +9430,10 @@
         <v>269</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -8194,52 +9444,52 @@
         <v>269</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="C5" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>269</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>269</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -8284,7 +9534,7 @@
         <v>153</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>151</v>
@@ -8299,10 +9549,10 @@
         <v>174</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>1</v>
@@ -8331,13 +9581,13 @@
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -8360,13 +9610,13 @@
         <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -8392,13 +9642,13 @@
         <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -8424,13 +9674,13 @@
         <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -8456,13 +9706,13 @@
         <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -8488,18 +9738,18 @@
         <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>155</v>
@@ -8517,10 +9767,10 @@
         <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>114</v>
@@ -8549,13 +9799,13 @@
         <v>21</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -8578,13 +9828,13 @@
         <v>14</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -8607,13 +9857,13 @@
         <v>14</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -8639,13 +9889,13 @@
         <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -8671,13 +9921,13 @@
         <v>14</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -8703,18 +9953,18 @@
         <v>14</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>155</v>
@@ -8732,13 +9982,13 @@
         <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -8764,13 +10014,13 @@
         <v>14</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -8793,13 +10043,13 @@
         <v>14</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -8822,13 +10072,13 @@
         <v>14</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -8851,13 +10101,13 @@
         <v>14</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -8880,13 +10130,13 @@
         <v>14</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -8909,13 +10159,13 @@
         <v>14</v>
       </c>
       <c r="H21" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -8938,13 +10188,13 @@
         <v>14</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -8970,13 +10220,13 @@
         <v>14</v>
       </c>
       <c r="H23" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -8999,13 +10249,13 @@
         <v>14</v>
       </c>
       <c r="H24" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -9028,13 +10278,13 @@
         <v>14</v>
       </c>
       <c r="H25" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -9060,13 +10310,13 @@
         <v>14</v>
       </c>
       <c r="H26" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -9089,13 +10339,13 @@
         <v>14</v>
       </c>
       <c r="H27" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -9121,13 +10371,13 @@
         <v>14</v>
       </c>
       <c r="H28" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -9153,13 +10403,13 @@
         <v>14</v>
       </c>
       <c r="H29" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -9185,13 +10435,13 @@
         <v>14</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -9217,13 +10467,13 @@
         <v>14</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I31" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -9249,13 +10499,13 @@
         <v>14</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I32" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -9281,13 +10531,13 @@
         <v>14</v>
       </c>
       <c r="H33" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I33" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -9313,18 +10563,18 @@
         <v>14</v>
       </c>
       <c r="H34" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I34" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>155</v>
@@ -9345,13 +10595,13 @@
         <v>14</v>
       </c>
       <c r="H35" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J35" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I35" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -9374,13 +10624,13 @@
         <v>14</v>
       </c>
       <c r="H36" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I36" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -9517,7 +10767,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
@@ -9528,7 +10778,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>29</v>
@@ -9539,7 +10789,7 @@
         <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>43</v>

--- a/PublicContentList.xlsx
+++ b/PublicContentList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0C87D4-1B99-4D0F-866E-07246D25BDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7477950B-CC5A-4ACB-A4B5-77512D6B12EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="481">
   <si>
     <t>Name</t>
   </si>
@@ -1595,9 +1595,6 @@
     <t>Freshwater, Underwater</t>
   </si>
   <si>
-    <t>Any</t>
-  </si>
-  <si>
     <t>Freshwater, Urban</t>
   </si>
   <si>
@@ -1659,6 +1656,15 @@
   </si>
   <si>
     <t>Desert, Underdark</t>
+  </si>
+  <si>
+    <t>Arctic, Coastal, Desert, Forest, Freshwater, Grassland, Hills, Jungle, Mountain, Swamp, Underdark, Underwater</t>
+  </si>
+  <si>
+    <t>Arctic, Coastal, Desert, Forest, Freshwater, Grassland, Hills, Jungle, Mountain, Swamp, Underdark, Underwater, Urban</t>
+  </si>
+  <si>
+    <t>Arctic, Coastal, Desert, Extraplanar, Forest, Freshwater, Grassland, Hills, Jungle, Mountain, Swamp, Underdark, Underwater, Urban</t>
   </si>
 </sst>
 </file>
@@ -1993,6 +1999,24 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2011,81 +2035,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -2569,8 +2524,8 @@
   <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H140" sqref="H140"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2602,16 +2557,16 @@
         <v>444</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>475</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2744,7 +2699,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>101</v>
       </c>
@@ -2755,7 +2710,7 @@
         <v>90</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>84</v>
@@ -2770,7 +2725,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>102</v>
       </c>
@@ -2781,7 +2736,7 @@
         <v>90</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>84</v>
@@ -2796,7 +2751,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>95</v>
       </c>
@@ -2807,7 +2762,7 @@
         <v>90</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>80</v>
@@ -2822,7 +2777,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>96</v>
       </c>
@@ -2833,7 +2788,7 @@
         <v>90</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>80</v>
@@ -2848,7 +2803,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>99</v>
       </c>
@@ -2859,7 +2814,7 @@
         <v>90</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>86</v>
@@ -2874,7 +2829,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>100</v>
       </c>
@@ -2885,7 +2840,7 @@
         <v>90</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>86</v>
@@ -3318,7 +3273,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B29" s="6">
         <v>3</v>
@@ -3422,7 +3377,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B33" s="6">
         <v>17</v>
@@ -3509,7 +3464,7 @@
         <v>125</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>352</v>
@@ -3535,7 +3490,7 @@
         <v>62</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>103</v>
@@ -3561,7 +3516,7 @@
         <v>106</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>103</v>
@@ -3639,7 +3594,7 @@
         <v>62</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>103</v>
@@ -3925,7 +3880,7 @@
         <v>345</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>287</v>
@@ -3940,7 +3895,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>97</v>
       </c>
@@ -3951,7 +3906,7 @@
         <v>90</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>82</v>
@@ -3966,7 +3921,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>98</v>
       </c>
@@ -3977,7 +3932,7 @@
         <v>90</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>82</v>
@@ -3992,7 +3947,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>89</v>
       </c>
@@ -4003,7 +3958,7 @@
         <v>90</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>78</v>
@@ -4018,7 +3973,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>92</v>
       </c>
@@ -4029,7 +3984,7 @@
         <v>90</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>78</v>
@@ -4044,7 +3999,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>93</v>
       </c>
@@ -4055,7 +4010,7 @@
         <v>90</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>78</v>
@@ -4070,7 +4025,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>94</v>
       </c>
@@ -4081,7 +4036,7 @@
         <v>90</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>78</v>
@@ -4419,7 +4374,7 @@
         <v>345</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>329</v>
@@ -4445,7 +4400,7 @@
         <v>345</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>285</v>
@@ -4471,7 +4426,7 @@
         <v>345</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>344</v>
@@ -4549,7 +4504,7 @@
         <v>125</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>268</v>
@@ -4575,7 +4530,7 @@
         <v>125</v>
       </c>
       <c r="D77" s="40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>268</v>
@@ -4601,7 +4556,7 @@
         <v>125</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>268</v>
@@ -4627,7 +4582,7 @@
         <v>91</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>268</v>
@@ -4653,7 +4608,7 @@
         <v>91</v>
       </c>
       <c r="D80" s="40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>268</v>
@@ -4679,7 +4634,7 @@
         <v>125</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>268</v>
@@ -4705,7 +4660,7 @@
         <v>345</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>351</v>
@@ -4731,7 +4686,7 @@
         <v>62</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>247</v>
@@ -4757,7 +4712,7 @@
         <v>62</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>247</v>
@@ -4783,7 +4738,7 @@
         <v>62</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>247</v>
@@ -4809,7 +4764,7 @@
         <v>106</v>
       </c>
       <c r="D86" s="40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>247</v>
@@ -4835,7 +4790,7 @@
         <v>106</v>
       </c>
       <c r="D87" s="40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>247</v>
@@ -4861,7 +4816,7 @@
         <v>125</v>
       </c>
       <c r="D88" s="40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>247</v>
@@ -5147,7 +5102,7 @@
         <v>62</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>340</v>
@@ -5173,7 +5128,7 @@
         <v>62</v>
       </c>
       <c r="D100" s="40" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>340</v>
@@ -5199,7 +5154,7 @@
         <v>62</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>340</v>
@@ -5459,7 +5414,7 @@
         <v>125</v>
       </c>
       <c r="D111" s="40" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>347</v>
@@ -5485,7 +5440,7 @@
         <v>62</v>
       </c>
       <c r="D112" s="40" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>204</v>
@@ -5511,7 +5466,7 @@
         <v>62</v>
       </c>
       <c r="D113" s="40" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>204</v>
@@ -5537,7 +5492,7 @@
         <v>91</v>
       </c>
       <c r="D114" s="40" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>204</v>
@@ -5563,7 +5518,7 @@
         <v>62</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>120</v>
@@ -5589,7 +5544,7 @@
         <v>62</v>
       </c>
       <c r="D116" s="40" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>120</v>
@@ -5615,7 +5570,7 @@
         <v>106</v>
       </c>
       <c r="D117" s="40" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>120</v>
@@ -5641,7 +5596,7 @@
         <v>125</v>
       </c>
       <c r="D118" s="40" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>120</v>
@@ -5667,7 +5622,7 @@
         <v>125</v>
       </c>
       <c r="D119" s="40" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>120</v>
@@ -5693,7 +5648,7 @@
         <v>125</v>
       </c>
       <c r="D120" s="40" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>120</v>
@@ -5719,7 +5674,7 @@
         <v>125</v>
       </c>
       <c r="D121" s="40" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>120</v>
@@ -5745,7 +5700,7 @@
         <v>125</v>
       </c>
       <c r="D122" s="40" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>120</v>
@@ -5771,7 +5726,7 @@
         <v>139</v>
       </c>
       <c r="D123" s="40" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>120</v>
@@ -5797,7 +5752,7 @@
         <v>125</v>
       </c>
       <c r="D124" s="40" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>120</v>
@@ -5838,7 +5793,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>112</v>
       </c>
@@ -5849,7 +5804,7 @@
         <v>64</v>
       </c>
       <c r="D126" s="40" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>110</v>
@@ -5864,7 +5819,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>113</v>
       </c>
@@ -5875,7 +5830,7 @@
         <v>64</v>
       </c>
       <c r="D127" s="40" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>110</v>
@@ -5953,7 +5908,7 @@
         <v>64</v>
       </c>
       <c r="D130" s="40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>114</v>
@@ -5979,7 +5934,7 @@
         <v>64</v>
       </c>
       <c r="D131" s="40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>118</v>
@@ -6031,7 +5986,7 @@
         <v>63</v>
       </c>
       <c r="D133" s="40" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>128</v>
@@ -6048,7 +6003,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B134" s="6">
         <v>13</v>
@@ -6057,10 +6012,10 @@
         <v>345</v>
       </c>
       <c r="D134" s="40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>40</v>
@@ -6074,7 +6029,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B135" s="6">
         <v>12</v>
@@ -6086,7 +6041,7 @@
         <v>451</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>40</v>
@@ -6100,19 +6055,19 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B136" s="6">
         <v>15</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D136" s="40" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>40</v>
@@ -6126,19 +6081,19 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B137" s="6">
         <v>17</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D137" s="40" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>40</v>
@@ -6158,62 +6113,62 @@
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="29" priority="43" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="23" priority="43" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="44" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="22" priority="44" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="45" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="21" priority="45" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="46" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="20" priority="46" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="47" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="19" priority="47" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="48" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="18" priority="48" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F137">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6497,87 +6452,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="47" t="s">
         <v>440</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="47" t="s">
         <v>357</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="47" t="s">
         <v>381</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="51" t="s">
         <v>382</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="49" t="s">
         <v>383</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="49" t="s">
         <v>384</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="49" t="s">
         <v>385</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="49" t="s">
         <v>386</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="41" t="s">
         <v>387</v>
       </c>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="49" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="43" t="s">
         <v>391</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="45" t="s">
         <v>392</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="L2" s="45" t="s">
         <v>393</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="45" t="s">
         <v>394</v>
       </c>
-      <c r="N2" s="51" t="s">
+      <c r="N2" s="45" t="s">
         <v>395</v>
       </c>
-      <c r="O2" s="51" t="s">
+      <c r="O2" s="45" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
     </row>
     <row r="4" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
@@ -7114,13 +7069,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="16">
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
@@ -7130,6 +7078,13 @@
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{B4A7D905-D120-4788-AC98-B53455EB3FC4}"/>
@@ -7194,7 +7149,7 @@
         <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>358</v>
@@ -7211,7 +7166,7 @@
         <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>358</v>
@@ -7228,7 +7183,7 @@
         <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>358</v>
@@ -7245,7 +7200,7 @@
         <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>358</v>
@@ -7262,7 +7217,7 @@
         <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>358</v>
@@ -7279,7 +7234,7 @@
         <v>88</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>358</v>
@@ -7296,7 +7251,7 @@
         <v>88</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>358</v>
@@ -7313,7 +7268,7 @@
         <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>358</v>
@@ -7330,7 +7285,7 @@
         <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>358</v>
@@ -7347,7 +7302,7 @@
         <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>358</v>
@@ -7364,7 +7319,7 @@
         <v>88</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>358</v>
@@ -7381,7 +7336,7 @@
         <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>358</v>
@@ -7398,7 +7353,7 @@
         <v>88</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>358</v>
@@ -7415,7 +7370,7 @@
         <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>358</v>
@@ -7432,7 +7387,7 @@
         <v>88</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>358</v>
@@ -7449,7 +7404,7 @@
         <v>88</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>358</v>
@@ -7466,7 +7421,7 @@
         <v>88</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>358</v>
@@ -7483,7 +7438,7 @@
         <v>88</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>358</v>
@@ -7500,7 +7455,7 @@
         <v>88</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>358</v>
@@ -7517,7 +7472,7 @@
         <v>88</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>358</v>
@@ -9351,22 +9306,22 @@
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="2" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="1" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="0" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/PublicContentList.xlsx
+++ b/PublicContentList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7477950B-CC5A-4ACB-A4B5-77512D6B12EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B7EE16-EC71-40DB-9126-C774C48E430C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="486">
   <si>
     <t>Name</t>
   </si>
@@ -1665,6 +1665,21 @@
   </si>
   <si>
     <t>Arctic, Coastal, Desert, Extraplanar, Forest, Freshwater, Grassland, Hills, Jungle, Mountain, Swamp, Underdark, Underwater, Urban</t>
+  </si>
+  <si>
+    <t>Vermin Lord Corruptor</t>
+  </si>
+  <si>
+    <t>Vermin Lords</t>
+  </si>
+  <si>
+    <t>Vermin Lord Deceiver</t>
+  </si>
+  <si>
+    <t>Vermin Lord Warbringer</t>
+  </si>
+  <si>
+    <t>Vermin Lord Warpseer</t>
   </si>
 </sst>
 </file>
@@ -1999,6 +2014,24 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2015,24 +2048,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2521,11 +2536,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C127" sqref="C127"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6102,6 +6117,110 @@
         <v>40</v>
       </c>
       <c r="H137" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B138" s="6">
+        <v>16</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D138" s="40" t="s">
+        <v>462</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B139" s="6">
+        <v>18</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D139" s="40" t="s">
+        <v>462</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B140" s="6">
+        <v>17</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D140" s="40" t="s">
+        <v>462</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B141" s="6">
+        <v>19</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D141" s="40" t="s">
+        <v>462</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H141" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6152,7 +6271,7 @@
       <formula>NOT(ISERROR(SEARCH("Complete",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F137">
+  <conditionalFormatting sqref="F2:F141">
     <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",F2)))</formula>
     </cfRule>
@@ -6256,9 +6375,13 @@
     <hyperlink ref="E129:E130" r:id="rId81" display="Water Horses" xr:uid="{21D217B7-2E1C-4AD5-A5B7-C33A2F4F7B65}"/>
     <hyperlink ref="E136" r:id="rId82" xr:uid="{4EEFA9FF-45D2-4214-8665-1794562B9A08}"/>
     <hyperlink ref="E137" r:id="rId83" xr:uid="{FD67F0CC-BE83-4C59-B2D3-52C60052B333}"/>
+    <hyperlink ref="E138" r:id="rId84" xr:uid="{CA2C20BD-44FB-4D81-9003-2C42583F13DC}"/>
+    <hyperlink ref="E139" r:id="rId85" xr:uid="{118F67D6-A6E6-48EF-AC10-3626D9523464}"/>
+    <hyperlink ref="E140" r:id="rId86" xr:uid="{24972FCC-FDFA-429E-A04E-D66D2893150E}"/>
+    <hyperlink ref="E141" r:id="rId87" xr:uid="{74AA3F65-CC64-4234-BA75-85ABC63FE5CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId84"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId88"/>
 </worksheet>
 </file>
 
@@ -6452,87 +6575,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="41" t="s">
         <v>440</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="41" t="s">
         <v>381</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="45" t="s">
         <v>382</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="43" t="s">
         <v>384</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="43" t="s">
         <v>385</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="43" t="s">
         <v>386</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="47" t="s">
         <v>387</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
     </row>
     <row r="2" spans="1:15" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="43" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="49" t="s">
         <v>391</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="51" t="s">
         <v>392</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="51" t="s">
         <v>393</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="51" t="s">
         <v>394</v>
       </c>
-      <c r="N2" s="45" t="s">
+      <c r="N2" s="51" t="s">
         <v>395</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="51" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
     </row>
     <row r="4" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
@@ -7069,6 +7192,13 @@
     </sortState>
   </autoFilter>
   <mergeCells count="16">
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
@@ -7078,13 +7208,6 @@
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{B4A7D905-D120-4788-AC98-B53455EB3FC4}"/>

--- a/PublicContentList.xlsx
+++ b/PublicContentList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B7EE16-EC71-40DB-9126-C774C48E430C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808832CD-F8D7-4F90-B6E9-262A71F73673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Adventures!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ClassFeatures!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Creatures!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Creatures!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">DMResources!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Feats!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">MagicItems!$A$1:$J$35</definedName>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="518">
   <si>
     <t>Name</t>
   </si>
@@ -1646,12 +1646,6 @@
     <t>Patreon Source Doc</t>
   </si>
   <si>
-    <t>Public Encounter Guide</t>
-  </si>
-  <si>
-    <t>Patreon Encounter Guide</t>
-  </si>
-  <si>
     <t>Mummy Lord</t>
   </si>
   <si>
@@ -1680,6 +1674,108 @@
   </si>
   <si>
     <t>Vermin Lord Warpseer</t>
+  </si>
+  <si>
+    <t>Anti-Magic Net, DC 13</t>
+  </si>
+  <si>
+    <t>Weapon (net)</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>Anti-Magic Net, DC 15</t>
+  </si>
+  <si>
+    <t>Anti-Magic Net, DC 17</t>
+  </si>
+  <si>
+    <t>Anti-Magic Net, DC 18</t>
+  </si>
+  <si>
+    <t>Anti-Magic Net, DC 19</t>
+  </si>
+  <si>
+    <t>Electro-Net, 1d6</t>
+  </si>
+  <si>
+    <t>Electro-Net, 3d6</t>
+  </si>
+  <si>
+    <t>Electro-Net, 5d6</t>
+  </si>
+  <si>
+    <t>Electro-Net, 8d6</t>
+  </si>
+  <si>
+    <t>Electro-Net, 12d6</t>
+  </si>
+  <si>
+    <t>Ghost Net</t>
+  </si>
+  <si>
+    <t>Shadow Net</t>
+  </si>
+  <si>
+    <t>Toxic Net, DC 13</t>
+  </si>
+  <si>
+    <t>Toxic Net, DC 15</t>
+  </si>
+  <si>
+    <t>Toxic Net, DC 17</t>
+  </si>
+  <si>
+    <t>Toxic Net, DC 18</t>
+  </si>
+  <si>
+    <t>Toxic Net, DC 19</t>
+  </si>
+  <si>
+    <t>Mega Net</t>
+  </si>
+  <si>
+    <t>Self-Reeling Harpoon Gun, +1 Mod</t>
+  </si>
+  <si>
+    <t>Weapon (harpoon)</t>
+  </si>
+  <si>
+    <t>Self-Reeling Harpoon Gun, +2 Mod</t>
+  </si>
+  <si>
+    <t>Self-Reeling Harpoon Gun, +3 Mod</t>
+  </si>
+  <si>
+    <t>Self-Reeling Harpoon Gun, +4 Mod</t>
+  </si>
+  <si>
+    <t>Self-Reeling Harpoon Gun, +5 Mod</t>
+  </si>
+  <si>
+    <t>Battle Anchor</t>
+  </si>
+  <si>
+    <t>Combat Angler's Fishing Rod</t>
+  </si>
+  <si>
+    <t>Electro-Harpoon</t>
+  </si>
+  <si>
+    <t>Threading Needle</t>
+  </si>
+  <si>
+    <t>Underworld Skewers</t>
+  </si>
+  <si>
+    <t>2.0.0</t>
+  </si>
+  <si>
+    <t>Public Creature Guide</t>
+  </si>
+  <si>
+    <t>Patreon Creature Guide</t>
   </si>
 </sst>
 </file>
@@ -2055,7 +2151,58 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2536,3582 +2683,3991 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H141"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F141" sqref="F141"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="E1" s="39" t="s">
         <v>444</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>474</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C2" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="E2" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" s="6">
         <v>0.5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="E3" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C4" s="6">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="E4" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5" s="6">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="E5" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="E6" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="I6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="40" t="s">
-        <v>478</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="40" t="s">
+        <v>476</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="I7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C8" s="6">
         <v>5</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="40" t="s">
-        <v>478</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="40" t="s">
+        <v>476</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="I8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="40" t="s">
-        <v>479</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="40" t="s">
+        <v>477</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="I9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C10" s="6">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="40" t="s">
-        <v>479</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="40" t="s">
+        <v>477</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="I10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C11" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="40" t="s">
-        <v>479</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="40" t="s">
+        <v>477</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="I11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C12" s="6">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="40" t="s">
-        <v>479</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="40" t="s">
+        <v>477</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C13" s="6">
         <v>0.5</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="E13" s="40" t="s">
         <v>450</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C14" s="6">
         <v>3</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="E14" s="40" t="s">
         <v>450</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C15" s="6">
         <v>0.25</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="E15" s="40" t="s">
         <v>453</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G15" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C16" s="6">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="E16" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C17" s="6">
         <v>2</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="E17" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C18" s="6">
         <v>5</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="E18" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C19" s="6">
         <v>8</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="E19" s="40" t="s">
         <v>454</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G19" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C20" s="6">
         <v>0.5</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="E20" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G20" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C21" s="6">
         <v>9</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="E21" s="40" t="s">
         <v>447</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G21" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C22" s="6">
         <v>1</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="E22" s="40" t="s">
         <v>447</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C23" s="6">
         <v>0.5</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="E23" s="40" t="s">
         <v>447</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G23" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C24" s="6">
         <v>0.25</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="E24" s="40" t="s">
         <v>447</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G24" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C25" s="6">
         <v>17</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="E25" s="40" t="s">
         <v>447</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G25" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C26" s="6">
         <v>9</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="E26" s="40" t="s">
         <v>447</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G26" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C27" s="6">
         <v>17</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="E27" s="40" t="s">
         <v>447</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G27" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C28" s="6">
         <v>3</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="E28" s="40" t="s">
         <v>447</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C29" s="6">
         <v>3</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="E29" s="40" t="s">
         <v>447</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G29" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C30" s="6">
         <v>9</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="E30" s="40" t="s">
         <v>447</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G30" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C31" s="6">
         <v>17</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="E31" s="40" t="s">
         <v>447</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G31" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C32" s="6">
         <v>3</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="E32" s="40" t="s">
         <v>447</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G32" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C33" s="6">
         <v>17</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="E33" s="40" t="s">
         <v>447</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C34" s="6">
         <v>5</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="E34" s="40" t="s">
         <v>447</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C35" s="6">
         <v>0.5</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="E35" s="40" t="s">
         <v>456</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C36" s="6">
         <v>16</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D36" s="40" t="s">
+      <c r="E36" s="40" t="s">
         <v>464</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G36" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C37" s="6">
         <v>0.125</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="E37" s="40" t="s">
         <v>457</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G37" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C38" s="6">
         <v>2</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="E38" s="40" t="s">
         <v>457</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G38" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C39" s="6">
         <v>0.25</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="40" t="s">
+      <c r="E39" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G39" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C40" s="6">
         <v>3</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="40" t="s">
+      <c r="E40" s="40" t="s">
         <v>455</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G40" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C41" s="6">
         <v>0.5</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="40" t="s">
+      <c r="E41" s="40" t="s">
         <v>457</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G41" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C42" s="6">
         <v>3</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="40" t="s">
+      <c r="E42" s="40" t="s">
         <v>453</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C43" s="6">
         <v>5</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="40" t="s">
+      <c r="E43" s="40" t="s">
         <v>453</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G43" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C44" s="6">
         <v>0.5</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="40" t="s">
+      <c r="E44" s="40" t="s">
         <v>453</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G44" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C45" s="6">
         <v>7</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="E45" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G45" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C46" s="6">
         <v>2</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="40" t="s">
+      <c r="E46" s="40" t="s">
         <v>453</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G46" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C47" s="6">
         <v>3</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="40" t="s">
+      <c r="E47" s="40" t="s">
         <v>453</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C48" s="6">
         <v>5</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="40" t="s">
+      <c r="E48" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C49" s="6">
         <v>10</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="40" t="s">
+      <c r="E49" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G49" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B50" s="6">
-        <v>14</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="B50" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C50" s="6">
+        <v>14</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="40" t="s">
+      <c r="E50" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G50" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C51" s="6">
         <v>5</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D51" s="40" t="s">
+      <c r="E51" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G51" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C52" s="6">
         <v>2</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D52" s="40" t="s">
+      <c r="E52" s="40" t="s">
         <v>462</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G52" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="I52" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C53" s="6">
         <v>3</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D53" s="40" t="s">
-        <v>479</v>
-      </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="40" t="s">
+        <v>477</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G53" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="I53" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C54" s="6">
         <v>7</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D54" s="40" t="s">
-        <v>479</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="40" t="s">
+        <v>477</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G54" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="I54" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C55" s="6">
         <v>2</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D55" s="40" t="s">
-        <v>479</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="40" t="s">
+        <v>477</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G55" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="I55" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C56" s="6">
         <v>6</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D56" s="40" t="s">
-        <v>479</v>
-      </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="40" t="s">
+        <v>477</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G56" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="I56" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C57" s="6">
         <v>10</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D57" s="40" t="s">
-        <v>479</v>
-      </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="40" t="s">
+        <v>477</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G57" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="I57" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C58" s="6">
         <v>15</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D58" s="40" t="s">
-        <v>479</v>
-      </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="40" t="s">
+        <v>477</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G58" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C59" s="6">
         <v>0</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D59" s="40" t="s">
+      <c r="E59" s="40" t="s">
         <v>453</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="F59" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G59" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C60" s="6">
         <v>0.125</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D60" s="40" t="s">
+      <c r="E60" s="40" t="s">
         <v>453</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="F60" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G60" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C61" s="6">
         <v>0.5</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D61" s="40" t="s">
+      <c r="E61" s="40" t="s">
         <v>453</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="F61" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G61" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C62" s="6">
         <v>0</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D62" s="40" t="s">
+      <c r="E62" s="40" t="s">
         <v>446</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G62" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C63" s="6">
         <v>5</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D63" s="40" t="s">
+      <c r="E63" s="40" t="s">
         <v>455</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="F63" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G63" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C64" s="6">
         <v>0</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D64" s="40" t="s">
+      <c r="E64" s="40" t="s">
         <v>445</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="F64" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G64" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C65" s="6">
         <v>0.125</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D65" s="40" t="s">
+      <c r="E65" s="40" t="s">
         <v>445</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G65" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C66" s="6">
         <v>0.5</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D66" s="40" t="s">
+      <c r="E66" s="40" t="s">
         <v>445</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="F66" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G66" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C67" s="6">
         <v>2</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D67" s="40" t="s">
+      <c r="E67" s="40" t="s">
         <v>445</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="F67" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G67" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C68" s="6">
         <v>3</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D68" s="40" t="s">
+      <c r="E68" s="40" t="s">
         <v>445</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="F68" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G68" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C69" s="6">
         <v>6</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D69" s="40" t="s">
+      <c r="E69" s="40" t="s">
         <v>445</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="F69" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G69" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C70" s="6">
         <v>1</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D70" s="40" t="s">
+      <c r="E70" s="40" t="s">
         <v>449</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="F70" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G70" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C71" s="6">
         <v>2</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D71" s="40" t="s">
+      <c r="E71" s="40" t="s">
         <v>462</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="F71" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G71" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C72" s="6">
         <v>3</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D72" s="40" t="s">
+      <c r="E72" s="40" t="s">
         <v>462</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G72" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C73" s="6">
         <v>2</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D73" s="40" t="s">
+      <c r="E73" s="40" t="s">
         <v>462</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="F73" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G73" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B74" s="6">
+      <c r="B74" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C74" s="6">
         <v>6</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D74" s="40" t="s">
+      <c r="E74" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="F74" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G74" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C75" s="6">
         <v>10</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D75" s="40" t="s">
+      <c r="E75" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="F75" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G75" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B76" s="6">
+      <c r="B76" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C76" s="6">
         <v>10</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D76" s="40" t="s">
+      <c r="E76" s="40" t="s">
         <v>462</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="F76" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G76" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C77" s="6">
         <v>16</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D77" s="40" t="s">
+      <c r="E77" s="40" t="s">
         <v>462</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="F77" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G77" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C78" s="6">
         <v>3</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D78" s="40" t="s">
+      <c r="E78" s="40" t="s">
         <v>462</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="F78" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G78" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C79" s="6">
         <v>1</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D79" s="40" t="s">
+      <c r="E79" s="40" t="s">
         <v>462</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="F79" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G79" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B80" s="6">
+      <c r="B80" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C80" s="6">
         <v>7</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D80" s="40" t="s">
+      <c r="E80" s="40" t="s">
         <v>462</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="F80" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G80" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I80" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B81" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C81" s="6">
         <v>0.5</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D81" s="40" t="s">
+      <c r="E81" s="40" t="s">
         <v>463</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="F81" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G81" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C82" s="6">
         <v>7</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D82" s="40" t="s">
+      <c r="E82" s="40" t="s">
         <v>462</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="F82" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G82" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B83" s="6">
+      <c r="B83" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C83" s="6">
         <v>0</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D83" s="40" t="s">
+      <c r="E83" s="40" t="s">
         <v>462</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="F83" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G83" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B84" s="6">
+      <c r="B84" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C84" s="6">
         <v>0.125</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D84" s="40" t="s">
+      <c r="E84" s="40" t="s">
         <v>462</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="F84" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G84" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B85" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C85" s="6">
         <v>0.25</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D85" s="40" t="s">
+      <c r="E85" s="40" t="s">
         <v>462</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="F85" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G85" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B86" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C86" s="6">
         <v>0.25</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D86" s="40" t="s">
+      <c r="E86" s="40" t="s">
         <v>462</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="F86" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G86" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B87" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C87" s="6">
         <v>3</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D87" s="40" t="s">
+      <c r="E87" s="40" t="s">
         <v>462</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="F87" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G87" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B88" s="6">
+      <c r="B88" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C88" s="6">
         <v>1</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D88" s="40" t="s">
+      <c r="E88" s="40" t="s">
         <v>462</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="F88" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G88" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B89" s="6">
+      <c r="B89" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C89" s="6">
         <v>0.125</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D89" s="40" t="s">
+      <c r="E89" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="F89" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G89" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B90" s="6">
+      <c r="B90" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C90" s="6">
         <v>1</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D90" s="40" t="s">
+      <c r="E90" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="F90" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G90" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B91" s="6">
+      <c r="B91" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C91" s="6">
         <v>3</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D91" s="40" t="s">
+      <c r="E91" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="F91" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G91" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B92" s="6">
+      <c r="B92" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C92" s="6">
         <v>0</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D92" s="40" t="s">
+      <c r="E92" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="F92" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G92" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B93" s="6">
+      <c r="B93" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C93" s="6">
         <v>3</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D93" s="40" t="s">
+      <c r="E93" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="F93" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G93" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B94" s="6">
+      <c r="B94" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C94" s="6">
         <v>0.5</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D94" s="40" t="s">
+      <c r="E94" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="F94" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G94" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B95" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C95" s="6">
         <v>4</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D95" s="40" t="s">
+      <c r="E95" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="F95" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G95" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B96" s="6">
+      <c r="B96" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C96" s="6">
         <v>7</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D96" s="40" t="s">
+      <c r="E96" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="F96" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G96" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B97" s="6">
+      <c r="B97" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C97" s="6">
         <v>1</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D97" s="40" t="s">
+      <c r="E97" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="F97" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G97" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B98" s="6">
+      <c r="B98" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C98" s="6">
         <v>0.25</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D98" s="40" t="s">
+      <c r="E98" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="F98" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G98" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B99" s="6">
+      <c r="B99" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C99" s="6">
         <v>6</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D99" s="40" t="s">
+      <c r="E99" s="40" t="s">
         <v>464</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="F99" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G99" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B100" s="6">
+      <c r="B100" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C100" s="6">
         <v>0.5</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D100" s="40" t="s">
+      <c r="E100" s="40" t="s">
         <v>464</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="F100" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G100" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B101" s="6">
+      <c r="B101" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C101" s="6">
         <v>5</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D101" s="40" t="s">
+      <c r="E101" s="40" t="s">
         <v>464</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="F101" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G101" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B102" s="6">
+      <c r="B102" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C102" s="6">
         <v>1</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D102" s="40" t="s">
+      <c r="E102" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="F102" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G102" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B103" s="6">
+      <c r="B103" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C103" s="6">
         <v>3</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D103" s="40" t="s">
+      <c r="E103" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="F103" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G103" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B104" s="6">
+      <c r="B104" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C104" s="6">
         <v>3</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D104" s="40" t="s">
+      <c r="E104" s="40" t="s">
         <v>456</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="F104" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G104" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B105" s="6">
+      <c r="B105" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C105" s="6">
         <v>5</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D105" s="40" t="s">
+      <c r="E105" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="F105" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G105" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B106" s="6">
+      <c r="B106" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C106" s="6">
         <v>3</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D106" s="40" t="s">
+      <c r="E106" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="F106" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G106" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I106" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B107" s="6">
+      <c r="B107" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C107" s="6">
         <v>2</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D107" s="40" t="s">
+      <c r="E107" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="F107" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G107" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I107" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B108" s="6">
+      <c r="B108" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C108" s="6">
         <v>1</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D108" s="40" t="s">
+      <c r="E108" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="F108" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G108" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B109" s="6">
+      <c r="B109" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C109" s="6">
         <v>3</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D109" s="40" t="s">
+      <c r="E109" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="F109" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G109" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I109" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B110" s="6">
+      <c r="B110" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C110" s="6">
         <v>4</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D110" s="40" t="s">
+      <c r="E110" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="F110" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="F110" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G110" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I110" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B111" s="6">
+      <c r="B111" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C111" s="6">
         <v>4</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D111" s="40" t="s">
+      <c r="E111" s="40" t="s">
         <v>464</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="F111" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G111" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I111" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B112" s="6">
+      <c r="B112" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C112" s="6">
         <v>3</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D112" s="40" t="s">
+      <c r="E112" s="40" t="s">
         <v>461</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="F112" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G112" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I112" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B113" s="6">
+      <c r="B113" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C113" s="6">
         <v>4</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D113" s="40" t="s">
+      <c r="E113" s="40" t="s">
         <v>461</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="F113" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G113" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I113" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B114" s="6">
+      <c r="B114" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C114" s="6">
         <v>4</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D114" s="40" t="s">
+      <c r="E114" s="40" t="s">
         <v>461</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="F114" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G114" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I114" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B115" s="6">
+      <c r="B115" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C115" s="6">
         <v>0</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D115" s="40" t="s">
+      <c r="E115" s="40" t="s">
         <v>458</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="F115" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G115" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I115" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B116" s="6">
+      <c r="B116" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C116" s="6">
         <v>1</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D116" s="40" t="s">
+      <c r="E116" s="40" t="s">
         <v>458</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="F116" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G116" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I116" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B117" s="6">
+      <c r="B117" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C117" s="6">
         <v>0.25</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D117" s="40" t="s">
+      <c r="E117" s="40" t="s">
         <v>458</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="F117" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G117" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I117" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B118" s="6">
+      <c r="B118" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C118" s="6">
         <v>1</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D118" s="40" t="s">
+      <c r="E118" s="40" t="s">
         <v>459</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="F118" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G118" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I118" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B119" s="6">
+      <c r="B119" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C119" s="6">
         <v>5</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D119" s="40" t="s">
+      <c r="E119" s="40" t="s">
         <v>459</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="F119" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G119" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I119" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B120" s="6">
+      <c r="B120" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C120" s="6">
         <v>8</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D120" s="40" t="s">
+      <c r="E120" s="40" t="s">
         <v>459</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="F120" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G120" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I120" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B121" s="6">
+      <c r="B121" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C121" s="6">
         <v>0.125</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D121" s="40" t="s">
+      <c r="E121" s="40" t="s">
         <v>459</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="F121" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G121" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I121" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B122" s="6">
+      <c r="B122" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C122" s="6">
         <v>4</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D122" s="40" t="s">
+      <c r="E122" s="40" t="s">
         <v>459</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="F122" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F122" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G122" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I122" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B123" s="6">
+      <c r="B123" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C123" s="6">
         <v>3</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D123" s="40" t="s">
+      <c r="E123" s="40" t="s">
         <v>459</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="F123" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G123" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I123" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B124" s="6">
+      <c r="B124" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C124" s="6">
         <v>8</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D124" s="40" t="s">
+      <c r="E124" s="40" t="s">
         <v>459</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="F124" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G124" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I124" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B125" s="6">
+      <c r="B125" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C125" s="6">
         <v>0</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D125" s="40" t="s">
+      <c r="E125" s="40" t="s">
         <v>449</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="F125" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F125" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G125" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="I125" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B126" s="6">
+      <c r="B126" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C126" s="6">
         <v>1</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D126" s="40" t="s">
-        <v>480</v>
-      </c>
-      <c r="E126" s="3" t="s">
+      <c r="E126" s="40" t="s">
+        <v>478</v>
+      </c>
+      <c r="F126" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G126" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="I126" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B127" s="6">
+      <c r="B127" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C127" s="6">
         <v>5</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D127" s="40" t="s">
-        <v>480</v>
-      </c>
-      <c r="E127" s="3" t="s">
+      <c r="E127" s="40" t="s">
+        <v>478</v>
+      </c>
+      <c r="F127" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F127" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G127" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I127" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B128" s="6">
+      <c r="B128" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C128" s="6">
         <v>5</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D128" s="40" t="s">
+      <c r="E128" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="F128" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F128" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G128" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I128" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B129" s="6">
+      <c r="B129" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C129" s="6">
         <v>2</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="D129" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D129" s="40" t="s">
+      <c r="E129" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="E129" s="3" t="s">
+      <c r="F129" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F129" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G129" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I129" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B130" s="6">
+      <c r="B130" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C130" s="6">
         <v>8</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D130" s="40" t="s">
+      <c r="E130" s="40" t="s">
         <v>457</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="F130" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F130" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G130" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I130" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B131" s="6">
+      <c r="B131" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C131" s="6">
         <v>11</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D131" s="40" t="s">
+      <c r="E131" s="40" t="s">
         <v>457</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="F131" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F131" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G131" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I131" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B132" s="6">
+      <c r="B132" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C132" s="6">
         <v>4</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D132" s="40" t="s">
+      <c r="E132" s="40" t="s">
         <v>452</v>
       </c>
-      <c r="E132" s="3" t="s">
+      <c r="F132" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F132" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G132" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I132" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B133" s="6">
+      <c r="B133" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C133" s="6">
         <v>8</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D133" s="40" t="s">
+      <c r="E133" s="40" t="s">
         <v>460</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="F133" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F133" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G133" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I133" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B134" s="6">
+      <c r="B134" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C134" s="6">
         <v>13</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D134" s="40" t="s">
+      <c r="E134" s="40" t="s">
         <v>462</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="F134" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="F134" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G134" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I134" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B135" s="6">
+      <c r="B135" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C135" s="6">
         <v>12</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D135" s="40" t="s">
+      <c r="E135" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="E135" s="3" t="s">
+      <c r="F135" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="F135" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G135" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I135" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B136" s="6">
+      <c r="B136" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C136" s="6">
         <v>15</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="D136" s="40" t="s">
+      <c r="E136" s="40" t="s">
         <v>464</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="F136" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="F136" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G136" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I136" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B137" s="6">
+        <v>474</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C137" s="6">
         <v>17</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="D137" s="40" t="s">
-        <v>477</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>40</v>
+      <c r="E137" s="40" t="s">
+        <v>475</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>474</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>40</v>
@@ -6119,103 +6675,115 @@
       <c r="H137" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I137" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C138" s="6">
+        <v>16</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="40" t="s">
+        <v>462</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B138" s="6">
-        <v>16</v>
-      </c>
-      <c r="C138" s="1" t="s">
+      <c r="B139" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C139" s="6">
+        <v>18</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D138" s="40" t="s">
+      <c r="E139" s="40" t="s">
         <v>462</v>
       </c>
-      <c r="E138" s="3" t="s">
+      <c r="F139" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="F138" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+      <c r="B140" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C140" s="6">
+        <v>17</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="40" t="s">
+        <v>462</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B139" s="6">
-        <v>18</v>
-      </c>
-      <c r="C139" s="1" t="s">
+      <c r="B141" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C141" s="6">
+        <v>19</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D139" s="40" t="s">
+      <c r="E141" s="40" t="s">
         <v>462</v>
       </c>
-      <c r="E139" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B140" s="6">
-        <v>17</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D140" s="40" t="s">
-        <v>462</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="B141" s="6">
-        <v>19</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D141" s="40" t="s">
-        <v>462</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>40</v>
+      <c r="F141" s="3" t="s">
+        <v>480</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>40</v>
@@ -6223,165 +6791,186 @@
       <c r="H141" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="I141" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I133">
-      <sortCondition ref="E1"/>
+  <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J133">
+      <sortCondition ref="F1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="23" priority="43" operator="containsText" text="Playtest Ready">
-      <formula>NOT(ISERROR(SEARCH("Playtest Ready",G1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="44" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",G1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="45" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",G1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="46" operator="containsText" text="Needs Clean Up">
-      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",G1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="47" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",G1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="48" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",G1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="29" priority="49" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="28" priority="50" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="27" priority="51" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="26" priority="52" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="25" priority="53" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="24" priority="54" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F141">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Playtest Ready">
-      <formula>NOT(ISERROR(SEARCH("Playtest Ready",F2)))</formula>
+  <conditionalFormatting sqref="I2:I1048576">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",F2)))</formula>
+    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",F2)))</formula>
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Needs Clean Up">
-      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",F2)))</formula>
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",F2)))</formula>
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",F2)))</formula>
+    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",I2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G141">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",G2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",I1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",I1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",I1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",I1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",I1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E64" r:id="rId1" xr:uid="{24378804-81F8-4AA1-B1AD-E2BAE71E62F7}"/>
-    <hyperlink ref="E29" r:id="rId2" xr:uid="{7740B376-4459-4FAA-AB98-1A2D8A29C31B}"/>
-    <hyperlink ref="E32" r:id="rId3" xr:uid="{C150CCA9-0F5F-46AB-943C-BD01528A8B1F}"/>
-    <hyperlink ref="E132" r:id="rId4" xr:uid="{EEF075A1-990E-48FE-9387-8BD7C00E2972}"/>
-    <hyperlink ref="E21" r:id="rId5" xr:uid="{8637426C-4B99-4977-8180-B781792B2D6C}"/>
-    <hyperlink ref="E13" r:id="rId6" xr:uid="{9B5D71D0-75F3-4EE0-8DA8-B6BD9F84C82E}"/>
-    <hyperlink ref="E26" r:id="rId7" xr:uid="{CC82EA8F-F005-4EB2-9D62-3A8B0CBA91AF}"/>
-    <hyperlink ref="E42" r:id="rId8" xr:uid="{A7029CFF-3F01-4AEA-9F17-2317268BC704}"/>
-    <hyperlink ref="E46" r:id="rId9" xr:uid="{5CF6B4CC-D51B-41A3-BC86-6560F7DD59F5}"/>
-    <hyperlink ref="E2" r:id="rId10" xr:uid="{7846F880-8F09-4C29-8DA3-F2246F7939E5}"/>
-    <hyperlink ref="E35" r:id="rId11" xr:uid="{570E2F56-8041-45E6-AEEF-A3857B5D5847}"/>
-    <hyperlink ref="E55" r:id="rId12" xr:uid="{E810D0E0-4900-4222-B30D-3BE97754D85D}"/>
-    <hyperlink ref="E9" r:id="rId13" xr:uid="{1026E72B-801A-42F9-A958-554A9A550B91}"/>
-    <hyperlink ref="E53" r:id="rId14" xr:uid="{D228C468-F1C8-4B50-AA9A-2BFE6D1BB225}"/>
-    <hyperlink ref="E11" r:id="rId15" xr:uid="{71B117C9-370F-4CA6-8D09-7B1776B5E256}"/>
-    <hyperlink ref="E7" r:id="rId16" xr:uid="{2337DA2F-0366-48D1-A576-15B38ABA8FA5}"/>
-    <hyperlink ref="E37" r:id="rId17" xr:uid="{B905E699-BE8D-450A-A5E2-77DAB8DF4433}"/>
-    <hyperlink ref="E125" r:id="rId18" xr:uid="{041375A2-D067-4A40-8828-7889379EF114}"/>
-    <hyperlink ref="E64:E65" r:id="rId19" display="Turkeys" xr:uid="{88E6937D-B8A1-4AC7-B1D5-F23A14BE36C9}"/>
-    <hyperlink ref="E128" r:id="rId20" xr:uid="{5CDA5DF7-07F1-415D-92B6-ED50325661CC}"/>
-    <hyperlink ref="E131" r:id="rId21" xr:uid="{0C5326F6-F3C5-4D41-A714-A391F57A0C73}"/>
-    <hyperlink ref="E115" r:id="rId22" xr:uid="{A6A2F85D-15E4-4853-98AF-6A5D1DDE42D1}"/>
-    <hyperlink ref="E133" r:id="rId23" xr:uid="{B0BF7381-65DF-449C-8466-065F67220649}"/>
-    <hyperlink ref="E48" r:id="rId24" xr:uid="{F801D409-31B5-4F77-897D-35F5AAE055C8}"/>
-    <hyperlink ref="E112" r:id="rId25" xr:uid="{83C4A64B-15DC-49A7-A939-2543A94EB330}"/>
-    <hyperlink ref="E83" r:id="rId26" xr:uid="{7256DA5D-0B8D-49EF-985E-0B0569E2E1EB}"/>
-    <hyperlink ref="E76" r:id="rId27" xr:uid="{549DB810-2E99-44F3-A802-C1DB01662A67}"/>
-    <hyperlink ref="E104" r:id="rId28" xr:uid="{274DD5E8-044F-493C-A18A-2F9A8B7357E5}"/>
-    <hyperlink ref="E72" r:id="rId29" xr:uid="{7010B8A8-DECA-4276-A943-BB646368232A}"/>
-    <hyperlink ref="E52" r:id="rId30" xr:uid="{B13A52D4-94A4-4BFA-8A84-7FD639267FFB}"/>
-    <hyperlink ref="E89" r:id="rId31" xr:uid="{700D5C34-6C41-4C82-A1DF-A36987B02587}"/>
-    <hyperlink ref="E71" r:id="rId32" xr:uid="{32DD538B-701B-49F0-B818-A5BDD0A8FD42}"/>
-    <hyperlink ref="E96" r:id="rId33" xr:uid="{84A84609-F8AB-4500-9367-5EF521C3D039}"/>
-    <hyperlink ref="E45" r:id="rId34" xr:uid="{78560ED4-F971-48FA-8E7D-0927D2102880}"/>
-    <hyperlink ref="E51" r:id="rId35" xr:uid="{72F178FC-2D46-4527-B45A-1D02A2DDCCA6}"/>
-    <hyperlink ref="E73" r:id="rId36" xr:uid="{75494AB1-681F-43E3-B13D-690DD2054A7E}"/>
-    <hyperlink ref="E111" r:id="rId37" xr:uid="{A1DB5563-BDAB-475B-A1BA-742E992BE98C}"/>
-    <hyperlink ref="E74" r:id="rId38" xr:uid="{11F5DB7C-3F00-444E-AD24-9ED27C85052F}"/>
-    <hyperlink ref="E82" r:id="rId39" xr:uid="{4126C33B-2342-4483-BFEE-207D26CA0652}"/>
-    <hyperlink ref="E36" r:id="rId40" xr:uid="{CBE4BFC2-50F0-456F-918F-1ECD9DBD82E2}"/>
-    <hyperlink ref="E3:E6" r:id="rId41" display="Beavers" xr:uid="{36154117-6BFA-4765-AAC8-F1416FE9D183}"/>
-    <hyperlink ref="E8" r:id="rId42" xr:uid="{F5569ABA-F66B-43F6-8699-2D8A2D7B588E}"/>
-    <hyperlink ref="E10" r:id="rId43" xr:uid="{38BD0EFD-3B97-4FFB-8195-0425FB6DF22B}"/>
-    <hyperlink ref="E12" r:id="rId44" xr:uid="{F1295FBE-1897-4B57-8E7D-6AB37CEA0075}"/>
-    <hyperlink ref="E14:E20" r:id="rId45" display="Crocodilians" xr:uid="{E7E3C18C-987F-4FCD-9BEF-03E6185F1DBB}"/>
-    <hyperlink ref="E22:E25" r:id="rId46" display="Demons of Change" xr:uid="{5D37A975-4CA9-42D9-902D-EFEFCDE50636}"/>
-    <hyperlink ref="E27:E28" r:id="rId47" display="Demons of Decay" xr:uid="{0E1F7270-C933-44F5-9286-D2FEABAC4BFB}"/>
-    <hyperlink ref="E30:E31" r:id="rId48" display="Demons of Excess" xr:uid="{50B9951F-C749-4EA5-840F-FF3C1C2537E2}"/>
-    <hyperlink ref="E33:E34" r:id="rId49" display="Demons of Rage" xr:uid="{64F69B6A-8835-4BE9-971B-52540B0C4B58}"/>
-    <hyperlink ref="E38:E41" r:id="rId50" display="Geese" xr:uid="{C6FAD9DC-F9DE-4613-8F07-5DA459A6B29A}"/>
-    <hyperlink ref="E43:E44" r:id="rId51" display="Hippos" xr:uid="{57CAEAD6-C500-4CCD-9449-FBAF7AF5D220}"/>
-    <hyperlink ref="E134" r:id="rId52" xr:uid="{CC0283CA-AF8C-4DEA-A3DA-7048B7B4DE1E}"/>
-    <hyperlink ref="E135" r:id="rId53" xr:uid="{FDD9596E-C1E9-447C-B186-D45E64BD8897}"/>
-    <hyperlink ref="E47" r:id="rId54" xr:uid="{EE4F84C8-C4A0-4E69-BDA6-3329C744AA93}"/>
-    <hyperlink ref="E49:E50" r:id="rId55" display="Mishipeshu" xr:uid="{B0C919D6-3373-4EF9-ABAD-FB01B13440AB}"/>
-    <hyperlink ref="E54" r:id="rId56" xr:uid="{2CF48A46-D4E5-493A-8BA9-5CA018517A4A}"/>
-    <hyperlink ref="E56:E58" r:id="rId57" display="Otherworldly Patron - The Cauldron NPCs " xr:uid="{DA188EE3-B896-4DB7-8933-AECE5EE42DFA}"/>
-    <hyperlink ref="E59" r:id="rId58" xr:uid="{1D0FA85E-B898-4474-A46F-16D0013CE39B}"/>
-    <hyperlink ref="E60:E63" r:id="rId59" display="Otters" xr:uid="{7E107E97-3B70-423F-8375-05DF8977A3E6}"/>
-    <hyperlink ref="E65:E70" r:id="rId60" display="Owls" xr:uid="{4E883043-1411-4249-AB12-FF5A2D124BBB}"/>
-    <hyperlink ref="E75" r:id="rId61" xr:uid="{DA536D1A-0FFA-4A8B-ACA1-DEE439AD74D9}"/>
-    <hyperlink ref="E77:E81" r:id="rId62" display="Rat Monstrosities" xr:uid="{D46FFB8C-2DAE-4D9C-9E81-29808F0C1ACA}"/>
-    <hyperlink ref="E84:E88" r:id="rId63" display="Rats" xr:uid="{5FCA2C7B-D1C5-4C52-A778-2461B028EFAB}"/>
-    <hyperlink ref="E90" r:id="rId64" xr:uid="{0FEDDC4E-EFB1-4D3C-857A-046F341EA4B9}"/>
-    <hyperlink ref="E91" r:id="rId65" xr:uid="{FBC08E58-4F87-42CC-8A75-9C3FDF055070}"/>
-    <hyperlink ref="E92" r:id="rId66" xr:uid="{6F59902B-F74D-40B9-9336-3248897C1833}"/>
-    <hyperlink ref="E93" r:id="rId67" xr:uid="{BC45D541-AD1F-4405-8C56-F268BD60893F}"/>
-    <hyperlink ref="E94" r:id="rId68" xr:uid="{6F9189E8-D8EE-4649-9218-7BE7E74D36B9}"/>
-    <hyperlink ref="E95" r:id="rId69" xr:uid="{C9C9BE17-6967-4E21-946E-676910327B46}"/>
-    <hyperlink ref="E97" r:id="rId70" xr:uid="{5D5157F1-559B-4634-BF8E-647E780FC38B}"/>
-    <hyperlink ref="E98" r:id="rId71" xr:uid="{98D73104-5354-4CE1-8A4F-444BC0A863C5}"/>
-    <hyperlink ref="E99" r:id="rId72" xr:uid="{1A6FDD36-70E8-4A0F-87AA-7F0DDF8CA116}"/>
-    <hyperlink ref="E100" r:id="rId73" xr:uid="{84D28B3A-E8E4-4A1D-9F75-8FD83738C18B}"/>
-    <hyperlink ref="E101" r:id="rId74" xr:uid="{E6AF5147-8DBB-475B-BB13-AE4EB76B4142}"/>
-    <hyperlink ref="E102" r:id="rId75" xr:uid="{DB5E3310-B13E-4BB2-93BB-1AA0ED7F6DB5}"/>
-    <hyperlink ref="E103" r:id="rId76" xr:uid="{7C72F4C1-3370-426B-9276-2003A211B3F6}"/>
-    <hyperlink ref="E105:E110" r:id="rId77" display="Sharks" xr:uid="{26AC78B2-6E8D-4DC3-9892-27A60D0332F9}"/>
-    <hyperlink ref="E113:E114" r:id="rId78" display="Tigers" xr:uid="{1309CEBD-E415-4D59-9293-82F6B1838C4C}"/>
-    <hyperlink ref="E116:E124" r:id="rId79" display="Toads" xr:uid="{3997B53E-845B-4700-ACB9-261BE83F5220}"/>
-    <hyperlink ref="E126:E127" r:id="rId80" display="Turkeys" xr:uid="{17E8718E-27BC-4230-AFE6-99E1DB6ADBBB}"/>
-    <hyperlink ref="E129:E130" r:id="rId81" display="Water Horses" xr:uid="{21D217B7-2E1C-4AD5-A5B7-C33A2F4F7B65}"/>
-    <hyperlink ref="E136" r:id="rId82" xr:uid="{4EEFA9FF-45D2-4214-8665-1794562B9A08}"/>
-    <hyperlink ref="E137" r:id="rId83" xr:uid="{FD67F0CC-BE83-4C59-B2D3-52C60052B333}"/>
-    <hyperlink ref="E138" r:id="rId84" xr:uid="{CA2C20BD-44FB-4D81-9003-2C42583F13DC}"/>
-    <hyperlink ref="E139" r:id="rId85" xr:uid="{118F67D6-A6E6-48EF-AC10-3626D9523464}"/>
-    <hyperlink ref="E140" r:id="rId86" xr:uid="{24972FCC-FDFA-429E-A04E-D66D2893150E}"/>
-    <hyperlink ref="E141" r:id="rId87" xr:uid="{74AA3F65-CC64-4234-BA75-85ABC63FE5CA}"/>
+    <hyperlink ref="F64" r:id="rId1" xr:uid="{24378804-81F8-4AA1-B1AD-E2BAE71E62F7}"/>
+    <hyperlink ref="F29" r:id="rId2" xr:uid="{7740B376-4459-4FAA-AB98-1A2D8A29C31B}"/>
+    <hyperlink ref="F32" r:id="rId3" xr:uid="{C150CCA9-0F5F-46AB-943C-BD01528A8B1F}"/>
+    <hyperlink ref="F132" r:id="rId4" xr:uid="{EEF075A1-990E-48FE-9387-8BD7C00E2972}"/>
+    <hyperlink ref="F21" r:id="rId5" xr:uid="{8637426C-4B99-4977-8180-B781792B2D6C}"/>
+    <hyperlink ref="F13" r:id="rId6" xr:uid="{9B5D71D0-75F3-4EE0-8DA8-B6BD9F84C82E}"/>
+    <hyperlink ref="F26" r:id="rId7" xr:uid="{CC82EA8F-F005-4EB2-9D62-3A8B0CBA91AF}"/>
+    <hyperlink ref="F42" r:id="rId8" xr:uid="{A7029CFF-3F01-4AEA-9F17-2317268BC704}"/>
+    <hyperlink ref="F46" r:id="rId9" xr:uid="{5CF6B4CC-D51B-41A3-BC86-6560F7DD59F5}"/>
+    <hyperlink ref="F2" r:id="rId10" xr:uid="{7846F880-8F09-4C29-8DA3-F2246F7939E5}"/>
+    <hyperlink ref="F35" r:id="rId11" xr:uid="{570E2F56-8041-45E6-AEEF-A3857B5D5847}"/>
+    <hyperlink ref="F55" r:id="rId12" xr:uid="{E810D0E0-4900-4222-B30D-3BE97754D85D}"/>
+    <hyperlink ref="F9" r:id="rId13" xr:uid="{1026E72B-801A-42F9-A958-554A9A550B91}"/>
+    <hyperlink ref="F53" r:id="rId14" xr:uid="{D228C468-F1C8-4B50-AA9A-2BFE6D1BB225}"/>
+    <hyperlink ref="F11" r:id="rId15" xr:uid="{71B117C9-370F-4CA6-8D09-7B1776B5E256}"/>
+    <hyperlink ref="F7" r:id="rId16" xr:uid="{2337DA2F-0366-48D1-A576-15B38ABA8FA5}"/>
+    <hyperlink ref="F37" r:id="rId17" xr:uid="{B905E699-BE8D-450A-A5E2-77DAB8DF4433}"/>
+    <hyperlink ref="F125" r:id="rId18" xr:uid="{041375A2-D067-4A40-8828-7889379EF114}"/>
+    <hyperlink ref="F64:F65" r:id="rId19" display="Turkeys" xr:uid="{88E6937D-B8A1-4AC7-B1D5-F23A14BE36C9}"/>
+    <hyperlink ref="F128" r:id="rId20" xr:uid="{5CDA5DF7-07F1-415D-92B6-ED50325661CC}"/>
+    <hyperlink ref="F131" r:id="rId21" xr:uid="{0C5326F6-F3C5-4D41-A714-A391F57A0C73}"/>
+    <hyperlink ref="F115" r:id="rId22" xr:uid="{A6A2F85D-15E4-4853-98AF-6A5D1DDE42D1}"/>
+    <hyperlink ref="F133" r:id="rId23" xr:uid="{B0BF7381-65DF-449C-8466-065F67220649}"/>
+    <hyperlink ref="F48" r:id="rId24" xr:uid="{F801D409-31B5-4F77-897D-35F5AAE055C8}"/>
+    <hyperlink ref="F112" r:id="rId25" xr:uid="{83C4A64B-15DC-49A7-A939-2543A94EB330}"/>
+    <hyperlink ref="F83" r:id="rId26" xr:uid="{7256DA5D-0B8D-49EF-985E-0B0569E2E1EB}"/>
+    <hyperlink ref="F76" r:id="rId27" xr:uid="{549DB810-2E99-44F3-A802-C1DB01662A67}"/>
+    <hyperlink ref="F104" r:id="rId28" xr:uid="{274DD5E8-044F-493C-A18A-2F9A8B7357E5}"/>
+    <hyperlink ref="F72" r:id="rId29" xr:uid="{7010B8A8-DECA-4276-A943-BB646368232A}"/>
+    <hyperlink ref="F52" r:id="rId30" xr:uid="{B13A52D4-94A4-4BFA-8A84-7FD639267FFB}"/>
+    <hyperlink ref="F89" r:id="rId31" xr:uid="{700D5C34-6C41-4C82-A1DF-A36987B02587}"/>
+    <hyperlink ref="F71" r:id="rId32" xr:uid="{32DD538B-701B-49F0-B818-A5BDD0A8FD42}"/>
+    <hyperlink ref="F96" r:id="rId33" xr:uid="{84A84609-F8AB-4500-9367-5EF521C3D039}"/>
+    <hyperlink ref="F45" r:id="rId34" xr:uid="{78560ED4-F971-48FA-8E7D-0927D2102880}"/>
+    <hyperlink ref="F51" r:id="rId35" xr:uid="{72F178FC-2D46-4527-B45A-1D02A2DDCCA6}"/>
+    <hyperlink ref="F73" r:id="rId36" xr:uid="{75494AB1-681F-43E3-B13D-690DD2054A7E}"/>
+    <hyperlink ref="F111" r:id="rId37" xr:uid="{A1DB5563-BDAB-475B-A1BA-742E992BE98C}"/>
+    <hyperlink ref="F74" r:id="rId38" xr:uid="{11F5DB7C-3F00-444E-AD24-9ED27C85052F}"/>
+    <hyperlink ref="F82" r:id="rId39" xr:uid="{4126C33B-2342-4483-BFEE-207D26CA0652}"/>
+    <hyperlink ref="F36" r:id="rId40" xr:uid="{CBE4BFC2-50F0-456F-918F-1ECD9DBD82E2}"/>
+    <hyperlink ref="F3:F6" r:id="rId41" display="Beavers" xr:uid="{36154117-6BFA-4765-AAC8-F1416FE9D183}"/>
+    <hyperlink ref="F8" r:id="rId42" xr:uid="{F5569ABA-F66B-43F6-8699-2D8A2D7B588E}"/>
+    <hyperlink ref="F10" r:id="rId43" xr:uid="{38BD0EFD-3B97-4FFB-8195-0425FB6DF22B}"/>
+    <hyperlink ref="F12" r:id="rId44" xr:uid="{F1295FBE-1897-4B57-8E7D-6AB37CEA0075}"/>
+    <hyperlink ref="F14:F20" r:id="rId45" display="Crocodilians" xr:uid="{E7E3C18C-987F-4FCD-9BEF-03E6185F1DBB}"/>
+    <hyperlink ref="F22:F25" r:id="rId46" display="Demons of Change" xr:uid="{5D37A975-4CA9-42D9-902D-EFEFCDE50636}"/>
+    <hyperlink ref="F27:F28" r:id="rId47" display="Demons of Decay" xr:uid="{0E1F7270-C933-44F5-9286-D2FEABAC4BFB}"/>
+    <hyperlink ref="F30:F31" r:id="rId48" display="Demons of Excess" xr:uid="{50B9951F-C749-4EA5-840F-FF3C1C2537E2}"/>
+    <hyperlink ref="F33:F34" r:id="rId49" display="Demons of Rage" xr:uid="{64F69B6A-8835-4BE9-971B-52540B0C4B58}"/>
+    <hyperlink ref="F38:F41" r:id="rId50" display="Geese" xr:uid="{C6FAD9DC-F9DE-4613-8F07-5DA459A6B29A}"/>
+    <hyperlink ref="F43:F44" r:id="rId51" display="Hippos" xr:uid="{57CAEAD6-C500-4CCD-9449-FBAF7AF5D220}"/>
+    <hyperlink ref="F134" r:id="rId52" xr:uid="{CC0283CA-AF8C-4DEA-A3DA-7048B7B4DE1E}"/>
+    <hyperlink ref="F135" r:id="rId53" xr:uid="{FDD9596E-C1E9-447C-B186-D45E64BD8897}"/>
+    <hyperlink ref="F47" r:id="rId54" xr:uid="{EE4F84C8-C4A0-4E69-BDA6-3329C744AA93}"/>
+    <hyperlink ref="F49:F50" r:id="rId55" display="Mishipeshu" xr:uid="{B0C919D6-3373-4EF9-ABAD-FB01B13440AB}"/>
+    <hyperlink ref="F54" r:id="rId56" xr:uid="{2CF48A46-D4E5-493A-8BA9-5CA018517A4A}"/>
+    <hyperlink ref="F56:F58" r:id="rId57" display="Otherworldly Patron - The Cauldron NPCs " xr:uid="{DA188EE3-B896-4DB7-8933-AECE5EE42DFA}"/>
+    <hyperlink ref="F59" r:id="rId58" xr:uid="{1D0FA85E-B898-4474-A46F-16D0013CE39B}"/>
+    <hyperlink ref="F60:F63" r:id="rId59" display="Otters" xr:uid="{7E107E97-3B70-423F-8375-05DF8977A3E6}"/>
+    <hyperlink ref="F65:F70" r:id="rId60" display="Owls" xr:uid="{4E883043-1411-4249-AB12-FF5A2D124BBB}"/>
+    <hyperlink ref="F75" r:id="rId61" xr:uid="{DA536D1A-0FFA-4A8B-ACA1-DEE439AD74D9}"/>
+    <hyperlink ref="F77:F81" r:id="rId62" display="Rat Monstrosities" xr:uid="{D46FFB8C-2DAE-4D9C-9E81-29808F0C1ACA}"/>
+    <hyperlink ref="F84:F88" r:id="rId63" display="Rats" xr:uid="{5FCA2C7B-D1C5-4C52-A778-2461B028EFAB}"/>
+    <hyperlink ref="F90" r:id="rId64" xr:uid="{0FEDDC4E-EFB1-4D3C-857A-046F341EA4B9}"/>
+    <hyperlink ref="F91" r:id="rId65" xr:uid="{FBC08E58-4F87-42CC-8A75-9C3FDF055070}"/>
+    <hyperlink ref="F92" r:id="rId66" xr:uid="{6F59902B-F74D-40B9-9336-3248897C1833}"/>
+    <hyperlink ref="F93" r:id="rId67" xr:uid="{BC45D541-AD1F-4405-8C56-F268BD60893F}"/>
+    <hyperlink ref="F94" r:id="rId68" xr:uid="{6F9189E8-D8EE-4649-9218-7BE7E74D36B9}"/>
+    <hyperlink ref="F95" r:id="rId69" xr:uid="{C9C9BE17-6967-4E21-946E-676910327B46}"/>
+    <hyperlink ref="F97" r:id="rId70" xr:uid="{5D5157F1-559B-4634-BF8E-647E780FC38B}"/>
+    <hyperlink ref="F98" r:id="rId71" xr:uid="{98D73104-5354-4CE1-8A4F-444BC0A863C5}"/>
+    <hyperlink ref="F99" r:id="rId72" xr:uid="{1A6FDD36-70E8-4A0F-87AA-7F0DDF8CA116}"/>
+    <hyperlink ref="F100" r:id="rId73" xr:uid="{84D28B3A-E8E4-4A1D-9F75-8FD83738C18B}"/>
+    <hyperlink ref="F101" r:id="rId74" xr:uid="{E6AF5147-8DBB-475B-BB13-AE4EB76B4142}"/>
+    <hyperlink ref="F102" r:id="rId75" xr:uid="{DB5E3310-B13E-4BB2-93BB-1AA0ED7F6DB5}"/>
+    <hyperlink ref="F103" r:id="rId76" xr:uid="{7C72F4C1-3370-426B-9276-2003A211B3F6}"/>
+    <hyperlink ref="F105:F110" r:id="rId77" display="Sharks" xr:uid="{26AC78B2-6E8D-4DC3-9892-27A60D0332F9}"/>
+    <hyperlink ref="F113:F114" r:id="rId78" display="Tigers" xr:uid="{1309CEBD-E415-4D59-9293-82F6B1838C4C}"/>
+    <hyperlink ref="F116:F124" r:id="rId79" display="Toads" xr:uid="{3997B53E-845B-4700-ACB9-261BE83F5220}"/>
+    <hyperlink ref="F126:F127" r:id="rId80" display="Turkeys" xr:uid="{17E8718E-27BC-4230-AFE6-99E1DB6ADBBB}"/>
+    <hyperlink ref="F129:F130" r:id="rId81" display="Water Horses" xr:uid="{21D217B7-2E1C-4AD5-A5B7-C33A2F4F7B65}"/>
+    <hyperlink ref="F137" r:id="rId82" xr:uid="{5880726E-4FB2-49A2-8A96-7AD03469486D}"/>
+    <hyperlink ref="F136" r:id="rId83" xr:uid="{5EF8AC74-8F88-4352-9C10-F0B31E557223}"/>
+    <hyperlink ref="F138" r:id="rId84" xr:uid="{73577FD1-F30B-48E9-AF79-D1BA01F478D5}"/>
+    <hyperlink ref="F139:F141" r:id="rId85" display="Vermin Lords" xr:uid="{D6516090-D0B6-4EAF-97A2-C190EC7D976F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId88"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId86"/>
 </worksheet>
 </file>
 
@@ -6391,7 +6980,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6477,7 +7066,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7234,7 +7823,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7696,7 +8285,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8058,17 +8647,19 @@
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{75FD0084-15F3-4E8F-BDC9-AA450191B803}"/>
   <hyperlinks>
-    <hyperlink ref="F3:F6" r:id="rId1" display="Independent Feats" xr:uid="{25EAA3AF-808E-4703-B673-65CF6287924C}"/>
-    <hyperlink ref="F11" r:id="rId2" xr:uid="{CD205D86-3B69-41FA-9A89-4B4891CE715F}"/>
-    <hyperlink ref="F10" r:id="rId3" xr:uid="{D2CB272F-7CFD-43E8-A6CD-F5D4F762EECE}"/>
-    <hyperlink ref="F9" r:id="rId4" xr:uid="{5346317E-A68D-4A4F-8714-EA324906FCC9}"/>
-    <hyperlink ref="F8" r:id="rId5" xr:uid="{65EC0AF8-6599-48A6-BFF2-CC33A04C580C}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{22D2DA75-15EE-4E3D-A214-9438B3918722}"/>
-    <hyperlink ref="F6" r:id="rId7" xr:uid="{8758105F-E927-44A4-B50E-51069F6ED535}"/>
-    <hyperlink ref="F2:F5" r:id="rId8" display="Independent Feats" xr:uid="{6C71BC5D-81B3-4718-8CCF-F0B88B3CBB29}"/>
-    <hyperlink ref="F12" r:id="rId9" xr:uid="{29312A83-9E19-4FC9-9BD5-D08415EE6D39}"/>
-    <hyperlink ref="F13" r:id="rId10" xr:uid="{FD4053AF-A296-442A-A393-E344F9435BC6}"/>
-    <hyperlink ref="F14:F17" r:id="rId11" display="Player Race: Sahuagin" xr:uid="{AE9F375F-2313-4BB6-B3CC-003CCB5D87AD}"/>
+    <hyperlink ref="F11" r:id="rId1" xr:uid="{CD205D86-3B69-41FA-9A89-4B4891CE715F}"/>
+    <hyperlink ref="F10" r:id="rId2" xr:uid="{D2CB272F-7CFD-43E8-A6CD-F5D4F762EECE}"/>
+    <hyperlink ref="F9" r:id="rId3" xr:uid="{5346317E-A68D-4A4F-8714-EA324906FCC9}"/>
+    <hyperlink ref="F8" r:id="rId4" xr:uid="{65EC0AF8-6599-48A6-BFF2-CC33A04C580C}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{22D2DA75-15EE-4E3D-A214-9438B3918722}"/>
+    <hyperlink ref="F12" r:id="rId6" xr:uid="{29312A83-9E19-4FC9-9BD5-D08415EE6D39}"/>
+    <hyperlink ref="F13" r:id="rId7" xr:uid="{FD4053AF-A296-442A-A393-E344F9435BC6}"/>
+    <hyperlink ref="F14:F17" r:id="rId8" display="Player Race: Sahuagin" xr:uid="{AE9F375F-2313-4BB6-B3CC-003CCB5D87AD}"/>
+    <hyperlink ref="F2" r:id="rId9" xr:uid="{AA641211-9538-47CD-AC49-DED79060FDC3}"/>
+    <hyperlink ref="F3" r:id="rId10" xr:uid="{F59CDB79-101F-4262-ACC3-33706B6460A5}"/>
+    <hyperlink ref="F4" r:id="rId11" xr:uid="{44DDBB9E-A2C5-4BCC-9DA6-37B6073692D9}"/>
+    <hyperlink ref="F5" r:id="rId12" xr:uid="{6D8AB764-4F65-4500-AE06-C6ED17E0AD44}"/>
+    <hyperlink ref="F6" r:id="rId13" xr:uid="{FF38A524-B07D-4605-BEFD-9AA818E3A281}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8080,7 +8671,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
+      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9461,7 +10052,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9586,7 +10177,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10712,88 +11303,738 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J37" s="3"/>
+      <c r="A37" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J38" s="3"/>
+      <c r="A38" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J39" s="3"/>
+      <c r="A39" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J40" s="3"/>
+      <c r="A40" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J41" s="3"/>
+      <c r="A41" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J42" s="3"/>
+      <c r="A42" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J43" s="3"/>
+      <c r="A43" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J44" s="3"/>
+      <c r="A44" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J45" s="3"/>
+      <c r="A45" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J46" s="3"/>
+      <c r="A46" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J47" s="3"/>
+      <c r="A47" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J48" s="3"/>
-    </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J49" s="3"/>
-    </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J50" s="3"/>
-    </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J51" s="3"/>
-    </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J52" s="3"/>
-    </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J53" s="3"/>
-    </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J54" s="3"/>
-    </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J55" s="3"/>
-    </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J56" s="3"/>
-    </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J57" s="3"/>
-    </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J58" s="3"/>
-    </row>
-    <row r="59" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J59" s="3"/>
-    </row>
-    <row r="60" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J60" s="3"/>
-    </row>
-    <row r="61" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J61" s="3"/>
-    </row>
-    <row r="62" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J62" s="3"/>
-    </row>
-    <row r="63" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J63" s="3"/>
-    </row>
-    <row r="64" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J64" s="3"/>
+      <c r="A48" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="1">
+        <v>100</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="1">
+        <v>60</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="65" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J65" s="3"/>
@@ -10817,9 +12058,10 @@
     <hyperlink ref="J3:J7" r:id="rId3" display="New Magic Items" xr:uid="{22D16497-DB85-4858-A0DE-DB98B43B80A4}"/>
     <hyperlink ref="J9" r:id="rId4" display="New Magic Items" xr:uid="{DCD4AB5A-6B85-4E9C-8554-B40E9BFDAC9D}"/>
     <hyperlink ref="J10:J36" r:id="rId5" display="New Magic Items" xr:uid="{6A72CB19-38D0-49ED-A632-370E5754559D}"/>
+    <hyperlink ref="J37:J64" r:id="rId6" display="New Magic Items" xr:uid="{C2954B71-3ECB-494D-91BB-96832C44D312}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -10829,7 +12071,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PublicContentList.xlsx
+++ b/PublicContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808832CD-F8D7-4F90-B6E9-262A71F73673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA54BBD-ECC4-41BE-858A-520208EC8370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -2110,6 +2110,24 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2126,24 +2144,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2685,8 +2685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
@@ -7164,87 +7164,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="47" t="s">
         <v>440</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="47" t="s">
         <v>357</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="47" t="s">
         <v>381</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="51" t="s">
         <v>382</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="49" t="s">
         <v>383</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="49" t="s">
         <v>384</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="49" t="s">
         <v>385</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="49" t="s">
         <v>386</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="41" t="s">
         <v>387</v>
       </c>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="49" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="43" t="s">
         <v>391</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="45" t="s">
         <v>392</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="L2" s="45" t="s">
         <v>393</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="45" t="s">
         <v>394</v>
       </c>
-      <c r="N2" s="51" t="s">
+      <c r="N2" s="45" t="s">
         <v>395</v>
       </c>
-      <c r="O2" s="51" t="s">
+      <c r="O2" s="45" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
     </row>
     <row r="4" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
@@ -7781,13 +7781,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="16">
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
@@ -7797,6 +7790,13 @@
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{B4A7D905-D120-4788-AC98-B53455EB3FC4}"/>
@@ -10175,9 +10175,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDE69A5-0DEA-4E6C-8C42-A4C78FD0BD58}">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11637,7 +11637,7 @@
         <v>14</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>356</v>
@@ -11663,7 +11663,7 @@
         <v>14</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>356</v>
@@ -11689,7 +11689,7 @@
         <v>14</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>356</v>
@@ -11715,7 +11715,7 @@
         <v>14</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>356</v>
@@ -11741,7 +11741,7 @@
         <v>14</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>356</v>

--- a/PublicContentList.xlsx
+++ b/PublicContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808832CD-F8D7-4F90-B6E9-262A71F73673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B75722-DC34-47EE-A89F-C324B0801A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Adventures!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ClassFeatures!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Creatures!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Creatures!$A$1:$J$147</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">DMResources!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Feats!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">MagicItems!$A$1:$J$35</definedName>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="521">
   <si>
     <t>Name</t>
   </si>
@@ -1079,15 +1079,9 @@
     <t>Plague Censer Bearer</t>
   </si>
   <si>
-    <t>Plague Censer Bearers</t>
-  </si>
-  <si>
     <t>Night Runner</t>
   </si>
   <si>
-    <t>Night Runners</t>
-  </si>
-  <si>
     <t>Revised Feat</t>
   </si>
   <si>
@@ -1211,9 +1205,6 @@
     <t>Sea Fish: Part 1</t>
   </si>
   <si>
-    <t>Packmasters</t>
-  </si>
-  <si>
     <t>Goose Ribbon</t>
   </si>
   <si>
@@ -1776,6 +1767,24 @@
   </si>
   <si>
     <t>Patreon Creature Guide</t>
+  </si>
+  <si>
+    <t>Ratfolk Chieftain</t>
+  </si>
+  <si>
+    <t>Humanoid(ratfolk)</t>
+  </si>
+  <si>
+    <t>Ratfolk Clan Rat</t>
+  </si>
+  <si>
+    <t>Ratfolk Council Guard</t>
+  </si>
+  <si>
+    <t>Ratfolk Slave</t>
+  </si>
+  <si>
+    <t>Ratfolk Storm Vermin</t>
   </si>
 </sst>
 </file>
@@ -2110,6 +2119,24 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2126,24 +2153,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2683,11 +2692,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B143" sqref="B143"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2711,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>60</v>
@@ -2720,19 +2729,19 @@
         <v>61</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2740,7 +2749,7 @@
         <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -2749,7 +2758,7 @@
         <v>62</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>65</v>
@@ -2769,7 +2778,7 @@
         <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C3" s="6">
         <v>0.5</v>
@@ -2778,7 +2787,7 @@
         <v>62</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>65</v>
@@ -2798,7 +2807,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C4" s="6">
         <v>4</v>
@@ -2807,7 +2816,7 @@
         <v>69</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>65</v>
@@ -2827,7 +2836,7 @@
         <v>134</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C5" s="6">
         <v>8</v>
@@ -2836,7 +2845,7 @@
         <v>69</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>65</v>
@@ -2856,7 +2865,7 @@
         <v>133</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -2865,7 +2874,7 @@
         <v>69</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>65</v>
@@ -2885,7 +2894,7 @@
         <v>101</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -2894,7 +2903,7 @@
         <v>90</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>84</v>
@@ -2914,7 +2923,7 @@
         <v>102</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C8" s="6">
         <v>5</v>
@@ -2923,7 +2932,7 @@
         <v>90</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>84</v>
@@ -2943,7 +2952,7 @@
         <v>95</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C9" s="6">
         <v>2</v>
@@ -2952,7 +2961,7 @@
         <v>90</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>80</v>
@@ -2972,7 +2981,7 @@
         <v>96</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C10" s="6">
         <v>7</v>
@@ -2981,7 +2990,7 @@
         <v>90</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>80</v>
@@ -3001,7 +3010,7 @@
         <v>99</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C11" s="6">
         <v>2</v>
@@ -3010,7 +3019,7 @@
         <v>90</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>86</v>
@@ -3030,7 +3039,7 @@
         <v>100</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C12" s="6">
         <v>8</v>
@@ -3039,7 +3048,7 @@
         <v>90</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>86</v>
@@ -3059,7 +3068,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C13" s="6">
         <v>0.5</v>
@@ -3068,7 +3077,7 @@
         <v>62</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>30</v>
@@ -3088,7 +3097,7 @@
         <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C14" s="6">
         <v>3</v>
@@ -3097,7 +3106,7 @@
         <v>62</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>30</v>
@@ -3117,7 +3126,7 @@
         <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C15" s="6">
         <v>0.25</v>
@@ -3126,7 +3135,7 @@
         <v>62</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>30</v>
@@ -3146,7 +3155,7 @@
         <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C16" s="6">
         <v>1</v>
@@ -3155,7 +3164,7 @@
         <v>62</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>30</v>
@@ -3175,7 +3184,7 @@
         <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C17" s="6">
         <v>2</v>
@@ -3184,7 +3193,7 @@
         <v>62</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>30</v>
@@ -3204,7 +3213,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C18" s="6">
         <v>5</v>
@@ -3213,7 +3222,7 @@
         <v>62</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>30</v>
@@ -3233,7 +3242,7 @@
         <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C19" s="6">
         <v>8</v>
@@ -3242,7 +3251,7 @@
         <v>62</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>30</v>
@@ -3262,7 +3271,7 @@
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C20" s="6">
         <v>0.5</v>
@@ -3271,7 +3280,7 @@
         <v>62</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>30</v>
@@ -3291,7 +3300,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C21" s="6">
         <v>9</v>
@@ -3300,7 +3309,7 @@
         <v>69</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>23</v>
@@ -3320,7 +3329,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C22" s="6">
         <v>1</v>
@@ -3329,7 +3338,7 @@
         <v>69</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>23</v>
@@ -3349,7 +3358,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C23" s="6">
         <v>0.5</v>
@@ -3358,7 +3367,7 @@
         <v>69</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>23</v>
@@ -3378,7 +3387,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C24" s="6">
         <v>0.25</v>
@@ -3387,7 +3396,7 @@
         <v>69</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>23</v>
@@ -3407,7 +3416,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C25" s="6">
         <v>17</v>
@@ -3416,7 +3425,7 @@
         <v>69</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>23</v>
@@ -3436,7 +3445,7 @@
         <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C26" s="6">
         <v>9</v>
@@ -3445,7 +3454,7 @@
         <v>69</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>42</v>
@@ -3465,7 +3474,7 @@
         <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C27" s="6">
         <v>17</v>
@@ -3474,7 +3483,7 @@
         <v>69</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>42</v>
@@ -3494,7 +3503,7 @@
         <v>46</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C28" s="6">
         <v>3</v>
@@ -3503,7 +3512,7 @@
         <v>69</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>42</v>
@@ -3520,10 +3529,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C29" s="6">
         <v>3</v>
@@ -3532,7 +3541,7 @@
         <v>69</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>17</v>
@@ -3552,7 +3561,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C30" s="6">
         <v>9</v>
@@ -3561,7 +3570,7 @@
         <v>69</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>17</v>
@@ -3581,7 +3590,7 @@
         <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C31" s="6">
         <v>17</v>
@@ -3590,7 +3599,7 @@
         <v>69</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>17</v>
@@ -3610,7 +3619,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C32" s="6">
         <v>3</v>
@@ -3619,7 +3628,7 @@
         <v>69</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>18</v>
@@ -3636,10 +3645,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C33" s="6">
         <v>17</v>
@@ -3648,7 +3657,7 @@
         <v>69</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>18</v>
@@ -3668,7 +3677,7 @@
         <v>20</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C34" s="6">
         <v>5</v>
@@ -3677,7 +3686,7 @@
         <v>69</v>
       </c>
       <c r="E34" s="40" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>18</v>
@@ -3697,7 +3706,7 @@
         <v>71</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C35" s="6">
         <v>0.5</v>
@@ -3706,7 +3715,7 @@
         <v>62</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>70</v>
@@ -3723,10 +3732,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C36" s="6">
         <v>16</v>
@@ -3735,10 +3744,10 @@
         <v>125</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>40</v>
@@ -3755,7 +3764,7 @@
         <v>104</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C37" s="6">
         <v>0.125</v>
@@ -3764,7 +3773,7 @@
         <v>62</v>
       </c>
       <c r="E37" s="40" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>103</v>
@@ -3784,7 +3793,7 @@
         <v>105</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C38" s="6">
         <v>2</v>
@@ -3793,7 +3802,7 @@
         <v>106</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>103</v>
@@ -3813,7 +3822,7 @@
         <v>107</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C39" s="6">
         <v>0.25</v>
@@ -3822,7 +3831,7 @@
         <v>62</v>
       </c>
       <c r="E39" s="40" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>103</v>
@@ -3842,7 +3851,7 @@
         <v>108</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C40" s="6">
         <v>3</v>
@@ -3851,7 +3860,7 @@
         <v>64</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>103</v>
@@ -3871,7 +3880,7 @@
         <v>109</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C41" s="6">
         <v>0.5</v>
@@ -3880,7 +3889,7 @@
         <v>62</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>103</v>
@@ -3900,7 +3909,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C42" s="6">
         <v>3</v>
@@ -3909,7 +3918,7 @@
         <v>62</v>
       </c>
       <c r="E42" s="40" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>47</v>
@@ -3929,7 +3938,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C43" s="6">
         <v>5</v>
@@ -3938,7 +3947,7 @@
         <v>62</v>
       </c>
       <c r="E43" s="40" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>47</v>
@@ -3958,7 +3967,7 @@
         <v>50</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C44" s="6">
         <v>0.5</v>
@@ -3967,7 +3976,7 @@
         <v>62</v>
       </c>
       <c r="E44" s="40" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>47</v>
@@ -3984,10 +3993,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C45" s="6">
         <v>7</v>
@@ -3996,10 +4005,10 @@
         <v>125</v>
       </c>
       <c r="E45" s="40" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>40</v>
@@ -4016,7 +4025,7 @@
         <v>52</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C46" s="6">
         <v>2</v>
@@ -4025,7 +4034,7 @@
         <v>62</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>51</v>
@@ -4045,7 +4054,7 @@
         <v>53</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C47" s="6">
         <v>3</v>
@@ -4054,7 +4063,7 @@
         <v>62</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>51</v>
@@ -4074,7 +4083,7 @@
         <v>129</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C48" s="6">
         <v>5</v>
@@ -4083,7 +4092,7 @@
         <v>63</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>129</v>
@@ -4103,7 +4112,7 @@
         <v>130</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C49" s="6">
         <v>10</v>
@@ -4112,7 +4121,7 @@
         <v>63</v>
       </c>
       <c r="E49" s="40" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>129</v>
@@ -4132,7 +4141,7 @@
         <v>131</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C50" s="6">
         <v>14</v>
@@ -4141,7 +4150,7 @@
         <v>63</v>
       </c>
       <c r="E50" s="40" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>129</v>
@@ -4158,10 +4167,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C51" s="6">
         <v>5</v>
@@ -4170,10 +4179,10 @@
         <v>125</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>40</v>
@@ -4187,22 +4196,22 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C52" s="6">
         <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E52" s="40" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>40</v>
@@ -4219,7 +4228,7 @@
         <v>97</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C53" s="6">
         <v>3</v>
@@ -4228,7 +4237,7 @@
         <v>90</v>
       </c>
       <c r="E53" s="40" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>82</v>
@@ -4248,7 +4257,7 @@
         <v>98</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C54" s="6">
         <v>7</v>
@@ -4257,7 +4266,7 @@
         <v>90</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>82</v>
@@ -4277,7 +4286,7 @@
         <v>89</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C55" s="6">
         <v>2</v>
@@ -4286,7 +4295,7 @@
         <v>90</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>78</v>
@@ -4306,7 +4315,7 @@
         <v>92</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C56" s="6">
         <v>6</v>
@@ -4315,7 +4324,7 @@
         <v>90</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>78</v>
@@ -4335,7 +4344,7 @@
         <v>93</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C57" s="6">
         <v>10</v>
@@ -4344,7 +4353,7 @@
         <v>90</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>78</v>
@@ -4364,7 +4373,7 @@
         <v>94</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C58" s="6">
         <v>15</v>
@@ -4373,7 +4382,7 @@
         <v>90</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>78</v>
@@ -4393,7 +4402,7 @@
         <v>55</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C59" s="6">
         <v>0</v>
@@ -4402,7 +4411,7 @@
         <v>62</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>54</v>
@@ -4422,7 +4431,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C60" s="6">
         <v>0.125</v>
@@ -4431,7 +4440,7 @@
         <v>62</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>54</v>
@@ -4451,7 +4460,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C61" s="6">
         <v>0.5</v>
@@ -4460,7 +4469,7 @@
         <v>62</v>
       </c>
       <c r="E61" s="40" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>54</v>
@@ -4480,7 +4489,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C62" s="6">
         <v>0</v>
@@ -4489,7 +4498,7 @@
         <v>62</v>
       </c>
       <c r="E62" s="40" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>54</v>
@@ -4509,7 +4518,7 @@
         <v>59</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C63" s="6">
         <v>5</v>
@@ -4518,7 +4527,7 @@
         <v>64</v>
       </c>
       <c r="E63" s="40" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>54</v>
@@ -4538,7 +4547,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C64" s="6">
         <v>0</v>
@@ -4547,7 +4556,7 @@
         <v>62</v>
       </c>
       <c r="E64" s="40" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>9</v>
@@ -4567,7 +4576,7 @@
         <v>3</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C65" s="6">
         <v>0.125</v>
@@ -4576,7 +4585,7 @@
         <v>62</v>
       </c>
       <c r="E65" s="40" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>9</v>
@@ -4596,7 +4605,7 @@
         <v>4</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C66" s="6">
         <v>0.5</v>
@@ -4605,7 +4614,7 @@
         <v>62</v>
       </c>
       <c r="E66" s="40" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>9</v>
@@ -4625,7 +4634,7 @@
         <v>5</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C67" s="6">
         <v>2</v>
@@ -4634,7 +4643,7 @@
         <v>62</v>
       </c>
       <c r="E67" s="40" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>9</v>
@@ -4654,7 +4663,7 @@
         <v>6</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C68" s="6">
         <v>3</v>
@@ -4663,7 +4672,7 @@
         <v>62</v>
       </c>
       <c r="E68" s="40" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>9</v>
@@ -4683,7 +4692,7 @@
         <v>7</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C69" s="6">
         <v>6</v>
@@ -4692,7 +4701,7 @@
         <v>62</v>
       </c>
       <c r="E69" s="40" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>9</v>
@@ -4712,7 +4721,7 @@
         <v>8</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C70" s="6">
         <v>1</v>
@@ -4721,7 +4730,7 @@
         <v>63</v>
       </c>
       <c r="E70" s="40" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>9</v>
@@ -4738,22 +4747,22 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C71" s="6">
         <v>2</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E71" s="40" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>40</v>
@@ -4770,19 +4779,19 @@
         <v>284</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C72" s="6">
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E72" s="40" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>40</v>
@@ -4796,22 +4805,22 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C73" s="6">
         <v>2</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E73" s="40" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>344</v>
+        <v>255</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>40</v>
@@ -4825,10 +4834,10 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C74" s="6">
         <v>6</v>
@@ -4837,10 +4846,10 @@
         <v>62</v>
       </c>
       <c r="E74" s="40" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>40</v>
@@ -4854,10 +4863,10 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C75" s="6">
         <v>10</v>
@@ -4866,10 +4875,10 @@
         <v>62</v>
       </c>
       <c r="E75" s="40" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>40</v>
@@ -4886,7 +4895,7 @@
         <v>262</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C76" s="6">
         <v>10</v>
@@ -4895,7 +4904,7 @@
         <v>125</v>
       </c>
       <c r="E76" s="40" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>268</v>
@@ -4915,7 +4924,7 @@
         <v>263</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C77" s="6">
         <v>16</v>
@@ -4924,7 +4933,7 @@
         <v>125</v>
       </c>
       <c r="E77" s="40" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>268</v>
@@ -4944,7 +4953,7 @@
         <v>264</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C78" s="6">
         <v>3</v>
@@ -4953,7 +4962,7 @@
         <v>125</v>
       </c>
       <c r="E78" s="40" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>268</v>
@@ -4973,7 +4982,7 @@
         <v>265</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C79" s="6">
         <v>1</v>
@@ -4982,7 +4991,7 @@
         <v>91</v>
       </c>
       <c r="E79" s="40" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>268</v>
@@ -5002,7 +5011,7 @@
         <v>266</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C80" s="6">
         <v>7</v>
@@ -5011,7 +5020,7 @@
         <v>91</v>
       </c>
       <c r="E80" s="40" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>268</v>
@@ -5031,7 +5040,7 @@
         <v>267</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C81" s="6">
         <v>0.5</v>
@@ -5040,7 +5049,7 @@
         <v>125</v>
       </c>
       <c r="E81" s="40" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>268</v>
@@ -5057,22 +5066,22 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C82" s="6">
         <v>7</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E82" s="40" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>351</v>
+        <v>255</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>40</v>
@@ -5089,7 +5098,7 @@
         <v>248</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C83" s="6">
         <v>0</v>
@@ -5098,7 +5107,7 @@
         <v>62</v>
       </c>
       <c r="E83" s="40" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>247</v>
@@ -5118,7 +5127,7 @@
         <v>249</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C84" s="6">
         <v>0.125</v>
@@ -5127,7 +5136,7 @@
         <v>62</v>
       </c>
       <c r="E84" s="40" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>247</v>
@@ -5147,7 +5156,7 @@
         <v>250</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C85" s="6">
         <v>0.25</v>
@@ -5156,7 +5165,7 @@
         <v>62</v>
       </c>
       <c r="E85" s="40" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>247</v>
@@ -5176,7 +5185,7 @@
         <v>251</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C86" s="6">
         <v>0.25</v>
@@ -5185,7 +5194,7 @@
         <v>106</v>
       </c>
       <c r="E86" s="40" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>247</v>
@@ -5205,7 +5214,7 @@
         <v>252</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C87" s="6">
         <v>3</v>
@@ -5214,7 +5223,7 @@
         <v>106</v>
       </c>
       <c r="E87" s="40" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>247</v>
@@ -5234,7 +5243,7 @@
         <v>253</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C88" s="6">
         <v>1</v>
@@ -5243,7 +5252,7 @@
         <v>125</v>
       </c>
       <c r="E88" s="40" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>247</v>
@@ -5260,10 +5269,10 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C89" s="6">
         <v>0.125</v>
@@ -5272,10 +5281,10 @@
         <v>62</v>
       </c>
       <c r="E89" s="40" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>40</v>
@@ -5289,10 +5298,10 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C90" s="6">
         <v>1</v>
@@ -5301,10 +5310,10 @@
         <v>62</v>
       </c>
       <c r="E90" s="40" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>40</v>
@@ -5318,10 +5327,10 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C91" s="6">
         <v>3</v>
@@ -5330,10 +5339,10 @@
         <v>62</v>
       </c>
       <c r="E91" s="40" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>40</v>
@@ -5347,10 +5356,10 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C92" s="6">
         <v>0</v>
@@ -5359,10 +5368,10 @@
         <v>62</v>
       </c>
       <c r="E92" s="40" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>40</v>
@@ -5376,10 +5385,10 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C93" s="6">
         <v>3</v>
@@ -5388,10 +5397,10 @@
         <v>62</v>
       </c>
       <c r="E93" s="40" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>40</v>
@@ -5405,10 +5414,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C94" s="6">
         <v>0.5</v>
@@ -5417,10 +5426,10 @@
         <v>62</v>
       </c>
       <c r="E94" s="40" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>40</v>
@@ -5434,10 +5443,10 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C95" s="6">
         <v>4</v>
@@ -5446,10 +5455,10 @@
         <v>62</v>
       </c>
       <c r="E95" s="40" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>40</v>
@@ -5463,10 +5472,10 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C96" s="6">
         <v>7</v>
@@ -5475,10 +5484,10 @@
         <v>62</v>
       </c>
       <c r="E96" s="40" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>40</v>
@@ -5492,10 +5501,10 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C97" s="6">
         <v>1</v>
@@ -5504,10 +5513,10 @@
         <v>62</v>
       </c>
       <c r="E97" s="40" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>40</v>
@@ -5521,10 +5530,10 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C98" s="6">
         <v>0.25</v>
@@ -5533,10 +5542,10 @@
         <v>62</v>
       </c>
       <c r="E98" s="40" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>40</v>
@@ -5550,10 +5559,10 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C99" s="6">
         <v>6</v>
@@ -5562,10 +5571,10 @@
         <v>62</v>
       </c>
       <c r="E99" s="40" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>40</v>
@@ -5579,10 +5588,10 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C100" s="6">
         <v>0.5</v>
@@ -5591,10 +5600,10 @@
         <v>62</v>
       </c>
       <c r="E100" s="40" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>40</v>
@@ -5608,10 +5617,10 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C101" s="6">
         <v>5</v>
@@ -5620,10 +5629,10 @@
         <v>62</v>
       </c>
       <c r="E101" s="40" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>40</v>
@@ -5637,10 +5646,10 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C102" s="6">
         <v>1</v>
@@ -5649,10 +5658,10 @@
         <v>62</v>
       </c>
       <c r="E102" s="40" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>40</v>
@@ -5666,10 +5675,10 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C103" s="6">
         <v>3</v>
@@ -5678,10 +5687,10 @@
         <v>62</v>
       </c>
       <c r="E103" s="40" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>40</v>
@@ -5698,7 +5707,7 @@
         <v>276</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C104" s="6">
         <v>3</v>
@@ -5707,7 +5716,7 @@
         <v>62</v>
       </c>
       <c r="E104" s="40" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>283</v>
@@ -5727,7 +5736,7 @@
         <v>277</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C105" s="6">
         <v>5</v>
@@ -5736,7 +5745,7 @@
         <v>62</v>
       </c>
       <c r="E105" s="40" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>283</v>
@@ -5756,7 +5765,7 @@
         <v>278</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C106" s="6">
         <v>3</v>
@@ -5765,7 +5774,7 @@
         <v>62</v>
       </c>
       <c r="E106" s="40" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>283</v>
@@ -5785,7 +5794,7 @@
         <v>279</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C107" s="6">
         <v>2</v>
@@ -5794,7 +5803,7 @@
         <v>62</v>
       </c>
       <c r="E107" s="40" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>283</v>
@@ -5814,7 +5823,7 @@
         <v>280</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C108" s="6">
         <v>1</v>
@@ -5823,7 +5832,7 @@
         <v>62</v>
       </c>
       <c r="E108" s="40" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>283</v>
@@ -5843,7 +5852,7 @@
         <v>281</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C109" s="6">
         <v>3</v>
@@ -5852,7 +5861,7 @@
         <v>62</v>
       </c>
       <c r="E109" s="40" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>283</v>
@@ -5872,7 +5881,7 @@
         <v>282</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C110" s="6">
         <v>4</v>
@@ -5881,7 +5890,7 @@
         <v>62</v>
       </c>
       <c r="E110" s="40" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>283</v>
@@ -5898,10 +5907,10 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C111" s="6">
         <v>4</v>
@@ -5910,10 +5919,10 @@
         <v>125</v>
       </c>
       <c r="E111" s="40" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>40</v>
@@ -5930,7 +5939,7 @@
         <v>205</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C112" s="6">
         <v>3</v>
@@ -5939,7 +5948,7 @@
         <v>62</v>
       </c>
       <c r="E112" s="40" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>204</v>
@@ -5959,7 +5968,7 @@
         <v>206</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C113" s="6">
         <v>4</v>
@@ -5968,7 +5977,7 @@
         <v>62</v>
       </c>
       <c r="E113" s="40" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>204</v>
@@ -5988,7 +5997,7 @@
         <v>207</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C114" s="6">
         <v>4</v>
@@ -5997,7 +6006,7 @@
         <v>91</v>
       </c>
       <c r="E114" s="40" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>204</v>
@@ -6017,7 +6026,7 @@
         <v>121</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C115" s="6">
         <v>0</v>
@@ -6026,7 +6035,7 @@
         <v>62</v>
       </c>
       <c r="E115" s="40" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>120</v>
@@ -6046,7 +6055,7 @@
         <v>122</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C116" s="6">
         <v>1</v>
@@ -6055,7 +6064,7 @@
         <v>62</v>
       </c>
       <c r="E116" s="40" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>120</v>
@@ -6075,7 +6084,7 @@
         <v>123</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C117" s="6">
         <v>0.25</v>
@@ -6084,7 +6093,7 @@
         <v>106</v>
       </c>
       <c r="E117" s="40" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>120</v>
@@ -6104,7 +6113,7 @@
         <v>124</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C118" s="6">
         <v>1</v>
@@ -6113,7 +6122,7 @@
         <v>125</v>
       </c>
       <c r="E118" s="40" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>120</v>
@@ -6133,7 +6142,7 @@
         <v>126</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C119" s="6">
         <v>5</v>
@@ -6142,7 +6151,7 @@
         <v>125</v>
       </c>
       <c r="E119" s="40" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>120</v>
@@ -6162,7 +6171,7 @@
         <v>127</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C120" s="6">
         <v>8</v>
@@ -6171,7 +6180,7 @@
         <v>125</v>
       </c>
       <c r="E120" s="40" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>120</v>
@@ -6191,7 +6200,7 @@
         <v>136</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C121" s="6">
         <v>0.125</v>
@@ -6200,7 +6209,7 @@
         <v>125</v>
       </c>
       <c r="E121" s="40" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>120</v>
@@ -6220,7 +6229,7 @@
         <v>137</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C122" s="6">
         <v>4</v>
@@ -6229,7 +6238,7 @@
         <v>125</v>
       </c>
       <c r="E122" s="40" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>120</v>
@@ -6249,7 +6258,7 @@
         <v>138</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C123" s="6">
         <v>3</v>
@@ -6258,7 +6267,7 @@
         <v>139</v>
       </c>
       <c r="E123" s="40" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>120</v>
@@ -6278,7 +6287,7 @@
         <v>140</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C124" s="6">
         <v>8</v>
@@ -6287,7 +6296,7 @@
         <v>125</v>
       </c>
       <c r="E124" s="40" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>120</v>
@@ -6307,7 +6316,7 @@
         <v>111</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C125" s="6">
         <v>0</v>
@@ -6316,7 +6325,7 @@
         <v>62</v>
       </c>
       <c r="E125" s="40" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>110</v>
@@ -6336,7 +6345,7 @@
         <v>112</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C126" s="6">
         <v>1</v>
@@ -6345,7 +6354,7 @@
         <v>64</v>
       </c>
       <c r="E126" s="40" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>110</v>
@@ -6365,7 +6374,7 @@
         <v>113</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C127" s="6">
         <v>5</v>
@@ -6374,7 +6383,7 @@
         <v>64</v>
       </c>
       <c r="E127" s="40" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>110</v>
@@ -6394,7 +6403,7 @@
         <v>115</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C128" s="6">
         <v>5</v>
@@ -6403,7 +6412,7 @@
         <v>64</v>
       </c>
       <c r="E128" s="40" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>114</v>
@@ -6423,7 +6432,7 @@
         <v>116</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C129" s="6">
         <v>2</v>
@@ -6432,7 +6441,7 @@
         <v>64</v>
       </c>
       <c r="E129" s="40" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>114</v>
@@ -6452,7 +6461,7 @@
         <v>117</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C130" s="6">
         <v>8</v>
@@ -6461,7 +6470,7 @@
         <v>64</v>
       </c>
       <c r="E130" s="40" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>114</v>
@@ -6481,7 +6490,7 @@
         <v>119</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C131" s="6">
         <v>11</v>
@@ -6490,7 +6499,7 @@
         <v>64</v>
       </c>
       <c r="E131" s="40" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>118</v>
@@ -6510,7 +6519,7 @@
         <v>22</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C132" s="6">
         <v>4</v>
@@ -6519,7 +6528,7 @@
         <v>91</v>
       </c>
       <c r="E132" s="40" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>22</v>
@@ -6539,7 +6548,7 @@
         <v>128</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C133" s="6">
         <v>8</v>
@@ -6548,7 +6557,7 @@
         <v>63</v>
       </c>
       <c r="E133" s="40" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>128</v>
@@ -6565,22 +6574,22 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C134" s="6">
         <v>13</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E134" s="40" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>467</v>
+        <v>255</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>40</v>
@@ -6594,10 +6603,10 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C135" s="6">
         <v>12</v>
@@ -6606,10 +6615,10 @@
         <v>125</v>
       </c>
       <c r="E135" s="40" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>40</v>
@@ -6623,22 +6632,22 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C136" s="6">
         <v>15</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E136" s="40" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>40</v>
@@ -6652,22 +6661,22 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C137" s="6">
         <v>17</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E137" s="40" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>40</v>
@@ -6681,10 +6690,10 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C138" s="6">
         <v>16</v>
@@ -6693,10 +6702,10 @@
         <v>69</v>
       </c>
       <c r="E138" s="40" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>40</v>
@@ -6710,10 +6719,10 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C139" s="6">
         <v>18</v>
@@ -6722,10 +6731,10 @@
         <v>69</v>
       </c>
       <c r="E139" s="40" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>40</v>
@@ -6739,10 +6748,10 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C140" s="6">
         <v>17</v>
@@ -6751,10 +6760,10 @@
         <v>69</v>
       </c>
       <c r="E140" s="40" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>40</v>
@@ -6768,10 +6777,10 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C141" s="6">
         <v>19</v>
@@ -6780,10 +6789,10 @@
         <v>69</v>
       </c>
       <c r="E141" s="40" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>40</v>
@@ -6795,8 +6804,182 @@
         <v>40</v>
       </c>
     </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C142" s="6">
+        <v>5</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E142" s="40" t="s">
+        <v>459</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C143" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E143" s="40" t="s">
+        <v>459</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C144" s="6">
+        <v>4</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E144" s="40" t="s">
+        <v>459</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C145" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E145" s="40" t="s">
+        <v>459</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C146" s="6">
+        <v>1</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E146" s="40" t="s">
+        <v>459</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C147" s="6">
+        <v>7</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E147" s="40" t="s">
+        <v>459</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:J147" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J133">
       <sortCondition ref="F1"/>
     </sortState>
@@ -6842,7 +7025,7 @@
       <formula>NOT(ISERROR(SEARCH("Complete",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G141">
+  <conditionalFormatting sqref="G2:G147">
     <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",G2)))</formula>
     </cfRule>
@@ -6911,66 +7094,72 @@
     <hyperlink ref="F83" r:id="rId26" xr:uid="{7256DA5D-0B8D-49EF-985E-0B0569E2E1EB}"/>
     <hyperlink ref="F76" r:id="rId27" xr:uid="{549DB810-2E99-44F3-A802-C1DB01662A67}"/>
     <hyperlink ref="F104" r:id="rId28" xr:uid="{274DD5E8-044F-493C-A18A-2F9A8B7357E5}"/>
-    <hyperlink ref="F72" r:id="rId29" xr:uid="{7010B8A8-DECA-4276-A943-BB646368232A}"/>
-    <hyperlink ref="F52" r:id="rId30" xr:uid="{B13A52D4-94A4-4BFA-8A84-7FD639267FFB}"/>
-    <hyperlink ref="F89" r:id="rId31" xr:uid="{700D5C34-6C41-4C82-A1DF-A36987B02587}"/>
-    <hyperlink ref="F71" r:id="rId32" xr:uid="{32DD538B-701B-49F0-B818-A5BDD0A8FD42}"/>
-    <hyperlink ref="F96" r:id="rId33" xr:uid="{84A84609-F8AB-4500-9367-5EF521C3D039}"/>
-    <hyperlink ref="F45" r:id="rId34" xr:uid="{78560ED4-F971-48FA-8E7D-0927D2102880}"/>
-    <hyperlink ref="F51" r:id="rId35" xr:uid="{72F178FC-2D46-4527-B45A-1D02A2DDCCA6}"/>
-    <hyperlink ref="F73" r:id="rId36" xr:uid="{75494AB1-681F-43E3-B13D-690DD2054A7E}"/>
-    <hyperlink ref="F111" r:id="rId37" xr:uid="{A1DB5563-BDAB-475B-A1BA-742E992BE98C}"/>
-    <hyperlink ref="F74" r:id="rId38" xr:uid="{11F5DB7C-3F00-444E-AD24-9ED27C85052F}"/>
-    <hyperlink ref="F82" r:id="rId39" xr:uid="{4126C33B-2342-4483-BFEE-207D26CA0652}"/>
-    <hyperlink ref="F36" r:id="rId40" xr:uid="{CBE4BFC2-50F0-456F-918F-1ECD9DBD82E2}"/>
-    <hyperlink ref="F3:F6" r:id="rId41" display="Beavers" xr:uid="{36154117-6BFA-4765-AAC8-F1416FE9D183}"/>
-    <hyperlink ref="F8" r:id="rId42" xr:uid="{F5569ABA-F66B-43F6-8699-2D8A2D7B588E}"/>
-    <hyperlink ref="F10" r:id="rId43" xr:uid="{38BD0EFD-3B97-4FFB-8195-0425FB6DF22B}"/>
-    <hyperlink ref="F12" r:id="rId44" xr:uid="{F1295FBE-1897-4B57-8E7D-6AB37CEA0075}"/>
-    <hyperlink ref="F14:F20" r:id="rId45" display="Crocodilians" xr:uid="{E7E3C18C-987F-4FCD-9BEF-03E6185F1DBB}"/>
-    <hyperlink ref="F22:F25" r:id="rId46" display="Demons of Change" xr:uid="{5D37A975-4CA9-42D9-902D-EFEFCDE50636}"/>
-    <hyperlink ref="F27:F28" r:id="rId47" display="Demons of Decay" xr:uid="{0E1F7270-C933-44F5-9286-D2FEABAC4BFB}"/>
-    <hyperlink ref="F30:F31" r:id="rId48" display="Demons of Excess" xr:uid="{50B9951F-C749-4EA5-840F-FF3C1C2537E2}"/>
-    <hyperlink ref="F33:F34" r:id="rId49" display="Demons of Rage" xr:uid="{64F69B6A-8835-4BE9-971B-52540B0C4B58}"/>
-    <hyperlink ref="F38:F41" r:id="rId50" display="Geese" xr:uid="{C6FAD9DC-F9DE-4613-8F07-5DA459A6B29A}"/>
-    <hyperlink ref="F43:F44" r:id="rId51" display="Hippos" xr:uid="{57CAEAD6-C500-4CCD-9449-FBAF7AF5D220}"/>
-    <hyperlink ref="F134" r:id="rId52" xr:uid="{CC0283CA-AF8C-4DEA-A3DA-7048B7B4DE1E}"/>
-    <hyperlink ref="F135" r:id="rId53" xr:uid="{FDD9596E-C1E9-447C-B186-D45E64BD8897}"/>
-    <hyperlink ref="F47" r:id="rId54" xr:uid="{EE4F84C8-C4A0-4E69-BDA6-3329C744AA93}"/>
-    <hyperlink ref="F49:F50" r:id="rId55" display="Mishipeshu" xr:uid="{B0C919D6-3373-4EF9-ABAD-FB01B13440AB}"/>
-    <hyperlink ref="F54" r:id="rId56" xr:uid="{2CF48A46-D4E5-493A-8BA9-5CA018517A4A}"/>
-    <hyperlink ref="F56:F58" r:id="rId57" display="Otherworldly Patron - The Cauldron NPCs " xr:uid="{DA188EE3-B896-4DB7-8933-AECE5EE42DFA}"/>
-    <hyperlink ref="F59" r:id="rId58" xr:uid="{1D0FA85E-B898-4474-A46F-16D0013CE39B}"/>
-    <hyperlink ref="F60:F63" r:id="rId59" display="Otters" xr:uid="{7E107E97-3B70-423F-8375-05DF8977A3E6}"/>
-    <hyperlink ref="F65:F70" r:id="rId60" display="Owls" xr:uid="{4E883043-1411-4249-AB12-FF5A2D124BBB}"/>
-    <hyperlink ref="F75" r:id="rId61" xr:uid="{DA536D1A-0FFA-4A8B-ACA1-DEE439AD74D9}"/>
-    <hyperlink ref="F77:F81" r:id="rId62" display="Rat Monstrosities" xr:uid="{D46FFB8C-2DAE-4D9C-9E81-29808F0C1ACA}"/>
-    <hyperlink ref="F84:F88" r:id="rId63" display="Rats" xr:uid="{5FCA2C7B-D1C5-4C52-A778-2461B028EFAB}"/>
-    <hyperlink ref="F90" r:id="rId64" xr:uid="{0FEDDC4E-EFB1-4D3C-857A-046F341EA4B9}"/>
-    <hyperlink ref="F91" r:id="rId65" xr:uid="{FBC08E58-4F87-42CC-8A75-9C3FDF055070}"/>
-    <hyperlink ref="F92" r:id="rId66" xr:uid="{6F59902B-F74D-40B9-9336-3248897C1833}"/>
-    <hyperlink ref="F93" r:id="rId67" xr:uid="{BC45D541-AD1F-4405-8C56-F268BD60893F}"/>
-    <hyperlink ref="F94" r:id="rId68" xr:uid="{6F9189E8-D8EE-4649-9218-7BE7E74D36B9}"/>
-    <hyperlink ref="F95" r:id="rId69" xr:uid="{C9C9BE17-6967-4E21-946E-676910327B46}"/>
-    <hyperlink ref="F97" r:id="rId70" xr:uid="{5D5157F1-559B-4634-BF8E-647E780FC38B}"/>
-    <hyperlink ref="F98" r:id="rId71" xr:uid="{98D73104-5354-4CE1-8A4F-444BC0A863C5}"/>
-    <hyperlink ref="F99" r:id="rId72" xr:uid="{1A6FDD36-70E8-4A0F-87AA-7F0DDF8CA116}"/>
-    <hyperlink ref="F100" r:id="rId73" xr:uid="{84D28B3A-E8E4-4A1D-9F75-8FD83738C18B}"/>
-    <hyperlink ref="F101" r:id="rId74" xr:uid="{E6AF5147-8DBB-475B-BB13-AE4EB76B4142}"/>
-    <hyperlink ref="F102" r:id="rId75" xr:uid="{DB5E3310-B13E-4BB2-93BB-1AA0ED7F6DB5}"/>
-    <hyperlink ref="F103" r:id="rId76" xr:uid="{7C72F4C1-3370-426B-9276-2003A211B3F6}"/>
-    <hyperlink ref="F105:F110" r:id="rId77" display="Sharks" xr:uid="{26AC78B2-6E8D-4DC3-9892-27A60D0332F9}"/>
-    <hyperlink ref="F113:F114" r:id="rId78" display="Tigers" xr:uid="{1309CEBD-E415-4D59-9293-82F6B1838C4C}"/>
-    <hyperlink ref="F116:F124" r:id="rId79" display="Toads" xr:uid="{3997B53E-845B-4700-ACB9-261BE83F5220}"/>
-    <hyperlink ref="F126:F127" r:id="rId80" display="Turkeys" xr:uid="{17E8718E-27BC-4230-AFE6-99E1DB6ADBBB}"/>
-    <hyperlink ref="F129:F130" r:id="rId81" display="Water Horses" xr:uid="{21D217B7-2E1C-4AD5-A5B7-C33A2F4F7B65}"/>
-    <hyperlink ref="F137" r:id="rId82" xr:uid="{5880726E-4FB2-49A2-8A96-7AD03469486D}"/>
-    <hyperlink ref="F136" r:id="rId83" xr:uid="{5EF8AC74-8F88-4352-9C10-F0B31E557223}"/>
-    <hyperlink ref="F138" r:id="rId84" xr:uid="{73577FD1-F30B-48E9-AF79-D1BA01F478D5}"/>
-    <hyperlink ref="F139:F141" r:id="rId85" display="Vermin Lords" xr:uid="{D6516090-D0B6-4EAF-97A2-C190EC7D976F}"/>
+    <hyperlink ref="F89" r:id="rId29" xr:uid="{700D5C34-6C41-4C82-A1DF-A36987B02587}"/>
+    <hyperlink ref="F96" r:id="rId30" xr:uid="{84A84609-F8AB-4500-9367-5EF521C3D039}"/>
+    <hyperlink ref="F45" r:id="rId31" xr:uid="{78560ED4-F971-48FA-8E7D-0927D2102880}"/>
+    <hyperlink ref="F51" r:id="rId32" xr:uid="{72F178FC-2D46-4527-B45A-1D02A2DDCCA6}"/>
+    <hyperlink ref="F111" r:id="rId33" xr:uid="{A1DB5563-BDAB-475B-A1BA-742E992BE98C}"/>
+    <hyperlink ref="F74" r:id="rId34" xr:uid="{11F5DB7C-3F00-444E-AD24-9ED27C85052F}"/>
+    <hyperlink ref="F36" r:id="rId35" xr:uid="{CBE4BFC2-50F0-456F-918F-1ECD9DBD82E2}"/>
+    <hyperlink ref="F3:F6" r:id="rId36" display="Beavers" xr:uid="{36154117-6BFA-4765-AAC8-F1416FE9D183}"/>
+    <hyperlink ref="F8" r:id="rId37" xr:uid="{F5569ABA-F66B-43F6-8699-2D8A2D7B588E}"/>
+    <hyperlink ref="F10" r:id="rId38" xr:uid="{38BD0EFD-3B97-4FFB-8195-0425FB6DF22B}"/>
+    <hyperlink ref="F12" r:id="rId39" xr:uid="{F1295FBE-1897-4B57-8E7D-6AB37CEA0075}"/>
+    <hyperlink ref="F14:F20" r:id="rId40" display="Crocodilians" xr:uid="{E7E3C18C-987F-4FCD-9BEF-03E6185F1DBB}"/>
+    <hyperlink ref="F22:F25" r:id="rId41" display="Demons of Change" xr:uid="{5D37A975-4CA9-42D9-902D-EFEFCDE50636}"/>
+    <hyperlink ref="F27:F28" r:id="rId42" display="Demons of Decay" xr:uid="{0E1F7270-C933-44F5-9286-D2FEABAC4BFB}"/>
+    <hyperlink ref="F30:F31" r:id="rId43" display="Demons of Excess" xr:uid="{50B9951F-C749-4EA5-840F-FF3C1C2537E2}"/>
+    <hyperlink ref="F33:F34" r:id="rId44" display="Demons of Rage" xr:uid="{64F69B6A-8835-4BE9-971B-52540B0C4B58}"/>
+    <hyperlink ref="F38:F41" r:id="rId45" display="Geese" xr:uid="{C6FAD9DC-F9DE-4613-8F07-5DA459A6B29A}"/>
+    <hyperlink ref="F43:F44" r:id="rId46" display="Hippos" xr:uid="{57CAEAD6-C500-4CCD-9449-FBAF7AF5D220}"/>
+    <hyperlink ref="F135" r:id="rId47" xr:uid="{FDD9596E-C1E9-447C-B186-D45E64BD8897}"/>
+    <hyperlink ref="F47" r:id="rId48" xr:uid="{EE4F84C8-C4A0-4E69-BDA6-3329C744AA93}"/>
+    <hyperlink ref="F49:F50" r:id="rId49" display="Mishipeshu" xr:uid="{B0C919D6-3373-4EF9-ABAD-FB01B13440AB}"/>
+    <hyperlink ref="F54" r:id="rId50" xr:uid="{2CF48A46-D4E5-493A-8BA9-5CA018517A4A}"/>
+    <hyperlink ref="F56:F58" r:id="rId51" display="Otherworldly Patron - The Cauldron NPCs " xr:uid="{DA188EE3-B896-4DB7-8933-AECE5EE42DFA}"/>
+    <hyperlink ref="F59" r:id="rId52" xr:uid="{1D0FA85E-B898-4474-A46F-16D0013CE39B}"/>
+    <hyperlink ref="F60:F63" r:id="rId53" display="Otters" xr:uid="{7E107E97-3B70-423F-8375-05DF8977A3E6}"/>
+    <hyperlink ref="F65:F70" r:id="rId54" display="Owls" xr:uid="{4E883043-1411-4249-AB12-FF5A2D124BBB}"/>
+    <hyperlink ref="F75" r:id="rId55" xr:uid="{DA536D1A-0FFA-4A8B-ACA1-DEE439AD74D9}"/>
+    <hyperlink ref="F77:F81" r:id="rId56" display="Rat Monstrosities" xr:uid="{D46FFB8C-2DAE-4D9C-9E81-29808F0C1ACA}"/>
+    <hyperlink ref="F84:F88" r:id="rId57" display="Rats" xr:uid="{5FCA2C7B-D1C5-4C52-A778-2461B028EFAB}"/>
+    <hyperlink ref="F90" r:id="rId58" xr:uid="{0FEDDC4E-EFB1-4D3C-857A-046F341EA4B9}"/>
+    <hyperlink ref="F91" r:id="rId59" xr:uid="{FBC08E58-4F87-42CC-8A75-9C3FDF055070}"/>
+    <hyperlink ref="F92" r:id="rId60" xr:uid="{6F59902B-F74D-40B9-9336-3248897C1833}"/>
+    <hyperlink ref="F93" r:id="rId61" xr:uid="{BC45D541-AD1F-4405-8C56-F268BD60893F}"/>
+    <hyperlink ref="F94" r:id="rId62" xr:uid="{6F9189E8-D8EE-4649-9218-7BE7E74D36B9}"/>
+    <hyperlink ref="F95" r:id="rId63" xr:uid="{C9C9BE17-6967-4E21-946E-676910327B46}"/>
+    <hyperlink ref="F97" r:id="rId64" xr:uid="{5D5157F1-559B-4634-BF8E-647E780FC38B}"/>
+    <hyperlink ref="F98" r:id="rId65" xr:uid="{98D73104-5354-4CE1-8A4F-444BC0A863C5}"/>
+    <hyperlink ref="F99" r:id="rId66" xr:uid="{1A6FDD36-70E8-4A0F-87AA-7F0DDF8CA116}"/>
+    <hyperlink ref="F100" r:id="rId67" xr:uid="{84D28B3A-E8E4-4A1D-9F75-8FD83738C18B}"/>
+    <hyperlink ref="F101" r:id="rId68" xr:uid="{E6AF5147-8DBB-475B-BB13-AE4EB76B4142}"/>
+    <hyperlink ref="F102" r:id="rId69" xr:uid="{DB5E3310-B13E-4BB2-93BB-1AA0ED7F6DB5}"/>
+    <hyperlink ref="F103" r:id="rId70" xr:uid="{7C72F4C1-3370-426B-9276-2003A211B3F6}"/>
+    <hyperlink ref="F105:F110" r:id="rId71" display="Sharks" xr:uid="{26AC78B2-6E8D-4DC3-9892-27A60D0332F9}"/>
+    <hyperlink ref="F113:F114" r:id="rId72" display="Tigers" xr:uid="{1309CEBD-E415-4D59-9293-82F6B1838C4C}"/>
+    <hyperlink ref="F116:F124" r:id="rId73" display="Toads" xr:uid="{3997B53E-845B-4700-ACB9-261BE83F5220}"/>
+    <hyperlink ref="F126:F127" r:id="rId74" display="Turkeys" xr:uid="{17E8718E-27BC-4230-AFE6-99E1DB6ADBBB}"/>
+    <hyperlink ref="F129:F130" r:id="rId75" display="Water Horses" xr:uid="{21D217B7-2E1C-4AD5-A5B7-C33A2F4F7B65}"/>
+    <hyperlink ref="F137" r:id="rId76" xr:uid="{5880726E-4FB2-49A2-8A96-7AD03469486D}"/>
+    <hyperlink ref="F136" r:id="rId77" xr:uid="{5EF8AC74-8F88-4352-9C10-F0B31E557223}"/>
+    <hyperlink ref="F138" r:id="rId78" xr:uid="{73577FD1-F30B-48E9-AF79-D1BA01F478D5}"/>
+    <hyperlink ref="F139:F141" r:id="rId79" display="Vermin Lords" xr:uid="{D6516090-D0B6-4EAF-97A2-C190EC7D976F}"/>
+    <hyperlink ref="F147" r:id="rId80" xr:uid="{52490491-6967-437B-B535-EC06AD9D5D27}"/>
+    <hyperlink ref="F146" r:id="rId81" xr:uid="{DC42E555-D1D8-4A63-81FC-F6427C082293}"/>
+    <hyperlink ref="F145" r:id="rId82" xr:uid="{4EE163E5-5700-4BB6-95CD-4A3B211D8630}"/>
+    <hyperlink ref="F144" r:id="rId83" xr:uid="{0DDE246E-5FB5-4B65-A398-8B43CF199EB0}"/>
+    <hyperlink ref="F143" r:id="rId84" xr:uid="{BC8ABFFB-CCB4-4D10-9B21-B65D047C231B}"/>
+    <hyperlink ref="F142" r:id="rId85" xr:uid="{E6CAC5CF-FA21-4E0A-BEE2-3BC90DD7F497}"/>
+    <hyperlink ref="F134" r:id="rId86" xr:uid="{76064950-02AD-4439-A66F-E54C2A868EDF}"/>
+    <hyperlink ref="F82" r:id="rId87" xr:uid="{23F5CFDA-E2A8-49B9-9951-84E5EA0FF9A0}"/>
+    <hyperlink ref="F73" r:id="rId88" xr:uid="{6142A8CA-5C1D-4167-A240-18E4B6DC6B8C}"/>
+    <hyperlink ref="F72" r:id="rId89" xr:uid="{9A5BB4F2-FA47-407E-AA39-3708BB2F3B7A}"/>
+    <hyperlink ref="F71" r:id="rId90" xr:uid="{CCE3C512-DCED-4522-AE46-DD74E106EB02}"/>
+    <hyperlink ref="F52" r:id="rId91" xr:uid="{5CE19490-B946-4897-A0EC-4BC7B57C44DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId86"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId92"/>
 </worksheet>
 </file>
 
@@ -6999,13 +7188,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>1</v>
@@ -7016,13 +7205,13 @@
         <v>135</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>135</v>
@@ -7033,13 +7222,13 @@
         <v>132</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>132</v>
@@ -7083,7 +7272,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>1</v>
@@ -7095,7 +7284,7 @@
         <v>158</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>159</v>
@@ -7106,7 +7295,7 @@
         <v>255</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>256</v>
@@ -7114,13 +7303,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -7164,87 +7353,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>440</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>357</v>
-      </c>
-      <c r="D1" s="41" t="s">
+      <c r="B1" s="47" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>379</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>380</v>
+      </c>
+      <c r="G1" s="49" t="s">
         <v>381</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="H1" s="49" t="s">
         <v>382</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="I1" s="49" t="s">
         <v>383</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="J1" s="41" t="s">
         <v>384</v>
       </c>
-      <c r="H1" s="43" t="s">
-        <v>385</v>
-      </c>
-      <c r="I1" s="43" t="s">
-        <v>386</v>
-      </c>
-      <c r="J1" s="47" t="s">
-        <v>387</v>
-      </c>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="49" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="K2" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="L2" s="45" t="s">
+        <v>390</v>
+      </c>
+      <c r="M2" s="45" t="s">
         <v>391</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="N2" s="45" t="s">
         <v>392</v>
       </c>
-      <c r="L2" s="51" t="s">
-        <v>393</v>
-      </c>
-      <c r="M2" s="51" t="s">
-        <v>394</v>
-      </c>
-      <c r="N2" s="51" t="s">
-        <v>395</v>
-      </c>
-      <c r="O2" s="51" t="s">
-        <v>436</v>
+      <c r="O2" s="45" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
     </row>
     <row r="4" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
@@ -7254,25 +7443,25 @@
         <v>72</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D4" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="I4" s="32" t="s">
         <v>397</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>398</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>396</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>399</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>400</v>
       </c>
       <c r="J4" s="36">
         <v>2</v>
@@ -7302,25 +7491,25 @@
         <v>75</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="I5" s="26" t="s">
         <v>402</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>403</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>389</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>405</v>
       </c>
       <c r="J5" s="34">
         <v>3</v>
@@ -7350,25 +7539,25 @@
         <v>79</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="J6" s="34">
         <v>5</v>
@@ -7392,31 +7581,31 @@
     </row>
     <row r="7" spans="1:15" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E7" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="G7" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>389</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>406</v>
-      </c>
       <c r="H7" s="23" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J7" s="35">
         <v>3</v>
@@ -7446,25 +7635,25 @@
         <v>74</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E8" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="G8" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>389</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>406</v>
-      </c>
       <c r="H8" s="23" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J8" s="35">
         <v>3</v>
@@ -7494,25 +7683,25 @@
         <v>77</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G9" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="H9" s="23" t="s">
-        <v>420</v>
-      </c>
       <c r="I9" s="24" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="J9" s="35">
         <v>3</v>
@@ -7542,25 +7731,25 @@
         <v>83</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="J10" s="35">
         <v>5</v>
@@ -7590,25 +7779,25 @@
         <v>81</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="J11" s="35">
         <v>4</v>
@@ -7635,28 +7824,28 @@
         <v>41</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J12" s="35">
         <v>2</v>
@@ -7683,28 +7872,28 @@
         <v>88</v>
       </c>
       <c r="B13" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="I13" s="24" t="s">
         <v>430</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>403</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>417</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>433</v>
       </c>
       <c r="J13" s="35">
         <v>4</v>
@@ -7734,25 +7923,25 @@
         <v>254</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J14" s="35">
         <v>3</v>
@@ -7781,13 +7970,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="16">
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
@@ -7797,6 +7979,13 @@
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{B4A7D905-D120-4788-AC98-B53455EB3FC4}"/>
@@ -7844,10 +8033,10 @@
         <v>142</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>143</v>
@@ -7855,16 +8044,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>141</v>
@@ -7872,16 +8061,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>141</v>
@@ -7889,16 +8078,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>141</v>
@@ -7906,16 +8095,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>141</v>
@@ -7923,16 +8112,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>141</v>
@@ -7940,16 +8129,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>141</v>
@@ -7957,16 +8146,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>141</v>
@@ -7974,16 +8163,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>141</v>
@@ -7991,16 +8180,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>141</v>
@@ -8008,16 +8197,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>141</v>
@@ -8025,16 +8214,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>141</v>
@@ -8042,16 +8231,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>141</v>
@@ -8059,16 +8248,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>141</v>
@@ -8076,16 +8265,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>141</v>
@@ -8093,16 +8282,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>141</v>
@@ -8110,16 +8299,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>141</v>
@@ -8127,16 +8316,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>141</v>
@@ -8144,16 +8333,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>141</v>
@@ -8161,16 +8350,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>141</v>
@@ -8178,16 +8367,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>141</v>
@@ -8310,10 +8499,10 @@
         <v>213</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>1</v>
@@ -8333,7 +8522,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>160</v>
@@ -8353,7 +8542,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>160</v>
@@ -8373,7 +8562,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>160</v>
@@ -8393,7 +8582,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>160</v>
@@ -8413,7 +8602,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>160</v>
@@ -8433,10 +8622,10 @@
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8453,15 +8642,15 @@
         <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>269</v>
@@ -8473,15 +8662,15 @@
         <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>269</v>
@@ -8493,15 +8682,15 @@
         <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>269</v>
@@ -8513,27 +8702,27 @@
         <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>159</v>
@@ -8541,107 +8730,107 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="1048567" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1048567" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -8736,7 +8925,7 @@
         <v>148</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>1</v>
@@ -8784,10 +8973,10 @@
         <v>21</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -8831,10 +9020,10 @@
         <v>21</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -8878,10 +9067,10 @@
         <v>14</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -8925,10 +9114,10 @@
         <v>21</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -8972,10 +9161,10 @@
         <v>21</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -9019,10 +9208,10 @@
         <v>21</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -9066,10 +9255,10 @@
         <v>21</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -9113,10 +9302,10 @@
         <v>14</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -9160,10 +9349,10 @@
         <v>14</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -9207,10 +9396,10 @@
         <v>14</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -9254,10 +9443,10 @@
         <v>14</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -9301,10 +9490,10 @@
         <v>14</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -9348,10 +9537,10 @@
         <v>21</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -9395,10 +9584,10 @@
         <v>21</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -9442,10 +9631,10 @@
         <v>14</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -9489,10 +9678,10 @@
         <v>21</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -9536,10 +9725,10 @@
         <v>14</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -9583,10 +9772,10 @@
         <v>21</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -9630,10 +9819,10 @@
         <v>21</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -9677,10 +9866,10 @@
         <v>21</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -9724,10 +9913,10 @@
         <v>21</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -9771,10 +9960,10 @@
         <v>21</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -9818,10 +10007,10 @@
         <v>21</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -9865,10 +10054,10 @@
         <v>21</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -9912,10 +10101,10 @@
         <v>14</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O26" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -9959,10 +10148,10 @@
         <v>21</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -10006,10 +10195,10 @@
         <v>14</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -10071,7 +10260,7 @@
         <v>153</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>1</v>
@@ -10085,10 +10274,10 @@
         <v>269</v>
       </c>
       <c r="C2" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10099,10 +10288,10 @@
         <v>269</v>
       </c>
       <c r="C3" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -10113,52 +10302,52 @@
         <v>269</v>
       </c>
       <c r="C4" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C5" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>269</v>
       </c>
       <c r="C6" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>269</v>
       </c>
       <c r="C7" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -10203,7 +10392,7 @@
         <v>153</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>151</v>
@@ -10218,10 +10407,10 @@
         <v>174</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>354</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>357</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>1</v>
@@ -10250,13 +10439,13 @@
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -10279,13 +10468,13 @@
         <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -10311,13 +10500,13 @@
         <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -10343,13 +10532,13 @@
         <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -10375,13 +10564,13 @@
         <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -10407,18 +10596,18 @@
         <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>155</v>
@@ -10436,10 +10625,10 @@
         <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>114</v>
@@ -10468,13 +10657,13 @@
         <v>21</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -10497,13 +10686,13 @@
         <v>14</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -10526,13 +10715,13 @@
         <v>14</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -10558,13 +10747,13 @@
         <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -10590,13 +10779,13 @@
         <v>14</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -10622,18 +10811,18 @@
         <v>14</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>155</v>
@@ -10651,13 +10840,13 @@
         <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -10683,13 +10872,13 @@
         <v>14</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -10712,13 +10901,13 @@
         <v>14</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -10741,13 +10930,13 @@
         <v>14</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -10770,13 +10959,13 @@
         <v>14</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -10799,13 +10988,13 @@
         <v>14</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -10828,13 +11017,13 @@
         <v>14</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -10857,13 +11046,13 @@
         <v>14</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -10889,13 +11078,13 @@
         <v>14</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -10918,13 +11107,13 @@
         <v>14</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -10947,13 +11136,13 @@
         <v>14</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -10979,13 +11168,13 @@
         <v>14</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -11008,13 +11197,13 @@
         <v>14</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -11040,13 +11229,13 @@
         <v>14</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -11072,13 +11261,13 @@
         <v>14</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -11104,13 +11293,13 @@
         <v>14</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -11136,13 +11325,13 @@
         <v>14</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -11168,13 +11357,13 @@
         <v>14</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -11200,13 +11389,13 @@
         <v>14</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -11232,18 +11421,18 @@
         <v>14</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>155</v>
@@ -11264,13 +11453,13 @@
         <v>14</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -11293,27 +11482,27 @@
         <v>14</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>14</v>
@@ -11322,18 +11511,18 @@
         <v>14</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>21</v>
@@ -11348,18 +11537,18 @@
         <v>14</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>21</v>
@@ -11374,18 +11563,18 @@
         <v>14</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>21</v>
@@ -11400,18 +11589,18 @@
         <v>14</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>21</v>
@@ -11426,24 +11615,24 @@
         <v>14</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>14</v>
@@ -11452,18 +11641,18 @@
         <v>14</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>21</v>
@@ -11478,18 +11667,18 @@
         <v>14</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>21</v>
@@ -11504,18 +11693,18 @@
         <v>14</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>21</v>
@@ -11530,18 +11719,18 @@
         <v>14</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>21</v>
@@ -11556,18 +11745,18 @@
         <v>14</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>21</v>
@@ -11582,18 +11771,18 @@
         <v>14</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>21</v>
@@ -11611,24 +11800,24 @@
         <v>14</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>14</v>
@@ -11637,18 +11826,18 @@
         <v>14</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>21</v>
@@ -11663,18 +11852,18 @@
         <v>14</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>21</v>
@@ -11689,18 +11878,18 @@
         <v>14</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>21</v>
@@ -11715,18 +11904,18 @@
         <v>14</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>21</v>
@@ -11741,18 +11930,18 @@
         <v>14</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>21</v>
@@ -11770,18 +11959,18 @@
         <v>14</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>14</v>
@@ -11796,18 +11985,18 @@
         <v>14</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>14</v>
@@ -11822,18 +12011,18 @@
         <v>14</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>14</v>
@@ -11848,18 +12037,18 @@
         <v>14</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>14</v>
@@ -11874,18 +12063,18 @@
         <v>14</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>14</v>
@@ -11900,18 +12089,18 @@
         <v>14</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>14</v>
@@ -11926,18 +12115,18 @@
         <v>14</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>14</v>
@@ -11952,18 +12141,18 @@
         <v>14</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>14</v>
@@ -11978,18 +12167,18 @@
         <v>14</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>14</v>
@@ -12004,18 +12193,18 @@
         <v>14</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>14</v>
@@ -12030,10 +12219,10 @@
         <v>14</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="65" spans="10:10" x14ac:dyDescent="0.25">
@@ -12087,7 +12276,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
@@ -12098,7 +12287,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>29</v>
@@ -12109,7 +12298,7 @@
         <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>43</v>

--- a/PublicContentList.xlsx
+++ b/PublicContentList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B75722-DC34-47EE-A89F-C324B0801A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A96F3FC-66BD-4CFC-A832-114D420B288E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2119,6 +2119,24 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2135,24 +2153,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2696,7 +2696,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7145,18 +7145,18 @@
     <hyperlink ref="F136" r:id="rId77" xr:uid="{5EF8AC74-8F88-4352-9C10-F0B31E557223}"/>
     <hyperlink ref="F138" r:id="rId78" xr:uid="{73577FD1-F30B-48E9-AF79-D1BA01F478D5}"/>
     <hyperlink ref="F139:F141" r:id="rId79" display="Vermin Lords" xr:uid="{D6516090-D0B6-4EAF-97A2-C190EC7D976F}"/>
-    <hyperlink ref="F147" r:id="rId80" xr:uid="{52490491-6967-437B-B535-EC06AD9D5D27}"/>
-    <hyperlink ref="F146" r:id="rId81" xr:uid="{DC42E555-D1D8-4A63-81FC-F6427C082293}"/>
-    <hyperlink ref="F145" r:id="rId82" xr:uid="{4EE163E5-5700-4BB6-95CD-4A3B211D8630}"/>
-    <hyperlink ref="F144" r:id="rId83" xr:uid="{0DDE246E-5FB5-4B65-A398-8B43CF199EB0}"/>
-    <hyperlink ref="F143" r:id="rId84" xr:uid="{BC8ABFFB-CCB4-4D10-9B21-B65D047C231B}"/>
-    <hyperlink ref="F142" r:id="rId85" xr:uid="{E6CAC5CF-FA21-4E0A-BEE2-3BC90DD7F497}"/>
-    <hyperlink ref="F134" r:id="rId86" xr:uid="{76064950-02AD-4439-A66F-E54C2A868EDF}"/>
-    <hyperlink ref="F82" r:id="rId87" xr:uid="{23F5CFDA-E2A8-49B9-9951-84E5EA0FF9A0}"/>
-    <hyperlink ref="F73" r:id="rId88" xr:uid="{6142A8CA-5C1D-4167-A240-18E4B6DC6B8C}"/>
-    <hyperlink ref="F72" r:id="rId89" xr:uid="{9A5BB4F2-FA47-407E-AA39-3708BB2F3B7A}"/>
-    <hyperlink ref="F71" r:id="rId90" xr:uid="{CCE3C512-DCED-4522-AE46-DD74E106EB02}"/>
-    <hyperlink ref="F52" r:id="rId91" xr:uid="{5CE19490-B946-4897-A0EC-4BC7B57C44DE}"/>
+    <hyperlink ref="F52" r:id="rId80" xr:uid="{5CE19490-B946-4897-A0EC-4BC7B57C44DE}"/>
+    <hyperlink ref="F71" r:id="rId81" xr:uid="{46436697-CEC5-4D9B-925D-E29A84FEA684}"/>
+    <hyperlink ref="F72" r:id="rId82" xr:uid="{D7AF36A8-54CB-45BE-B1D7-5E14F6F49504}"/>
+    <hyperlink ref="F73" r:id="rId83" xr:uid="{47F665A9-B8C7-4BA0-9898-3925142D1DDE}"/>
+    <hyperlink ref="F82" r:id="rId84" xr:uid="{92F550B1-01AB-4344-973C-B6877B83AF44}"/>
+    <hyperlink ref="F134" r:id="rId85" xr:uid="{51164C6A-A9F7-4A28-B7D3-AF192BA2417F}"/>
+    <hyperlink ref="F142" r:id="rId86" xr:uid="{C1F7E12E-EF50-4423-99AA-0F3CA3292053}"/>
+    <hyperlink ref="F143" r:id="rId87" xr:uid="{BF6FA57C-5DA0-4A85-A9C8-0A0854FB57CB}"/>
+    <hyperlink ref="F144" r:id="rId88" xr:uid="{60621CCC-2280-4ECB-B444-6D840E38AB20}"/>
+    <hyperlink ref="F145" r:id="rId89" xr:uid="{1D6F84B7-4DBB-4040-B5A1-A632B3DB18F5}"/>
+    <hyperlink ref="F146" r:id="rId90" xr:uid="{0C338EB9-380C-4F96-AABF-205139E805EC}"/>
+    <hyperlink ref="F147" r:id="rId91" xr:uid="{DA813958-DD99-4DA3-ABCE-FAE4D9CFC2A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId92"/>
@@ -7353,87 +7353,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="41" t="s">
         <v>437</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="41" t="s">
         <v>354</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="41" t="s">
         <v>378</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="45" t="s">
         <v>379</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="43" t="s">
         <v>380</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="43" t="s">
         <v>381</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="43" t="s">
         <v>382</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="47" t="s">
         <v>384</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
     </row>
     <row r="2" spans="1:15" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="43" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="49" t="s">
         <v>388</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="51" t="s">
         <v>389</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="51" t="s">
         <v>390</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="51" t="s">
         <v>391</v>
       </c>
-      <c r="N2" s="45" t="s">
+      <c r="N2" s="51" t="s">
         <v>392</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="51" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
     </row>
     <row r="4" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
@@ -7970,6 +7970,13 @@
     </sortState>
   </autoFilter>
   <mergeCells count="16">
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
@@ -7979,13 +7986,6 @@
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{B4A7D905-D120-4788-AC98-B53455EB3FC4}"/>

--- a/PublicContentList.xlsx
+++ b/PublicContentList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A96F3FC-66BD-4CFC-A832-114D420B288E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60DB6C4-1EEC-4212-A0F0-9845490288ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534" uniqueCount="520">
   <si>
     <t>Name</t>
   </si>
@@ -431,9 +431,6 @@
     <t>Fester Gnaw</t>
   </si>
   <si>
-    <t>Fiend(Demon)</t>
-  </si>
-  <si>
     <t>Dolphins</t>
   </si>
   <si>
@@ -494,12 +491,6 @@
     <t>Apothecary</t>
   </si>
   <si>
-    <t>Humanoid(Any Race)</t>
-  </si>
-  <si>
-    <t>Humanoid(Human, Shapechanger)</t>
-  </si>
-  <si>
     <t>Cauldron Warlock</t>
   </si>
   <si>
@@ -1250,9 +1241,6 @@
     <t>Poisoned-Wind Globadier</t>
   </si>
   <si>
-    <t>Humanoid (ratfolk)</t>
-  </si>
-  <si>
     <t>Terlen</t>
   </si>
   <si>
@@ -1283,9 +1271,6 @@
     <t>Public</t>
   </si>
   <si>
-    <t>Treasure Trove: Magic Items (2021-2022)</t>
-  </si>
-  <si>
     <t>Revision</t>
   </si>
   <si>
@@ -1298,12 +1283,6 @@
     <t>1.0.3</t>
   </si>
   <si>
-    <t>The Armory</t>
-  </si>
-  <si>
-    <t>Spellbook</t>
-  </si>
-  <si>
     <t>0.0.0</t>
   </si>
   <si>
@@ -1772,9 +1751,6 @@
     <t>Ratfolk Chieftain</t>
   </si>
   <si>
-    <t>Humanoid(ratfolk)</t>
-  </si>
-  <si>
     <t>Ratfolk Clan Rat</t>
   </si>
   <si>
@@ -1785,6 +1761,27 @@
   </si>
   <si>
     <t>Ratfolk Storm Vermin</t>
+  </si>
+  <si>
+    <t>New Magic Items</t>
+  </si>
+  <si>
+    <t>Items &amp; Equipment</t>
+  </si>
+  <si>
+    <t>Spells</t>
+  </si>
+  <si>
+    <t>Fiend (Demon)</t>
+  </si>
+  <si>
+    <t>Humanoid (Any Race)</t>
+  </si>
+  <si>
+    <t>Humanoid (Human, Shapechanger)</t>
+  </si>
+  <si>
+    <t>Humanoid (Ratfolk)</t>
   </si>
 </sst>
 </file>
@@ -2119,6 +2116,24 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2135,24 +2150,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2696,7 +2693,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2720,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>60</v>
@@ -2729,19 +2726,19 @@
         <v>61</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2749,7 +2746,7 @@
         <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -2758,7 +2755,7 @@
         <v>62</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>65</v>
@@ -2778,7 +2775,7 @@
         <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C3" s="6">
         <v>0.5</v>
@@ -2787,7 +2784,7 @@
         <v>62</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>65</v>
@@ -2807,16 +2804,16 @@
         <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C4" s="6">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>69</v>
+        <v>516</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>65</v>
@@ -2833,19 +2830,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C5" s="6">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>516</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>65</v>
@@ -2862,19 +2859,19 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>69</v>
+        <v>516</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>65</v>
@@ -2891,22 +2888,22 @@
     </row>
     <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>90</v>
+        <v>517</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>40</v>
@@ -2920,22 +2917,22 @@
     </row>
     <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C8" s="6">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>90</v>
+        <v>517</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>40</v>
@@ -2949,22 +2946,22 @@
     </row>
     <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C9" s="6">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>90</v>
+        <v>517</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>40</v>
@@ -2978,22 +2975,22 @@
     </row>
     <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C10" s="6">
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>90</v>
+        <v>517</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>40</v>
@@ -3007,22 +3004,22 @@
     </row>
     <row r="11" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C11" s="6">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>90</v>
+        <v>517</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>40</v>
@@ -3036,22 +3033,22 @@
     </row>
     <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C12" s="6">
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>90</v>
+        <v>517</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>40</v>
@@ -3068,7 +3065,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C13" s="6">
         <v>0.5</v>
@@ -3077,7 +3074,7 @@
         <v>62</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>30</v>
@@ -3097,7 +3094,7 @@
         <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C14" s="6">
         <v>3</v>
@@ -3106,7 +3103,7 @@
         <v>62</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>30</v>
@@ -3126,7 +3123,7 @@
         <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C15" s="6">
         <v>0.25</v>
@@ -3135,7 +3132,7 @@
         <v>62</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>30</v>
@@ -3155,7 +3152,7 @@
         <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C16" s="6">
         <v>1</v>
@@ -3164,7 +3161,7 @@
         <v>62</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>30</v>
@@ -3184,7 +3181,7 @@
         <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C17" s="6">
         <v>2</v>
@@ -3193,7 +3190,7 @@
         <v>62</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>30</v>
@@ -3213,7 +3210,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C18" s="6">
         <v>5</v>
@@ -3222,7 +3219,7 @@
         <v>62</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>30</v>
@@ -3242,7 +3239,7 @@
         <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C19" s="6">
         <v>8</v>
@@ -3251,7 +3248,7 @@
         <v>62</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>30</v>
@@ -3271,7 +3268,7 @@
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C20" s="6">
         <v>0.5</v>
@@ -3280,7 +3277,7 @@
         <v>62</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>30</v>
@@ -3300,16 +3297,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C21" s="6">
         <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>69</v>
+        <v>516</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>23</v>
@@ -3329,16 +3326,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C22" s="6">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>69</v>
+        <v>516</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>23</v>
@@ -3358,16 +3355,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C23" s="6">
         <v>0.5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>69</v>
+        <v>516</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>23</v>
@@ -3387,16 +3384,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C24" s="6">
         <v>0.25</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>69</v>
+        <v>516</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>23</v>
@@ -3416,16 +3413,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C25" s="6">
         <v>17</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>69</v>
+        <v>516</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>23</v>
@@ -3445,16 +3442,16 @@
         <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C26" s="6">
         <v>9</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>69</v>
+        <v>516</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>42</v>
@@ -3474,16 +3471,16 @@
         <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C27" s="6">
         <v>17</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>69</v>
+        <v>516</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>42</v>
@@ -3503,16 +3500,16 @@
         <v>46</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C28" s="6">
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>69</v>
+        <v>516</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>42</v>
@@ -3529,19 +3526,19 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C29" s="6">
         <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>69</v>
+        <v>516</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>17</v>
@@ -3561,16 +3558,16 @@
         <v>15</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C30" s="6">
         <v>9</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>69</v>
+        <v>516</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>17</v>
@@ -3590,16 +3587,16 @@
         <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C31" s="6">
         <v>17</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>69</v>
+        <v>516</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>17</v>
@@ -3619,16 +3616,16 @@
         <v>19</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C32" s="6">
         <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>69</v>
+        <v>516</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>18</v>
@@ -3645,19 +3642,19 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C33" s="6">
         <v>17</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>69</v>
+        <v>516</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>18</v>
@@ -3677,16 +3674,16 @@
         <v>20</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C34" s="6">
         <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>69</v>
+        <v>516</v>
       </c>
       <c r="E34" s="40" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>18</v>
@@ -3703,10 +3700,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C35" s="6">
         <v>0.5</v>
@@ -3715,10 +3712,10 @@
         <v>62</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>40</v>
@@ -3732,22 +3729,22 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C36" s="6">
         <v>16</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>40</v>
@@ -3761,10 +3758,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C37" s="6">
         <v>0.125</v>
@@ -3773,10 +3770,10 @@
         <v>62</v>
       </c>
       <c r="E37" s="40" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>40</v>
@@ -3790,22 +3787,22 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C38" s="6">
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>40</v>
@@ -3819,10 +3816,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C39" s="6">
         <v>0.25</v>
@@ -3831,10 +3828,10 @@
         <v>62</v>
       </c>
       <c r="E39" s="40" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>40</v>
@@ -3848,10 +3845,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C40" s="6">
         <v>3</v>
@@ -3860,10 +3857,10 @@
         <v>64</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>40</v>
@@ -3877,10 +3874,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C41" s="6">
         <v>0.5</v>
@@ -3889,10 +3886,10 @@
         <v>62</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>40</v>
@@ -3909,7 +3906,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C42" s="6">
         <v>3</v>
@@ -3918,7 +3915,7 @@
         <v>62</v>
       </c>
       <c r="E42" s="40" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>47</v>
@@ -3938,7 +3935,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C43" s="6">
         <v>5</v>
@@ -3947,7 +3944,7 @@
         <v>62</v>
       </c>
       <c r="E43" s="40" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>47</v>
@@ -3967,7 +3964,7 @@
         <v>50</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C44" s="6">
         <v>0.5</v>
@@ -3976,7 +3973,7 @@
         <v>62</v>
       </c>
       <c r="E44" s="40" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>47</v>
@@ -3993,22 +3990,22 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C45" s="6">
         <v>7</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E45" s="40" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>40</v>
@@ -4025,7 +4022,7 @@
         <v>52</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C46" s="6">
         <v>2</v>
@@ -4034,7 +4031,7 @@
         <v>62</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>51</v>
@@ -4054,7 +4051,7 @@
         <v>53</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C47" s="6">
         <v>3</v>
@@ -4063,7 +4060,7 @@
         <v>62</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>51</v>
@@ -4080,10 +4077,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C48" s="6">
         <v>5</v>
@@ -4092,10 +4089,10 @@
         <v>63</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>40</v>
@@ -4109,10 +4106,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C49" s="6">
         <v>10</v>
@@ -4121,10 +4118,10 @@
         <v>63</v>
       </c>
       <c r="E49" s="40" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>40</v>
@@ -4138,10 +4135,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C50" s="6">
         <v>14</v>
@@ -4150,10 +4147,10 @@
         <v>63</v>
       </c>
       <c r="E50" s="40" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>40</v>
@@ -4167,22 +4164,22 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C51" s="6">
         <v>5</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>40</v>
@@ -4196,22 +4193,22 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C52" s="6">
         <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>342</v>
+        <v>519</v>
       </c>
       <c r="E52" s="40" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>40</v>
@@ -4225,22 +4222,22 @@
     </row>
     <row r="53" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C53" s="6">
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>90</v>
+        <v>517</v>
       </c>
       <c r="E53" s="40" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>40</v>
@@ -4254,22 +4251,22 @@
     </row>
     <row r="54" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C54" s="6">
         <v>7</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>90</v>
+        <v>517</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>40</v>
@@ -4283,22 +4280,22 @@
     </row>
     <row r="55" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C55" s="6">
         <v>2</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>90</v>
+        <v>517</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>40</v>
@@ -4312,22 +4309,22 @@
     </row>
     <row r="56" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C56" s="6">
         <v>6</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>90</v>
+        <v>517</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>40</v>
@@ -4341,22 +4338,22 @@
     </row>
     <row r="57" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C57" s="6">
         <v>10</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>90</v>
+        <v>517</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>40</v>
@@ -4370,22 +4367,22 @@
     </row>
     <row r="58" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C58" s="6">
         <v>15</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>90</v>
+        <v>517</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>40</v>
@@ -4402,7 +4399,7 @@
         <v>55</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C59" s="6">
         <v>0</v>
@@ -4411,7 +4408,7 @@
         <v>62</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>54</v>
@@ -4431,7 +4428,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C60" s="6">
         <v>0.125</v>
@@ -4440,7 +4437,7 @@
         <v>62</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>54</v>
@@ -4460,7 +4457,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C61" s="6">
         <v>0.5</v>
@@ -4469,7 +4466,7 @@
         <v>62</v>
       </c>
       <c r="E61" s="40" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>54</v>
@@ -4489,7 +4486,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C62" s="6">
         <v>0</v>
@@ -4498,7 +4495,7 @@
         <v>62</v>
       </c>
       <c r="E62" s="40" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>54</v>
@@ -4518,7 +4515,7 @@
         <v>59</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C63" s="6">
         <v>5</v>
@@ -4527,7 +4524,7 @@
         <v>64</v>
       </c>
       <c r="E63" s="40" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>54</v>
@@ -4547,7 +4544,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C64" s="6">
         <v>0</v>
@@ -4556,7 +4553,7 @@
         <v>62</v>
       </c>
       <c r="E64" s="40" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>9</v>
@@ -4576,7 +4573,7 @@
         <v>3</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C65" s="6">
         <v>0.125</v>
@@ -4585,7 +4582,7 @@
         <v>62</v>
       </c>
       <c r="E65" s="40" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>9</v>
@@ -4605,7 +4602,7 @@
         <v>4</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C66" s="6">
         <v>0.5</v>
@@ -4614,7 +4611,7 @@
         <v>62</v>
       </c>
       <c r="E66" s="40" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>9</v>
@@ -4634,7 +4631,7 @@
         <v>5</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C67" s="6">
         <v>2</v>
@@ -4643,7 +4640,7 @@
         <v>62</v>
       </c>
       <c r="E67" s="40" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>9</v>
@@ -4663,7 +4660,7 @@
         <v>6</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C68" s="6">
         <v>3</v>
@@ -4672,7 +4669,7 @@
         <v>62</v>
       </c>
       <c r="E68" s="40" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>9</v>
@@ -4692,7 +4689,7 @@
         <v>7</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C69" s="6">
         <v>6</v>
@@ -4701,7 +4698,7 @@
         <v>62</v>
       </c>
       <c r="E69" s="40" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>9</v>
@@ -4721,7 +4718,7 @@
         <v>8</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C70" s="6">
         <v>1</v>
@@ -4730,7 +4727,7 @@
         <v>63</v>
       </c>
       <c r="E70" s="40" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>9</v>
@@ -4747,22 +4744,22 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C71" s="6">
         <v>2</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>342</v>
+        <v>519</v>
       </c>
       <c r="E71" s="40" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>40</v>
@@ -4776,22 +4773,22 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C72" s="6">
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>342</v>
+        <v>519</v>
       </c>
       <c r="E72" s="40" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>40</v>
@@ -4805,22 +4802,22 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C73" s="6">
         <v>2</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>342</v>
+        <v>519</v>
       </c>
       <c r="E73" s="40" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>40</v>
@@ -4834,10 +4831,10 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C74" s="6">
         <v>6</v>
@@ -4846,10 +4843,10 @@
         <v>62</v>
       </c>
       <c r="E74" s="40" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>40</v>
@@ -4863,10 +4860,10 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C75" s="6">
         <v>10</v>
@@ -4875,10 +4872,10 @@
         <v>62</v>
       </c>
       <c r="E75" s="40" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>40</v>
@@ -4892,22 +4889,22 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C76" s="6">
         <v>10</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E76" s="40" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>40</v>
@@ -4921,22 +4918,22 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C77" s="6">
         <v>16</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E77" s="40" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>40</v>
@@ -4950,22 +4947,22 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C78" s="6">
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E78" s="40" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>40</v>
@@ -4979,22 +4976,22 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C79" s="6">
         <v>1</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>91</v>
+        <v>518</v>
       </c>
       <c r="E79" s="40" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>40</v>
@@ -5008,22 +5005,22 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C80" s="6">
         <v>7</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>91</v>
+        <v>518</v>
       </c>
       <c r="E80" s="40" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>40</v>
@@ -5037,22 +5034,22 @@
     </row>
     <row r="81" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C81" s="6">
         <v>0.5</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E81" s="40" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>40</v>
@@ -5066,22 +5063,22 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C82" s="6">
         <v>7</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>342</v>
+        <v>519</v>
       </c>
       <c r="E82" s="40" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>40</v>
@@ -5095,10 +5092,10 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C83" s="6">
         <v>0</v>
@@ -5107,10 +5104,10 @@
         <v>62</v>
       </c>
       <c r="E83" s="40" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>40</v>
@@ -5124,10 +5121,10 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C84" s="6">
         <v>0.125</v>
@@ -5136,10 +5133,10 @@
         <v>62</v>
       </c>
       <c r="E84" s="40" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>40</v>
@@ -5153,10 +5150,10 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C85" s="6">
         <v>0.25</v>
@@ -5165,10 +5162,10 @@
         <v>62</v>
       </c>
       <c r="E85" s="40" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>40</v>
@@ -5182,22 +5179,22 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C86" s="6">
         <v>0.25</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E86" s="40" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>40</v>
@@ -5211,22 +5208,22 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C87" s="6">
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E87" s="40" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>40</v>
@@ -5240,22 +5237,22 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C88" s="6">
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E88" s="40" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>40</v>
@@ -5269,10 +5266,10 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C89" s="6">
         <v>0.125</v>
@@ -5281,10 +5278,10 @@
         <v>62</v>
       </c>
       <c r="E89" s="40" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>40</v>
@@ -5298,10 +5295,10 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C90" s="6">
         <v>1</v>
@@ -5310,10 +5307,10 @@
         <v>62</v>
       </c>
       <c r="E90" s="40" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>40</v>
@@ -5327,10 +5324,10 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C91" s="6">
         <v>3</v>
@@ -5339,10 +5336,10 @@
         <v>62</v>
       </c>
       <c r="E91" s="40" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>40</v>
@@ -5356,10 +5353,10 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C92" s="6">
         <v>0</v>
@@ -5368,10 +5365,10 @@
         <v>62</v>
       </c>
       <c r="E92" s="40" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>40</v>
@@ -5385,10 +5382,10 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C93" s="6">
         <v>3</v>
@@ -5397,10 +5394,10 @@
         <v>62</v>
       </c>
       <c r="E93" s="40" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>40</v>
@@ -5414,10 +5411,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C94" s="6">
         <v>0.5</v>
@@ -5426,10 +5423,10 @@
         <v>62</v>
       </c>
       <c r="E94" s="40" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>40</v>
@@ -5443,10 +5440,10 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C95" s="6">
         <v>4</v>
@@ -5455,10 +5452,10 @@
         <v>62</v>
       </c>
       <c r="E95" s="40" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>40</v>
@@ -5472,10 +5469,10 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C96" s="6">
         <v>7</v>
@@ -5484,10 +5481,10 @@
         <v>62</v>
       </c>
       <c r="E96" s="40" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>40</v>
@@ -5501,10 +5498,10 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C97" s="6">
         <v>1</v>
@@ -5513,10 +5510,10 @@
         <v>62</v>
       </c>
       <c r="E97" s="40" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>40</v>
@@ -5530,10 +5527,10 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C98" s="6">
         <v>0.25</v>
@@ -5542,10 +5539,10 @@
         <v>62</v>
       </c>
       <c r="E98" s="40" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>40</v>
@@ -5559,10 +5556,10 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C99" s="6">
         <v>6</v>
@@ -5571,10 +5568,10 @@
         <v>62</v>
       </c>
       <c r="E99" s="40" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>40</v>
@@ -5588,10 +5585,10 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C100" s="6">
         <v>0.5</v>
@@ -5600,10 +5597,10 @@
         <v>62</v>
       </c>
       <c r="E100" s="40" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>40</v>
@@ -5617,10 +5614,10 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C101" s="6">
         <v>5</v>
@@ -5629,10 +5626,10 @@
         <v>62</v>
       </c>
       <c r="E101" s="40" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>40</v>
@@ -5646,10 +5643,10 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C102" s="6">
         <v>1</v>
@@ -5658,10 +5655,10 @@
         <v>62</v>
       </c>
       <c r="E102" s="40" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>40</v>
@@ -5675,10 +5672,10 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C103" s="6">
         <v>3</v>
@@ -5687,10 +5684,10 @@
         <v>62</v>
       </c>
       <c r="E103" s="40" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>40</v>
@@ -5704,10 +5701,10 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C104" s="6">
         <v>3</v>
@@ -5716,10 +5713,10 @@
         <v>62</v>
       </c>
       <c r="E104" s="40" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>40</v>
@@ -5733,10 +5730,10 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C105" s="6">
         <v>5</v>
@@ -5745,10 +5742,10 @@
         <v>62</v>
       </c>
       <c r="E105" s="40" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>40</v>
@@ -5762,10 +5759,10 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C106" s="6">
         <v>3</v>
@@ -5774,10 +5771,10 @@
         <v>62</v>
       </c>
       <c r="E106" s="40" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>40</v>
@@ -5791,10 +5788,10 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C107" s="6">
         <v>2</v>
@@ -5803,10 +5800,10 @@
         <v>62</v>
       </c>
       <c r="E107" s="40" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>40</v>
@@ -5820,10 +5817,10 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C108" s="6">
         <v>1</v>
@@ -5832,10 +5829,10 @@
         <v>62</v>
       </c>
       <c r="E108" s="40" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>40</v>
@@ -5849,10 +5846,10 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C109" s="6">
         <v>3</v>
@@ -5861,10 +5858,10 @@
         <v>62</v>
       </c>
       <c r="E109" s="40" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>40</v>
@@ -5878,10 +5875,10 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C110" s="6">
         <v>4</v>
@@ -5890,10 +5887,10 @@
         <v>62</v>
       </c>
       <c r="E110" s="40" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>40</v>
@@ -5907,22 +5904,22 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C111" s="6">
         <v>4</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E111" s="40" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>40</v>
@@ -5936,10 +5933,10 @@
     </row>
     <row r="112" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C112" s="6">
         <v>3</v>
@@ -5948,10 +5945,10 @@
         <v>62</v>
       </c>
       <c r="E112" s="40" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>40</v>
@@ -5965,10 +5962,10 @@
     </row>
     <row r="113" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C113" s="6">
         <v>4</v>
@@ -5977,10 +5974,10 @@
         <v>62</v>
       </c>
       <c r="E113" s="40" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>40</v>
@@ -5994,22 +5991,22 @@
     </row>
     <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C114" s="6">
         <v>4</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>91</v>
+        <v>518</v>
       </c>
       <c r="E114" s="40" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>40</v>
@@ -6023,10 +6020,10 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C115" s="6">
         <v>0</v>
@@ -6035,10 +6032,10 @@
         <v>62</v>
       </c>
       <c r="E115" s="40" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>40</v>
@@ -6052,10 +6049,10 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C116" s="6">
         <v>1</v>
@@ -6064,10 +6061,10 @@
         <v>62</v>
       </c>
       <c r="E116" s="40" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>40</v>
@@ -6081,22 +6078,22 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C117" s="6">
         <v>0.25</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E117" s="40" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>40</v>
@@ -6110,22 +6107,22 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C118" s="6">
         <v>1</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E118" s="40" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>40</v>
@@ -6139,22 +6136,22 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C119" s="6">
         <v>5</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E119" s="40" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>40</v>
@@ -6168,22 +6165,22 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C120" s="6">
         <v>8</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E120" s="40" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>40</v>
@@ -6197,22 +6194,22 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C121" s="6">
         <v>0.125</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E121" s="40" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>40</v>
@@ -6226,22 +6223,22 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C122" s="6">
         <v>4</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E122" s="40" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>40</v>
@@ -6255,22 +6252,22 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C123" s="6">
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E123" s="40" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>40</v>
@@ -6284,22 +6281,22 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C124" s="6">
         <v>8</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E124" s="40" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>40</v>
@@ -6313,10 +6310,10 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C125" s="6">
         <v>0</v>
@@ -6325,10 +6322,10 @@
         <v>62</v>
       </c>
       <c r="E125" s="40" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>40</v>
@@ -6342,10 +6339,10 @@
     </row>
     <row r="126" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C126" s="6">
         <v>1</v>
@@ -6354,10 +6351,10 @@
         <v>64</v>
       </c>
       <c r="E126" s="40" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>40</v>
@@ -6371,10 +6368,10 @@
     </row>
     <row r="127" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C127" s="6">
         <v>5</v>
@@ -6383,10 +6380,10 @@
         <v>64</v>
       </c>
       <c r="E127" s="40" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>40</v>
@@ -6400,10 +6397,10 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C128" s="6">
         <v>5</v>
@@ -6412,10 +6409,10 @@
         <v>64</v>
       </c>
       <c r="E128" s="40" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>40</v>
@@ -6429,10 +6426,10 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C129" s="6">
         <v>2</v>
@@ -6441,10 +6438,10 @@
         <v>64</v>
       </c>
       <c r="E129" s="40" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>40</v>
@@ -6458,10 +6455,10 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C130" s="6">
         <v>8</v>
@@ -6470,10 +6467,10 @@
         <v>64</v>
       </c>
       <c r="E130" s="40" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>40</v>
@@ -6487,10 +6484,10 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C131" s="6">
         <v>11</v>
@@ -6499,10 +6496,10 @@
         <v>64</v>
       </c>
       <c r="E131" s="40" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>40</v>
@@ -6519,16 +6516,16 @@
         <v>22</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C132" s="6">
         <v>4</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>91</v>
+        <v>518</v>
       </c>
       <c r="E132" s="40" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>22</v>
@@ -6545,10 +6542,10 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C133" s="6">
         <v>8</v>
@@ -6557,10 +6554,10 @@
         <v>63</v>
       </c>
       <c r="E133" s="40" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>40</v>
@@ -6574,22 +6571,22 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C134" s="6">
         <v>13</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>342</v>
+        <v>519</v>
       </c>
       <c r="E134" s="40" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>40</v>
@@ -6603,22 +6600,22 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C135" s="6">
         <v>12</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E135" s="40" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>40</v>
@@ -6632,22 +6629,22 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C136" s="6">
         <v>15</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="E136" s="40" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>40</v>
@@ -6661,22 +6658,22 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C137" s="6">
         <v>17</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="E137" s="40" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>40</v>
@@ -6690,22 +6687,22 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C138" s="6">
         <v>16</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>69</v>
+        <v>516</v>
       </c>
       <c r="E138" s="40" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>40</v>
@@ -6719,22 +6716,22 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C139" s="6">
         <v>18</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>69</v>
+        <v>516</v>
       </c>
       <c r="E139" s="40" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>40</v>
@@ -6748,22 +6745,22 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C140" s="6">
         <v>17</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>69</v>
+        <v>516</v>
       </c>
       <c r="E140" s="40" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>40</v>
@@ -6777,22 +6774,22 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C141" s="6">
         <v>19</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>69</v>
+        <v>516</v>
       </c>
       <c r="E141" s="40" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>40</v>
@@ -6806,22 +6803,22 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C142" s="6">
         <v>5</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="E142" s="40" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>40</v>
@@ -6835,22 +6832,22 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C143" s="6">
         <v>0.25</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="E143" s="40" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>40</v>
@@ -6864,22 +6861,22 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C144" s="6">
         <v>4</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="E144" s="40" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>40</v>
@@ -6893,22 +6890,22 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C145" s="6">
         <v>0.125</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="E145" s="40" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>40</v>
@@ -6922,22 +6919,22 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C146" s="6">
         <v>1</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="E146" s="40" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>40</v>
@@ -6951,22 +6948,22 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C147" s="6">
         <v>7</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="E147" s="40" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>40</v>
@@ -7188,13 +7185,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>1</v>
@@ -7202,36 +7199,36 @@
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7272,7 +7269,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>1</v>
@@ -7281,35 +7278,35 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -7353,115 +7350,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>437</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>354</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>379</v>
-      </c>
-      <c r="F1" s="43" t="s">
-        <v>380</v>
-      </c>
-      <c r="G1" s="43" t="s">
+      <c r="A1" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>371</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>374</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>375</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>376</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+    </row>
+    <row r="2" spans="1:15" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="43" t="s">
         <v>381</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="K2" s="45" t="s">
         <v>382</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="L2" s="45" t="s">
         <v>383</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="M2" s="45" t="s">
         <v>384</v>
       </c>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-    </row>
-    <row r="2" spans="1:15" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="49" t="s">
-        <v>388</v>
-      </c>
-      <c r="K2" s="51" t="s">
-        <v>389</v>
-      </c>
-      <c r="L2" s="51" t="s">
-        <v>390</v>
-      </c>
-      <c r="M2" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="N2" s="51" t="s">
-        <v>392</v>
-      </c>
-      <c r="O2" s="51" t="s">
-        <v>433</v>
+      <c r="N2" s="45" t="s">
+        <v>385</v>
+      </c>
+      <c r="O2" s="45" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
     </row>
     <row r="4" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>40</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="J4" s="36">
         <v>2</v>
@@ -7485,31 +7482,31 @@
     </row>
     <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="J5" s="34">
         <v>3</v>
@@ -7533,31 +7530,31 @@
     </row>
     <row r="6" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F6" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="H6" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>387</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>405</v>
-      </c>
       <c r="I6" s="23" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="J6" s="34">
         <v>5</v>
@@ -7581,31 +7578,31 @@
     </row>
     <row r="7" spans="1:15" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G7" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="I7" s="24" t="s">
         <v>403</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>409</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>410</v>
       </c>
       <c r="J7" s="35">
         <v>3</v>
@@ -7632,28 +7629,28 @@
         <v>39</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="J8" s="35">
         <v>3</v>
@@ -7680,28 +7677,28 @@
         <v>13</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="J9" s="35">
         <v>3</v>
@@ -7728,28 +7725,28 @@
         <v>13</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="J10" s="35">
         <v>5</v>
@@ -7773,31 +7770,31 @@
     </row>
     <row r="11" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="J11" s="35">
         <v>4</v>
@@ -7824,28 +7821,28 @@
         <v>41</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="J12" s="35">
         <v>2</v>
@@ -7869,31 +7866,31 @@
     </row>
     <row r="13" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="J13" s="35">
         <v>4</v>
@@ -7920,28 +7917,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="J14" s="35">
         <v>3</v>
@@ -7970,13 +7967,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="16">
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
@@ -7986,6 +7976,13 @@
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{B4A7D905-D120-4788-AC98-B53455EB3FC4}"/>
@@ -8030,356 +8027,356 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -8474,7 +8471,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8493,16 +8490,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>1</v>
@@ -8510,110 +8507,110 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>40</v>
@@ -8622,18 +8619,18 @@
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>358</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>40</v>
@@ -8642,18 +8639,18 @@
         <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>358</v>
+        <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>40</v>
@@ -8662,18 +8659,18 @@
         <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>358</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>40</v>
@@ -8682,18 +8679,18 @@
         <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>358</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>40</v>
@@ -8702,153 +8699,153 @@
         <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>358</v>
+        <v>514</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="1048567" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1048567" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{75FD0084-15F3-4E8F-BDC9-AA450191B803}"/>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1" xr:uid="{CD205D86-3B69-41FA-9A89-4B4891CE715F}"/>
-    <hyperlink ref="F10" r:id="rId2" xr:uid="{D2CB272F-7CFD-43E8-A6CD-F5D4F762EECE}"/>
-    <hyperlink ref="F9" r:id="rId3" xr:uid="{5346317E-A68D-4A4F-8714-EA324906FCC9}"/>
-    <hyperlink ref="F8" r:id="rId4" xr:uid="{65EC0AF8-6599-48A6-BFF2-CC33A04C580C}"/>
-    <hyperlink ref="F7" r:id="rId5" xr:uid="{22D2DA75-15EE-4E3D-A214-9438B3918722}"/>
-    <hyperlink ref="F12" r:id="rId6" xr:uid="{29312A83-9E19-4FC9-9BD5-D08415EE6D39}"/>
-    <hyperlink ref="F13" r:id="rId7" xr:uid="{FD4053AF-A296-442A-A393-E344F9435BC6}"/>
-    <hyperlink ref="F14:F17" r:id="rId8" display="Player Race: Sahuagin" xr:uid="{AE9F375F-2313-4BB6-B3CC-003CCB5D87AD}"/>
-    <hyperlink ref="F2" r:id="rId9" xr:uid="{AA641211-9538-47CD-AC49-DED79060FDC3}"/>
-    <hyperlink ref="F3" r:id="rId10" xr:uid="{F59CDB79-101F-4262-ACC3-33706B6460A5}"/>
-    <hyperlink ref="F4" r:id="rId11" xr:uid="{44DDBB9E-A2C5-4BCC-9DA6-37B6073692D9}"/>
-    <hyperlink ref="F5" r:id="rId12" xr:uid="{6D8AB764-4F65-4500-AE06-C6ED17E0AD44}"/>
-    <hyperlink ref="F6" r:id="rId13" xr:uid="{FF38A524-B07D-4605-BEFD-9AA818E3A281}"/>
+    <hyperlink ref="F12" r:id="rId1" xr:uid="{29312A83-9E19-4FC9-9BD5-D08415EE6D39}"/>
+    <hyperlink ref="F13" r:id="rId2" xr:uid="{FD4053AF-A296-442A-A393-E344F9435BC6}"/>
+    <hyperlink ref="F14:F17" r:id="rId3" display="Player Race: Sahuagin" xr:uid="{AE9F375F-2313-4BB6-B3CC-003CCB5D87AD}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{AA641211-9538-47CD-AC49-DED79060FDC3}"/>
+    <hyperlink ref="F3" r:id="rId5" xr:uid="{F59CDB79-101F-4262-ACC3-33706B6460A5}"/>
+    <hyperlink ref="F4" r:id="rId6" xr:uid="{44DDBB9E-A2C5-4BCC-9DA6-37B6073692D9}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{6D8AB764-4F65-4500-AE06-C6ED17E0AD44}"/>
+    <hyperlink ref="F6" r:id="rId8" xr:uid="{FF38A524-B07D-4605-BEFD-9AA818E3A281}"/>
+    <hyperlink ref="F11" r:id="rId9" xr:uid="{D38E6F2A-B522-426A-A595-BE4E3FE82508}"/>
+    <hyperlink ref="F10" r:id="rId10" xr:uid="{6395AF31-E253-4A6B-B570-0700D3B1E989}"/>
+    <hyperlink ref="F9" r:id="rId11" xr:uid="{C19B976B-5BEA-4CEC-8031-20B2FD7FCF82}"/>
+    <hyperlink ref="F8" r:id="rId12" xr:uid="{8B050B6D-A6D9-49B2-8145-64F820A34BAE}"/>
+    <hyperlink ref="F7" r:id="rId13" xr:uid="{14352774-4327-4C42-AA83-22F1E5982700}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8860,7 +8857,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
+      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8889,19 +8886,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>39</v>
@@ -8910,22 +8907,22 @@
         <v>13</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>41</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>1</v>
@@ -8934,16 +8931,16 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -8973,24 +8970,24 @@
         <v>21</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>359</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -9020,24 +9017,24 @@
         <v>21</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>359</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -9067,24 +9064,24 @@
         <v>14</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>359</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -9114,24 +9111,24 @@
         <v>21</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>359</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -9161,24 +9158,24 @@
         <v>21</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>359</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -9208,24 +9205,24 @@
         <v>21</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>359</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
@@ -9255,24 +9252,24 @@
         <v>21</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>359</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
@@ -9302,24 +9299,24 @@
         <v>14</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>359</v>
+        <v>515</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
@@ -9349,24 +9346,24 @@
         <v>14</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>359</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>14</v>
@@ -9396,24 +9393,24 @@
         <v>14</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>359</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>14</v>
@@ -9443,24 +9440,24 @@
         <v>14</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>359</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>14</v>
@@ -9490,24 +9487,24 @@
         <v>14</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>359</v>
+        <v>515</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>14</v>
@@ -9537,24 +9534,24 @@
         <v>21</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>359</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>14</v>
@@ -9584,24 +9581,24 @@
         <v>21</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>359</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C16" s="2">
         <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>21</v>
@@ -9631,24 +9628,24 @@
         <v>14</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>359</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C17" s="2">
         <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>21</v>
@@ -9678,24 +9675,24 @@
         <v>21</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>359</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C18" s="2">
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>14</v>
@@ -9725,24 +9722,24 @@
         <v>14</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>359</v>
+        <v>515</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C19" s="2">
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>14</v>
@@ -9772,24 +9769,24 @@
         <v>21</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>359</v>
+        <v>515</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C20" s="2">
         <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>21</v>
@@ -9819,24 +9816,24 @@
         <v>21</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>359</v>
+        <v>515</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2">
         <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
@@ -9866,24 +9863,24 @@
         <v>21</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>359</v>
+        <v>515</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C22" s="2">
         <v>4</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
@@ -9913,24 +9910,24 @@
         <v>21</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>359</v>
+        <v>515</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C23" s="2">
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>14</v>
@@ -9960,24 +9957,24 @@
         <v>21</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>359</v>
+        <v>515</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C24" s="2">
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>21</v>
@@ -10007,24 +10004,24 @@
         <v>21</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>359</v>
+        <v>515</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C25" s="2">
         <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>14</v>
@@ -10054,24 +10051,24 @@
         <v>21</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>359</v>
+        <v>515</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C26" s="2">
         <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
@@ -10101,24 +10098,24 @@
         <v>14</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O26" s="16" t="s">
-        <v>359</v>
+        <v>515</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C27" s="2">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>14</v>
@@ -10148,24 +10145,24 @@
         <v>21</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>359</v>
+        <v>515</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C28" s="2">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>14</v>
@@ -10195,10 +10192,10 @@
         <v>14</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>359</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -10229,8 +10226,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{7C29B2E3-80D3-484D-A8B2-E2E40DB34A2B}"/>
-    <hyperlink ref="O3:O28" r:id="rId2" display="Spellbook" xr:uid="{FC500E42-4064-4DB4-9194-DA5B42A9DF49}"/>
+    <hyperlink ref="O2" r:id="rId1" display="Spellbook" xr:uid="{7C29B2E3-80D3-484D-A8B2-E2E40DB34A2B}"/>
+    <hyperlink ref="O3:O28" r:id="rId2" display="Spellbook" xr:uid="{AD8C4F18-50C5-4121-823A-717ACB05E5DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10248,7 +10245,7 @@
   <cols>
     <col min="1" max="1" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -10257,10 +10254,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>1</v>
@@ -10268,93 +10265,97 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>358</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>358</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>358</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>358</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>358</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>358</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{CC9F76B0-4120-40E2-8D59-C8EC3C02CBCB}"/>
-    <hyperlink ref="D3:D7" r:id="rId2" display="The Armory" xr:uid="{85D5A513-2DA8-4542-855B-C8DE2A6F6E47}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{9E7E3E97-2FD1-44AD-9710-7E4C64C3230F}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{6E885DF6-3858-47C4-85EE-0EEBD20EB002}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{7407AFE8-AF0D-449E-89D6-AF4335C721D2}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{0D9F4104-DF23-4002-A24F-9EFF3DE1C4D9}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{968FD4DF-7BB0-4A2C-8238-CE0016CFEC3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10366,7 +10367,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10389,28 +10390,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>1</v>
@@ -10418,10 +10419,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
@@ -10430,7 +10431,7 @@
         <v>6000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>14</v>
@@ -10439,27 +10440,27 @@
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>21</v>
@@ -10468,21 +10469,21 @@
         <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
@@ -10491,7 +10492,7 @@
         <v>2000</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
@@ -10500,21 +10501,21 @@
         <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -10523,7 +10524,7 @@
         <v>1500</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
@@ -10532,21 +10533,21 @@
         <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -10555,7 +10556,7 @@
         <v>9000</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>14</v>
@@ -10564,21 +10565,21 @@
         <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -10587,7 +10588,7 @@
         <v>12000</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>21</v>
@@ -10596,27 +10597,27 @@
         <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>14</v>
@@ -10625,21 +10626,21 @@
         <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -10648,7 +10649,7 @@
         <v>50000</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>14</v>
@@ -10657,27 +10658,27 @@
         <v>21</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>21</v>
@@ -10686,27 +10687,27 @@
         <v>14</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>14</v>
@@ -10715,21 +10716,21 @@
         <v>14</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
@@ -10738,7 +10739,7 @@
         <v>6000</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>21</v>
@@ -10747,21 +10748,21 @@
         <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -10770,7 +10771,7 @@
         <v>24000</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>21</v>
@@ -10779,21 +10780,21 @@
         <v>14</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
@@ -10802,7 +10803,7 @@
         <v>26000</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>21</v>
@@ -10811,27 +10812,27 @@
         <v>14</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>14</v>
@@ -10840,21 +10841,21 @@
         <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
@@ -10863,7 +10864,7 @@
         <v>7000</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>21</v>
@@ -10872,27 +10873,27 @@
         <v>14</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>21</v>
@@ -10901,27 +10902,27 @@
         <v>14</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>21</v>
@@ -10930,13 +10931,13 @@
         <v>14</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -10944,13 +10945,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>14</v>
@@ -10959,27 +10960,27 @@
         <v>14</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>14</v>
@@ -10988,27 +10989,27 @@
         <v>14</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>14</v>
@@ -11017,27 +11018,27 @@
         <v>14</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>14</v>
@@ -11046,21 +11047,21 @@
         <v>14</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>14</v>
@@ -11069,7 +11070,7 @@
         <v>9000</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>14</v>
@@ -11078,27 +11079,27 @@
         <v>14</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>21</v>
@@ -11107,13 +11108,13 @@
         <v>14</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -11121,13 +11122,13 @@
         <v>11</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>21</v>
@@ -11136,21 +11137,21 @@
         <v>14</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>14</v>
@@ -11159,7 +11160,7 @@
         <v>20000</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>14</v>
@@ -11168,42 +11169,42 @@
         <v>14</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -11211,7 +11212,7 @@
         <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>14</v>
@@ -11220,7 +11221,7 @@
         <v>100</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>14</v>
@@ -11229,21 +11230,21 @@
         <v>14</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>14</v>
@@ -11252,7 +11253,7 @@
         <v>1000</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>21</v>
@@ -11261,21 +11262,21 @@
         <v>14</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>14</v>
@@ -11284,7 +11285,7 @@
         <v>3000</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>14</v>
@@ -11293,21 +11294,21 @@
         <v>14</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>14</v>
@@ -11316,7 +11317,7 @@
         <v>15000</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>21</v>
@@ -11325,21 +11326,21 @@
         <v>14</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>14</v>
@@ -11348,7 +11349,7 @@
         <v>26000</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>21</v>
@@ -11357,21 +11358,21 @@
         <v>14</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>14</v>
@@ -11380,7 +11381,7 @@
         <v>8000</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>21</v>
@@ -11389,21 +11390,21 @@
         <v>14</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>14</v>
@@ -11412,7 +11413,7 @@
         <v>24000</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>21</v>
@@ -11421,21 +11422,21 @@
         <v>14</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>21</v>
@@ -11444,7 +11445,7 @@
         <v>200</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>14</v>
@@ -11453,27 +11454,27 @@
         <v>14</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>21</v>
@@ -11482,27 +11483,27 @@
         <v>14</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>14</v>
@@ -11510,25 +11511,28 @@
       <c r="G37" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H37" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="I37" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -11536,25 +11540,28 @@
       <c r="G38" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H38" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="I38" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>14</v>
@@ -11562,25 +11569,28 @@
       <c r="G39" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H39" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="I39" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>14</v>
@@ -11588,25 +11598,28 @@
       <c r="G40" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H40" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="I40" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>14</v>
@@ -11614,25 +11627,28 @@
       <c r="G41" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H41" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="I41" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>14</v>
@@ -11640,25 +11656,28 @@
       <c r="G42" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H42" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="I42" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>14</v>
@@ -11666,25 +11685,28 @@
       <c r="G43" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H43" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="I43" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>14</v>
@@ -11692,25 +11714,28 @@
       <c r="G44" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H44" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="I44" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>14</v>
@@ -11718,25 +11743,28 @@
       <c r="G45" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H45" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="I45" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>14</v>
@@ -11744,25 +11772,28 @@
       <c r="G46" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H46" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="I46" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>14</v>
@@ -11770,19 +11801,22 @@
       <c r="G47" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H47" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="I47" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>21</v>
@@ -11791,7 +11825,7 @@
         <v>100</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>14</v>
@@ -11799,25 +11833,28 @@
       <c r="G48" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H48" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="I48" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>14</v>
@@ -11825,25 +11862,28 @@
       <c r="G49" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H49" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="I49" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>14</v>
@@ -11851,25 +11891,28 @@
       <c r="G50" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H50" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="I50" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>14</v>
@@ -11877,25 +11920,28 @@
       <c r="G51" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H51" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="I51" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>14</v>
@@ -11903,25 +11949,28 @@
       <c r="G52" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H52" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="I52" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>14</v>
@@ -11929,19 +11978,22 @@
       <c r="G53" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H53" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="I53" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>21</v>
@@ -11950,7 +12002,7 @@
         <v>60</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>14</v>
@@ -11958,25 +12010,28 @@
       <c r="G54" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H54" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="I54" s="1" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>14</v>
@@ -11984,25 +12039,28 @@
       <c r="G55" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H55" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="I55" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>14</v>
@@ -12010,25 +12068,28 @@
       <c r="G56" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H56" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="I56" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>14</v>
@@ -12036,25 +12097,28 @@
       <c r="G57" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H57" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="I57" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>14</v>
@@ -12062,25 +12126,28 @@
       <c r="G58" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H58" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="I58" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>14</v>
@@ -12088,25 +12155,28 @@
       <c r="G59" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H59" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="I59" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>14</v>
@@ -12114,25 +12184,28 @@
       <c r="G60" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H60" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="I60" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>14</v>
@@ -12140,25 +12213,28 @@
       <c r="G61" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H61" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="I61" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>21</v>
@@ -12166,25 +12242,28 @@
       <c r="G62" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H62" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="I62" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>14</v>
@@ -12192,25 +12271,28 @@
       <c r="G63" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H63" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="I63" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>21</v>
@@ -12218,11 +12300,14 @@
       <c r="G64" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H64" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="I64" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
     <row r="65" spans="10:10" x14ac:dyDescent="0.25">
@@ -12243,14 +12328,71 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J8" r:id="rId1" xr:uid="{1FB46F41-6996-47A9-AE07-5FCDCDB4395E}"/>
-    <hyperlink ref="J2" r:id="rId2" display="New Magic Items" xr:uid="{6B31016A-224C-4488-AFB3-02F334464DCF}"/>
-    <hyperlink ref="J3:J7" r:id="rId3" display="New Magic Items" xr:uid="{22D16497-DB85-4858-A0DE-DB98B43B80A4}"/>
-    <hyperlink ref="J9" r:id="rId4" display="New Magic Items" xr:uid="{DCD4AB5A-6B85-4E9C-8554-B40E9BFDAC9D}"/>
-    <hyperlink ref="J10:J36" r:id="rId5" display="New Magic Items" xr:uid="{6A72CB19-38D0-49ED-A632-370E5754559D}"/>
-    <hyperlink ref="J37:J64" r:id="rId6" display="New Magic Items" xr:uid="{C2954B71-3ECB-494D-91BB-96832C44D312}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{77697104-AC58-4358-97D5-1ACF10943748}"/>
+    <hyperlink ref="J3" r:id="rId3" xr:uid="{A8FDA2B2-CD32-4ABC-896A-320D7A6D55A9}"/>
+    <hyperlink ref="J4" r:id="rId4" xr:uid="{AC719EC5-9A55-47F5-88F7-1F4511C4166D}"/>
+    <hyperlink ref="J5" r:id="rId5" xr:uid="{4E1CC099-05ED-4B18-8AE8-75852D43CD67}"/>
+    <hyperlink ref="J6" r:id="rId6" xr:uid="{A6EEFD1B-DE4B-4A9A-94A3-4DE6571C81F0}"/>
+    <hyperlink ref="J7" r:id="rId7" xr:uid="{C6EE8E5B-8A13-415F-8055-12368831D4B5}"/>
+    <hyperlink ref="J9" r:id="rId8" xr:uid="{B05DA783-E86E-4709-90EB-5142AE409D9A}"/>
+    <hyperlink ref="J10" r:id="rId9" xr:uid="{A61C679B-D6FC-46E4-8D18-7EC3B447AD61}"/>
+    <hyperlink ref="J11" r:id="rId10" xr:uid="{FF1503CE-F9B2-421C-B781-FD74C8AF7921}"/>
+    <hyperlink ref="J12" r:id="rId11" xr:uid="{B654ECE5-EF1D-465B-8D56-D6955FC456BA}"/>
+    <hyperlink ref="J13" r:id="rId12" xr:uid="{973379D2-2245-450D-9257-B7A5F97244B7}"/>
+    <hyperlink ref="J14" r:id="rId13" xr:uid="{0DA61EB9-C1BE-4FD7-B37D-42B98CE7F578}"/>
+    <hyperlink ref="J15" r:id="rId14" xr:uid="{7EC9B10D-1608-4703-974C-5D0427A0A927}"/>
+    <hyperlink ref="J16" r:id="rId15" xr:uid="{F2313DDF-EB58-4A0C-8CD2-2CB25862764C}"/>
+    <hyperlink ref="J17" r:id="rId16" xr:uid="{5D664D89-6525-4E68-A93E-CDA7EDF9F9C2}"/>
+    <hyperlink ref="J18" r:id="rId17" xr:uid="{4C41E617-2816-4D5A-B723-0E998B71D772}"/>
+    <hyperlink ref="J19" r:id="rId18" xr:uid="{EA8B250A-9F20-499C-91DC-4318C7A60F22}"/>
+    <hyperlink ref="J20" r:id="rId19" xr:uid="{050A663B-61E9-4D77-97BA-43AD345BA19D}"/>
+    <hyperlink ref="J21" r:id="rId20" xr:uid="{6E996B09-E3F2-4A3B-A984-73482B60D125}"/>
+    <hyperlink ref="J22" r:id="rId21" xr:uid="{4019E06B-A65D-472E-A9CE-C57D967C4ADB}"/>
+    <hyperlink ref="J23" r:id="rId22" xr:uid="{1A62C8A9-A14F-46FE-8802-EDD8B6FF70A7}"/>
+    <hyperlink ref="J24" r:id="rId23" xr:uid="{E8CFC1FD-9C51-4BCB-9F59-AF75AED56DEC}"/>
+    <hyperlink ref="J25" r:id="rId24" xr:uid="{E2C7C9C0-3C37-4A96-A3F4-7D96A96B5A41}"/>
+    <hyperlink ref="J26" r:id="rId25" xr:uid="{30B10374-194F-4D5F-8052-56A6F0C7AACC}"/>
+    <hyperlink ref="J27" r:id="rId26" xr:uid="{96E7CCD2-0206-4357-A5D8-18211BC651A4}"/>
+    <hyperlink ref="J28" r:id="rId27" xr:uid="{224D30DD-76F2-44A8-9728-4582882B55E4}"/>
+    <hyperlink ref="J29" r:id="rId28" xr:uid="{C363D295-7413-4FE4-93CB-99A2F41231E0}"/>
+    <hyperlink ref="J30" r:id="rId29" xr:uid="{10C9CC2C-A014-453B-8E85-6079428C7EB0}"/>
+    <hyperlink ref="J31" r:id="rId30" xr:uid="{C2E63A22-DD15-4863-8486-449E6FC9B0F0}"/>
+    <hyperlink ref="J32" r:id="rId31" xr:uid="{0F3C3EAF-75C6-4D59-8A20-17A5B80E627B}"/>
+    <hyperlink ref="J33" r:id="rId32" xr:uid="{9314E5CE-DF3F-4BB0-98BE-6CBE64BEA807}"/>
+    <hyperlink ref="J34" r:id="rId33" xr:uid="{88426DA2-019B-41ED-817C-A6A75364AC00}"/>
+    <hyperlink ref="J35" r:id="rId34" xr:uid="{E90886EF-3D16-48A4-A1F3-2002C5AE43BE}"/>
+    <hyperlink ref="J36" r:id="rId35" xr:uid="{20F491A0-9AF2-4A13-B759-69DE698D570E}"/>
+    <hyperlink ref="J37" r:id="rId36" xr:uid="{EC5DEB85-2853-4570-AC8B-21B1950CA4D0}"/>
+    <hyperlink ref="J38" r:id="rId37" xr:uid="{868492D3-4085-453F-B4CD-B50C40989EA3}"/>
+    <hyperlink ref="J39" r:id="rId38" xr:uid="{F9BE2436-60C1-45B7-845E-F41EA4E3CAA7}"/>
+    <hyperlink ref="J40" r:id="rId39" xr:uid="{BC00D0A7-3E8B-4D18-9F5B-DC105E9E5F8D}"/>
+    <hyperlink ref="J41" r:id="rId40" xr:uid="{BDC682F4-0A8B-4A88-8EA8-4EA17A2F18AF}"/>
+    <hyperlink ref="J42" r:id="rId41" xr:uid="{A92D03CA-03E3-4A4A-AFC9-23C427C56CBA}"/>
+    <hyperlink ref="J43" r:id="rId42" xr:uid="{29B2965A-A1CC-43EE-BB9C-000753601C97}"/>
+    <hyperlink ref="J44" r:id="rId43" xr:uid="{2DEA7F5C-4534-43DB-A031-4C826579B67F}"/>
+    <hyperlink ref="J45" r:id="rId44" xr:uid="{10E6C21C-C742-46D9-8571-2A848B60E25E}"/>
+    <hyperlink ref="J46" r:id="rId45" xr:uid="{CE171EF3-53A9-4878-8128-BD0CF11D386F}"/>
+    <hyperlink ref="J47" r:id="rId46" xr:uid="{BFA0F2EF-D141-4BC8-BC84-E93F13A777FC}"/>
+    <hyperlink ref="J48" r:id="rId47" xr:uid="{09AE6BCA-2448-4F90-B764-976192FB2B0A}"/>
+    <hyperlink ref="J49" r:id="rId48" xr:uid="{2C7D508A-97BA-43EE-9C66-3B4E5B5A6E66}"/>
+    <hyperlink ref="J50" r:id="rId49" xr:uid="{C42CF988-79A3-4489-8CCD-B7139DA4F5C5}"/>
+    <hyperlink ref="J51" r:id="rId50" xr:uid="{6407B149-F4E1-4BEB-8A7E-C4089A4CA0CA}"/>
+    <hyperlink ref="J52" r:id="rId51" xr:uid="{6C596059-1725-4958-AABD-2AC3A64E00DA}"/>
+    <hyperlink ref="J53" r:id="rId52" xr:uid="{D0221050-6B8B-4D6A-8F64-11C4461CB3EA}"/>
+    <hyperlink ref="J54" r:id="rId53" xr:uid="{FC2E6393-6814-4DF5-9408-65D04B083A62}"/>
+    <hyperlink ref="J55" r:id="rId54" xr:uid="{BEC0FF7D-A153-456B-9A74-B13497B6609A}"/>
+    <hyperlink ref="J56" r:id="rId55" xr:uid="{336BBCA8-8584-4790-89F4-DD257B5A177B}"/>
+    <hyperlink ref="J57" r:id="rId56" xr:uid="{67732F45-31C2-4D27-B2DF-258639116BC1}"/>
+    <hyperlink ref="J58" r:id="rId57" xr:uid="{25D0762C-3181-482F-BB0B-69AB1E2683C3}"/>
+    <hyperlink ref="J59" r:id="rId58" xr:uid="{423904A3-896B-4630-9E27-321D3FCDFEA2}"/>
+    <hyperlink ref="J60" r:id="rId59" xr:uid="{EF38553C-C4C4-4AD4-A002-A80D831441C8}"/>
+    <hyperlink ref="J61" r:id="rId60" xr:uid="{42F310D3-D0F5-4886-B961-C466C6711A54}"/>
+    <hyperlink ref="J62" r:id="rId61" xr:uid="{88FA4A17-32DB-469E-99AA-A1FD3DD970C5}"/>
+    <hyperlink ref="J63" r:id="rId62" xr:uid="{B3C29C54-D104-45BF-98EA-76E26FB8CFED}"/>
+    <hyperlink ref="J64" r:id="rId63" xr:uid="{1DC0CA99-B8FF-480F-94CB-76D698CFF46D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId64"/>
 </worksheet>
 </file>
 
@@ -12276,7 +12418,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
@@ -12287,7 +12429,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>29</v>
@@ -12298,7 +12440,7 @@
         <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>43</v>

--- a/PublicContentList.xlsx
+++ b/PublicContentList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60DB6C4-1EEC-4212-A0F0-9845490288ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DDC3B0-794A-41AC-8563-3FE70897F002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2590" uniqueCount="536">
   <si>
     <t>Name</t>
   </si>
@@ -1782,6 +1782,54 @@
   </si>
   <si>
     <t>Humanoid (Ratfolk)</t>
+  </si>
+  <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>Arctic, Desert, Forest, Grassland, Hills, Mountain</t>
+  </si>
+  <si>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>Dire Wolf</t>
+  </si>
+  <si>
+    <t>Ascendant Packleader</t>
+  </si>
+  <si>
+    <t>Celestial</t>
+  </si>
+  <si>
+    <t>Arctic, Desert, Extraplanar, Forest, Grassland, Hills, Mountain</t>
+  </si>
+  <si>
+    <t>Wolf Creature Guide</t>
+  </si>
+  <si>
+    <t>Werewolf, Lone</t>
+  </si>
+  <si>
+    <t>Humanoid(Human, Shapechanger)</t>
+  </si>
+  <si>
+    <t>Arctic, Desert, Extraplanar, Forest, Grassland, Hills, Mountain, Urban</t>
+  </si>
+  <si>
+    <t>Werewolves</t>
+  </si>
+  <si>
+    <t>Werewolf, Pack</t>
+  </si>
+  <si>
+    <t>Werewolf Moon Mystic</t>
+  </si>
+  <si>
+    <t>Werewolf Pack Leader</t>
+  </si>
+  <si>
+    <t>Werewolf Creture Guide</t>
   </si>
 </sst>
 </file>
@@ -1994,7 +2042,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2023,12 +2071,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2043,9 +2085,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2116,24 +2155,6 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2150,6 +2171,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2689,11 +2728,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2702,7 +2741,7 @@
     <col min="2" max="2" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" style="37" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -2725,7 +2764,7 @@
       <c r="D1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="36" t="s">
         <v>434</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -2754,7 +2793,7 @@
       <c r="D2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="37" t="s">
         <v>438</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -2783,7 +2822,7 @@
       <c r="D3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="37" t="s">
         <v>438</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -2812,7 +2851,7 @@
       <c r="D4" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="37" t="s">
         <v>438</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -2841,7 +2880,7 @@
       <c r="D5" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="37" t="s">
         <v>438</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -2870,7 +2909,7 @@
       <c r="D6" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="37" t="s">
         <v>438</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -2899,7 +2938,7 @@
       <c r="D7" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="37" t="s">
         <v>466</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -2928,7 +2967,7 @@
       <c r="D8" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="37" t="s">
         <v>466</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -2957,7 +2996,7 @@
       <c r="D9" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="37" t="s">
         <v>467</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -2986,7 +3025,7 @@
       <c r="D10" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="37" t="s">
         <v>467</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -3015,7 +3054,7 @@
       <c r="D11" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="37" t="s">
         <v>467</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -3044,7 +3083,7 @@
       <c r="D12" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="37" t="s">
         <v>467</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -3073,7 +3112,7 @@
       <c r="D13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="37" t="s">
         <v>440</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -3102,7 +3141,7 @@
       <c r="D14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="37" t="s">
         <v>440</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -3131,7 +3170,7 @@
       <c r="D15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="37" t="s">
         <v>443</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -3160,7 +3199,7 @@
       <c r="D16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="37" t="s">
         <v>438</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -3189,7 +3228,7 @@
       <c r="D17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="37" t="s">
         <v>438</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -3218,7 +3257,7 @@
       <c r="D18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="37" t="s">
         <v>438</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -3247,7 +3286,7 @@
       <c r="D19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="37" t="s">
         <v>444</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -3276,7 +3315,7 @@
       <c r="D20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="37" t="s">
         <v>438</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -3305,7 +3344,7 @@
       <c r="D21" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="37" t="s">
         <v>437</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -3334,7 +3373,7 @@
       <c r="D22" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="37" t="s">
         <v>437</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -3363,7 +3402,7 @@
       <c r="D23" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="37" t="s">
         <v>437</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -3392,7 +3431,7 @@
       <c r="D24" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="37" t="s">
         <v>437</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -3421,7 +3460,7 @@
       <c r="D25" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="37" t="s">
         <v>437</v>
       </c>
       <c r="F25" s="3" t="s">
@@ -3450,7 +3489,7 @@
       <c r="D26" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="37" t="s">
         <v>437</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -3479,7 +3518,7 @@
       <c r="D27" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="37" t="s">
         <v>437</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -3508,7 +3547,7 @@
       <c r="D28" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="37" t="s">
         <v>437</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -3537,7 +3576,7 @@
       <c r="D29" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E29" s="40" t="s">
+      <c r="E29" s="37" t="s">
         <v>437</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -3566,7 +3605,7 @@
       <c r="D30" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E30" s="40" t="s">
+      <c r="E30" s="37" t="s">
         <v>437</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -3595,7 +3634,7 @@
       <c r="D31" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E31" s="40" t="s">
+      <c r="E31" s="37" t="s">
         <v>437</v>
       </c>
       <c r="F31" s="3" t="s">
@@ -3624,7 +3663,7 @@
       <c r="D32" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E32" s="37" t="s">
         <v>437</v>
       </c>
       <c r="F32" s="3" t="s">
@@ -3653,7 +3692,7 @@
       <c r="D33" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="E33" s="37" t="s">
         <v>437</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -3682,7 +3721,7 @@
       <c r="D34" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="37" t="s">
         <v>437</v>
       </c>
       <c r="F34" s="3" t="s">
@@ -3711,7 +3750,7 @@
       <c r="D35" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="37" t="s">
         <v>446</v>
       </c>
       <c r="F35" s="3" t="s">
@@ -3740,7 +3779,7 @@
       <c r="D36" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E36" s="40" t="s">
+      <c r="E36" s="37" t="s">
         <v>454</v>
       </c>
       <c r="F36" s="3" t="s">
@@ -3769,7 +3808,7 @@
       <c r="D37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="40" t="s">
+      <c r="E37" s="37" t="s">
         <v>447</v>
       </c>
       <c r="F37" s="3" t="s">
@@ -3798,7 +3837,7 @@
       <c r="D38" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="40" t="s">
+      <c r="E38" s="37" t="s">
         <v>447</v>
       </c>
       <c r="F38" s="3" t="s">
@@ -3827,7 +3866,7 @@
       <c r="D39" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="40" t="s">
+      <c r="E39" s="37" t="s">
         <v>438</v>
       </c>
       <c r="F39" s="3" t="s">
@@ -3856,7 +3895,7 @@
       <c r="D40" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="40" t="s">
+      <c r="E40" s="37" t="s">
         <v>445</v>
       </c>
       <c r="F40" s="3" t="s">
@@ -3885,7 +3924,7 @@
       <c r="D41" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E41" s="40" t="s">
+      <c r="E41" s="37" t="s">
         <v>447</v>
       </c>
       <c r="F41" s="3" t="s">
@@ -3914,7 +3953,7 @@
       <c r="D42" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="40" t="s">
+      <c r="E42" s="37" t="s">
         <v>443</v>
       </c>
       <c r="F42" s="3" t="s">
@@ -3943,7 +3982,7 @@
       <c r="D43" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="40" t="s">
+      <c r="E43" s="37" t="s">
         <v>443</v>
       </c>
       <c r="F43" s="3" t="s">
@@ -3972,7 +4011,7 @@
       <c r="D44" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="40" t="s">
+      <c r="E44" s="37" t="s">
         <v>443</v>
       </c>
       <c r="F44" s="3" t="s">
@@ -4001,7 +4040,7 @@
       <c r="D45" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="37" t="s">
         <v>441</v>
       </c>
       <c r="F45" s="3" t="s">
@@ -4030,7 +4069,7 @@
       <c r="D46" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E46" s="40" t="s">
+      <c r="E46" s="37" t="s">
         <v>443</v>
       </c>
       <c r="F46" s="3" t="s">
@@ -4059,7 +4098,7 @@
       <c r="D47" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E47" s="40" t="s">
+      <c r="E47" s="37" t="s">
         <v>443</v>
       </c>
       <c r="F47" s="3" t="s">
@@ -4088,7 +4127,7 @@
       <c r="D48" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="40" t="s">
+      <c r="E48" s="37" t="s">
         <v>438</v>
       </c>
       <c r="F48" s="3" t="s">
@@ -4117,7 +4156,7 @@
       <c r="D49" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="40" t="s">
+      <c r="E49" s="37" t="s">
         <v>438</v>
       </c>
       <c r="F49" s="3" t="s">
@@ -4146,7 +4185,7 @@
       <c r="D50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E50" s="40" t="s">
+      <c r="E50" s="37" t="s">
         <v>438</v>
       </c>
       <c r="F50" s="3" t="s">
@@ -4175,7 +4214,7 @@
       <c r="D51" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E51" s="40" t="s">
+      <c r="E51" s="37" t="s">
         <v>441</v>
       </c>
       <c r="F51" s="3" t="s">
@@ -4204,7 +4243,7 @@
       <c r="D52" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E52" s="40" t="s">
+      <c r="E52" s="37" t="s">
         <v>452</v>
       </c>
       <c r="F52" s="3" t="s">
@@ -4233,7 +4272,7 @@
       <c r="D53" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E53" s="40" t="s">
+      <c r="E53" s="37" t="s">
         <v>467</v>
       </c>
       <c r="F53" s="3" t="s">
@@ -4262,7 +4301,7 @@
       <c r="D54" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E54" s="40" t="s">
+      <c r="E54" s="37" t="s">
         <v>467</v>
       </c>
       <c r="F54" s="3" t="s">
@@ -4291,7 +4330,7 @@
       <c r="D55" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E55" s="40" t="s">
+      <c r="E55" s="37" t="s">
         <v>467</v>
       </c>
       <c r="F55" s="3" t="s">
@@ -4320,7 +4359,7 @@
       <c r="D56" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E56" s="40" t="s">
+      <c r="E56" s="37" t="s">
         <v>467</v>
       </c>
       <c r="F56" s="3" t="s">
@@ -4349,7 +4388,7 @@
       <c r="D57" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E57" s="40" t="s">
+      <c r="E57" s="37" t="s">
         <v>467</v>
       </c>
       <c r="F57" s="3" t="s">
@@ -4378,7 +4417,7 @@
       <c r="D58" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E58" s="40" t="s">
+      <c r="E58" s="37" t="s">
         <v>467</v>
       </c>
       <c r="F58" s="3" t="s">
@@ -4407,7 +4446,7 @@
       <c r="D59" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E59" s="40" t="s">
+      <c r="E59" s="37" t="s">
         <v>443</v>
       </c>
       <c r="F59" s="3" t="s">
@@ -4436,7 +4475,7 @@
       <c r="D60" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E60" s="40" t="s">
+      <c r="E60" s="37" t="s">
         <v>443</v>
       </c>
       <c r="F60" s="3" t="s">
@@ -4465,7 +4504,7 @@
       <c r="D61" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E61" s="40" t="s">
+      <c r="E61" s="37" t="s">
         <v>443</v>
       </c>
       <c r="F61" s="3" t="s">
@@ -4494,7 +4533,7 @@
       <c r="D62" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E62" s="40" t="s">
+      <c r="E62" s="37" t="s">
         <v>436</v>
       </c>
       <c r="F62" s="3" t="s">
@@ -4523,7 +4562,7 @@
       <c r="D63" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E63" s="40" t="s">
+      <c r="E63" s="37" t="s">
         <v>445</v>
       </c>
       <c r="F63" s="3" t="s">
@@ -4552,7 +4591,7 @@
       <c r="D64" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E64" s="40" t="s">
+      <c r="E64" s="37" t="s">
         <v>435</v>
       </c>
       <c r="F64" s="3" t="s">
@@ -4581,7 +4620,7 @@
       <c r="D65" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E65" s="40" t="s">
+      <c r="E65" s="37" t="s">
         <v>435</v>
       </c>
       <c r="F65" s="3" t="s">
@@ -4610,7 +4649,7 @@
       <c r="D66" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E66" s="40" t="s">
+      <c r="E66" s="37" t="s">
         <v>435</v>
       </c>
       <c r="F66" s="3" t="s">
@@ -4639,7 +4678,7 @@
       <c r="D67" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E67" s="40" t="s">
+      <c r="E67" s="37" t="s">
         <v>435</v>
       </c>
       <c r="F67" s="3" t="s">
@@ -4668,7 +4707,7 @@
       <c r="D68" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E68" s="40" t="s">
+      <c r="E68" s="37" t="s">
         <v>435</v>
       </c>
       <c r="F68" s="3" t="s">
@@ -4697,7 +4736,7 @@
       <c r="D69" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E69" s="40" t="s">
+      <c r="E69" s="37" t="s">
         <v>435</v>
       </c>
       <c r="F69" s="3" t="s">
@@ -4726,7 +4765,7 @@
       <c r="D70" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E70" s="40" t="s">
+      <c r="E70" s="37" t="s">
         <v>439</v>
       </c>
       <c r="F70" s="3" t="s">
@@ -4755,7 +4794,7 @@
       <c r="D71" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E71" s="40" t="s">
+      <c r="E71" s="37" t="s">
         <v>452</v>
       </c>
       <c r="F71" s="3" t="s">
@@ -4784,7 +4823,7 @@
       <c r="D72" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E72" s="40" t="s">
+      <c r="E72" s="37" t="s">
         <v>452</v>
       </c>
       <c r="F72" s="3" t="s">
@@ -4813,7 +4852,7 @@
       <c r="D73" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E73" s="40" t="s">
+      <c r="E73" s="37" t="s">
         <v>452</v>
       </c>
       <c r="F73" s="3" t="s">
@@ -4842,7 +4881,7 @@
       <c r="D74" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E74" s="40" t="s">
+      <c r="E74" s="37" t="s">
         <v>441</v>
       </c>
       <c r="F74" s="3" t="s">
@@ -4871,7 +4910,7 @@
       <c r="D75" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E75" s="40" t="s">
+      <c r="E75" s="37" t="s">
         <v>441</v>
       </c>
       <c r="F75" s="3" t="s">
@@ -4900,7 +4939,7 @@
       <c r="D76" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E76" s="40" t="s">
+      <c r="E76" s="37" t="s">
         <v>452</v>
       </c>
       <c r="F76" s="3" t="s">
@@ -4929,7 +4968,7 @@
       <c r="D77" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E77" s="40" t="s">
+      <c r="E77" s="37" t="s">
         <v>452</v>
       </c>
       <c r="F77" s="3" t="s">
@@ -4958,7 +4997,7 @@
       <c r="D78" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E78" s="40" t="s">
+      <c r="E78" s="37" t="s">
         <v>452</v>
       </c>
       <c r="F78" s="3" t="s">
@@ -4987,7 +5026,7 @@
       <c r="D79" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E79" s="40" t="s">
+      <c r="E79" s="37" t="s">
         <v>452</v>
       </c>
       <c r="F79" s="3" t="s">
@@ -5016,7 +5055,7 @@
       <c r="D80" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E80" s="40" t="s">
+      <c r="E80" s="37" t="s">
         <v>452</v>
       </c>
       <c r="F80" s="3" t="s">
@@ -5045,7 +5084,7 @@
       <c r="D81" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E81" s="40" t="s">
+      <c r="E81" s="37" t="s">
         <v>453</v>
       </c>
       <c r="F81" s="3" t="s">
@@ -5074,7 +5113,7 @@
       <c r="D82" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E82" s="40" t="s">
+      <c r="E82" s="37" t="s">
         <v>452</v>
       </c>
       <c r="F82" s="3" t="s">
@@ -5103,7 +5142,7 @@
       <c r="D83" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E83" s="40" t="s">
+      <c r="E83" s="37" t="s">
         <v>452</v>
       </c>
       <c r="F83" s="3" t="s">
@@ -5132,7 +5171,7 @@
       <c r="D84" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E84" s="40" t="s">
+      <c r="E84" s="37" t="s">
         <v>452</v>
       </c>
       <c r="F84" s="3" t="s">
@@ -5161,7 +5200,7 @@
       <c r="D85" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E85" s="40" t="s">
+      <c r="E85" s="37" t="s">
         <v>452</v>
       </c>
       <c r="F85" s="3" t="s">
@@ -5190,7 +5229,7 @@
       <c r="D86" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E86" s="40" t="s">
+      <c r="E86" s="37" t="s">
         <v>452</v>
       </c>
       <c r="F86" s="3" t="s">
@@ -5219,7 +5258,7 @@
       <c r="D87" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E87" s="40" t="s">
+      <c r="E87" s="37" t="s">
         <v>452</v>
       </c>
       <c r="F87" s="3" t="s">
@@ -5248,7 +5287,7 @@
       <c r="D88" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E88" s="40" t="s">
+      <c r="E88" s="37" t="s">
         <v>452</v>
       </c>
       <c r="F88" s="3" t="s">
@@ -5277,7 +5316,7 @@
       <c r="D89" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E89" s="40" t="s">
+      <c r="E89" s="37" t="s">
         <v>441</v>
       </c>
       <c r="F89" s="3" t="s">
@@ -5306,7 +5345,7 @@
       <c r="D90" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E90" s="40" t="s">
+      <c r="E90" s="37" t="s">
         <v>441</v>
       </c>
       <c r="F90" s="3" t="s">
@@ -5335,7 +5374,7 @@
       <c r="D91" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E91" s="40" t="s">
+      <c r="E91" s="37" t="s">
         <v>441</v>
       </c>
       <c r="F91" s="3" t="s">
@@ -5364,7 +5403,7 @@
       <c r="D92" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E92" s="40" t="s">
+      <c r="E92" s="37" t="s">
         <v>441</v>
       </c>
       <c r="F92" s="3" t="s">
@@ -5393,7 +5432,7 @@
       <c r="D93" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E93" s="40" t="s">
+      <c r="E93" s="37" t="s">
         <v>441</v>
       </c>
       <c r="F93" s="3" t="s">
@@ -5422,7 +5461,7 @@
       <c r="D94" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E94" s="40" t="s">
+      <c r="E94" s="37" t="s">
         <v>441</v>
       </c>
       <c r="F94" s="3" t="s">
@@ -5451,7 +5490,7 @@
       <c r="D95" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E95" s="40" t="s">
+      <c r="E95" s="37" t="s">
         <v>441</v>
       </c>
       <c r="F95" s="3" t="s">
@@ -5480,7 +5519,7 @@
       <c r="D96" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E96" s="40" t="s">
+      <c r="E96" s="37" t="s">
         <v>441</v>
       </c>
       <c r="F96" s="3" t="s">
@@ -5509,7 +5548,7 @@
       <c r="D97" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E97" s="40" t="s">
+      <c r="E97" s="37" t="s">
         <v>441</v>
       </c>
       <c r="F97" s="3" t="s">
@@ -5538,7 +5577,7 @@
       <c r="D98" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E98" s="40" t="s">
+      <c r="E98" s="37" t="s">
         <v>441</v>
       </c>
       <c r="F98" s="3" t="s">
@@ -5567,7 +5606,7 @@
       <c r="D99" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E99" s="40" t="s">
+      <c r="E99" s="37" t="s">
         <v>454</v>
       </c>
       <c r="F99" s="3" t="s">
@@ -5596,7 +5635,7 @@
       <c r="D100" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E100" s="40" t="s">
+      <c r="E100" s="37" t="s">
         <v>454</v>
       </c>
       <c r="F100" s="3" t="s">
@@ -5625,7 +5664,7 @@
       <c r="D101" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E101" s="40" t="s">
+      <c r="E101" s="37" t="s">
         <v>454</v>
       </c>
       <c r="F101" s="3" t="s">
@@ -5654,7 +5693,7 @@
       <c r="D102" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E102" s="40" t="s">
+      <c r="E102" s="37" t="s">
         <v>441</v>
       </c>
       <c r="F102" s="3" t="s">
@@ -5683,7 +5722,7 @@
       <c r="D103" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E103" s="40" t="s">
+      <c r="E103" s="37" t="s">
         <v>441</v>
       </c>
       <c r="F103" s="3" t="s">
@@ -5712,7 +5751,7 @@
       <c r="D104" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E104" s="40" t="s">
+      <c r="E104" s="37" t="s">
         <v>446</v>
       </c>
       <c r="F104" s="3" t="s">
@@ -5741,7 +5780,7 @@
       <c r="D105" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E105" s="40" t="s">
+      <c r="E105" s="37" t="s">
         <v>441</v>
       </c>
       <c r="F105" s="3" t="s">
@@ -5770,7 +5809,7 @@
       <c r="D106" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E106" s="40" t="s">
+      <c r="E106" s="37" t="s">
         <v>441</v>
       </c>
       <c r="F106" s="3" t="s">
@@ -5799,7 +5838,7 @@
       <c r="D107" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E107" s="40" t="s">
+      <c r="E107" s="37" t="s">
         <v>441</v>
       </c>
       <c r="F107" s="3" t="s">
@@ -5828,7 +5867,7 @@
       <c r="D108" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E108" s="40" t="s">
+      <c r="E108" s="37" t="s">
         <v>441</v>
       </c>
       <c r="F108" s="3" t="s">
@@ -5857,7 +5896,7 @@
       <c r="D109" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E109" s="40" t="s">
+      <c r="E109" s="37" t="s">
         <v>441</v>
       </c>
       <c r="F109" s="3" t="s">
@@ -5886,7 +5925,7 @@
       <c r="D110" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E110" s="40" t="s">
+      <c r="E110" s="37" t="s">
         <v>441</v>
       </c>
       <c r="F110" s="3" t="s">
@@ -5915,7 +5954,7 @@
       <c r="D111" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E111" s="40" t="s">
+      <c r="E111" s="37" t="s">
         <v>454</v>
       </c>
       <c r="F111" s="3" t="s">
@@ -5944,7 +5983,7 @@
       <c r="D112" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E112" s="40" t="s">
+      <c r="E112" s="37" t="s">
         <v>451</v>
       </c>
       <c r="F112" s="3" t="s">
@@ -5973,7 +6012,7 @@
       <c r="D113" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E113" s="40" t="s">
+      <c r="E113" s="37" t="s">
         <v>451</v>
       </c>
       <c r="F113" s="3" t="s">
@@ -6002,7 +6041,7 @@
       <c r="D114" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E114" s="40" t="s">
+      <c r="E114" s="37" t="s">
         <v>451</v>
       </c>
       <c r="F114" s="3" t="s">
@@ -6031,7 +6070,7 @@
       <c r="D115" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E115" s="40" t="s">
+      <c r="E115" s="37" t="s">
         <v>448</v>
       </c>
       <c r="F115" s="3" t="s">
@@ -6060,7 +6099,7 @@
       <c r="D116" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E116" s="40" t="s">
+      <c r="E116" s="37" t="s">
         <v>448</v>
       </c>
       <c r="F116" s="3" t="s">
@@ -6089,7 +6128,7 @@
       <c r="D117" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E117" s="40" t="s">
+      <c r="E117" s="37" t="s">
         <v>448</v>
       </c>
       <c r="F117" s="3" t="s">
@@ -6118,7 +6157,7 @@
       <c r="D118" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E118" s="40" t="s">
+      <c r="E118" s="37" t="s">
         <v>449</v>
       </c>
       <c r="F118" s="3" t="s">
@@ -6147,7 +6186,7 @@
       <c r="D119" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E119" s="40" t="s">
+      <c r="E119" s="37" t="s">
         <v>449</v>
       </c>
       <c r="F119" s="3" t="s">
@@ -6176,7 +6215,7 @@
       <c r="D120" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E120" s="40" t="s">
+      <c r="E120" s="37" t="s">
         <v>449</v>
       </c>
       <c r="F120" s="3" t="s">
@@ -6205,7 +6244,7 @@
       <c r="D121" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E121" s="40" t="s">
+      <c r="E121" s="37" t="s">
         <v>449</v>
       </c>
       <c r="F121" s="3" t="s">
@@ -6234,7 +6273,7 @@
       <c r="D122" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E122" s="40" t="s">
+      <c r="E122" s="37" t="s">
         <v>449</v>
       </c>
       <c r="F122" s="3" t="s">
@@ -6263,7 +6302,7 @@
       <c r="D123" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E123" s="40" t="s">
+      <c r="E123" s="37" t="s">
         <v>449</v>
       </c>
       <c r="F123" s="3" t="s">
@@ -6292,7 +6331,7 @@
       <c r="D124" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E124" s="40" t="s">
+      <c r="E124" s="37" t="s">
         <v>449</v>
       </c>
       <c r="F124" s="3" t="s">
@@ -6321,7 +6360,7 @@
       <c r="D125" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E125" s="40" t="s">
+      <c r="E125" s="37" t="s">
         <v>439</v>
       </c>
       <c r="F125" s="3" t="s">
@@ -6350,7 +6389,7 @@
       <c r="D126" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E126" s="40" t="s">
+      <c r="E126" s="37" t="s">
         <v>468</v>
       </c>
       <c r="F126" s="3" t="s">
@@ -6379,7 +6418,7 @@
       <c r="D127" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E127" s="40" t="s">
+      <c r="E127" s="37" t="s">
         <v>468</v>
       </c>
       <c r="F127" s="3" t="s">
@@ -6408,7 +6447,7 @@
       <c r="D128" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E128" s="40" t="s">
+      <c r="E128" s="37" t="s">
         <v>438</v>
       </c>
       <c r="F128" s="3" t="s">
@@ -6437,7 +6476,7 @@
       <c r="D129" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E129" s="40" t="s">
+      <c r="E129" s="37" t="s">
         <v>438</v>
       </c>
       <c r="F129" s="3" t="s">
@@ -6466,7 +6505,7 @@
       <c r="D130" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E130" s="40" t="s">
+      <c r="E130" s="37" t="s">
         <v>447</v>
       </c>
       <c r="F130" s="3" t="s">
@@ -6495,7 +6534,7 @@
       <c r="D131" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E131" s="40" t="s">
+      <c r="E131" s="37" t="s">
         <v>447</v>
       </c>
       <c r="F131" s="3" t="s">
@@ -6524,7 +6563,7 @@
       <c r="D132" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E132" s="40" t="s">
+      <c r="E132" s="37" t="s">
         <v>442</v>
       </c>
       <c r="F132" s="3" t="s">
@@ -6553,7 +6592,7 @@
       <c r="D133" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E133" s="40" t="s">
+      <c r="E133" s="37" t="s">
         <v>450</v>
       </c>
       <c r="F133" s="3" t="s">
@@ -6582,7 +6621,7 @@
       <c r="D134" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E134" s="40" t="s">
+      <c r="E134" s="37" t="s">
         <v>452</v>
       </c>
       <c r="F134" s="3" t="s">
@@ -6611,7 +6650,7 @@
       <c r="D135" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E135" s="40" t="s">
+      <c r="E135" s="37" t="s">
         <v>441</v>
       </c>
       <c r="F135" s="3" t="s">
@@ -6640,7 +6679,7 @@
       <c r="D136" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="E136" s="40" t="s">
+      <c r="E136" s="37" t="s">
         <v>454</v>
       </c>
       <c r="F136" s="3" t="s">
@@ -6669,7 +6708,7 @@
       <c r="D137" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="E137" s="40" t="s">
+      <c r="E137" s="37" t="s">
         <v>465</v>
       </c>
       <c r="F137" s="3" t="s">
@@ -6698,7 +6737,7 @@
       <c r="D138" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E138" s="40" t="s">
+      <c r="E138" s="37" t="s">
         <v>452</v>
       </c>
       <c r="F138" s="3" t="s">
@@ -6727,7 +6766,7 @@
       <c r="D139" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E139" s="40" t="s">
+      <c r="E139" s="37" t="s">
         <v>452</v>
       </c>
       <c r="F139" s="3" t="s">
@@ -6756,7 +6795,7 @@
       <c r="D140" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E140" s="40" t="s">
+      <c r="E140" s="37" t="s">
         <v>452</v>
       </c>
       <c r="F140" s="3" t="s">
@@ -6785,7 +6824,7 @@
       <c r="D141" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E141" s="40" t="s">
+      <c r="E141" s="37" t="s">
         <v>452</v>
       </c>
       <c r="F141" s="3" t="s">
@@ -6806,7 +6845,7 @@
         <v>508</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C142" s="6">
         <v>5</v>
@@ -6814,7 +6853,7 @@
       <c r="D142" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E142" s="40" t="s">
+      <c r="E142" s="37" t="s">
         <v>452</v>
       </c>
       <c r="F142" s="3" t="s">
@@ -6835,7 +6874,7 @@
         <v>509</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C143" s="6">
         <v>0.25</v>
@@ -6843,7 +6882,7 @@
       <c r="D143" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E143" s="40" t="s">
+      <c r="E143" s="37" t="s">
         <v>452</v>
       </c>
       <c r="F143" s="3" t="s">
@@ -6864,7 +6903,7 @@
         <v>510</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C144" s="6">
         <v>4</v>
@@ -6872,7 +6911,7 @@
       <c r="D144" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E144" s="40" t="s">
+      <c r="E144" s="37" t="s">
         <v>452</v>
       </c>
       <c r="F144" s="3" t="s">
@@ -6893,7 +6932,7 @@
         <v>511</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C145" s="6">
         <v>0.125</v>
@@ -6901,7 +6940,7 @@
       <c r="D145" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E145" s="40" t="s">
+      <c r="E145" s="37" t="s">
         <v>452</v>
       </c>
       <c r="F145" s="3" t="s">
@@ -6922,7 +6961,7 @@
         <v>512</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C146" s="6">
         <v>1</v>
@@ -6930,7 +6969,7 @@
       <c r="D146" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E146" s="40" t="s">
+      <c r="E146" s="37" t="s">
         <v>452</v>
       </c>
       <c r="F146" s="3" t="s">
@@ -6959,7 +6998,7 @@
       <c r="D147" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E147" s="40" t="s">
+      <c r="E147" s="37" t="s">
         <v>452</v>
       </c>
       <c r="F147" s="3" t="s">
@@ -6973,6 +7012,209 @@
       </c>
       <c r="I147" s="1" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C148" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E148" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C149" s="6">
+        <v>1</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E149" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C150" s="6">
+        <v>5</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E150" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C151" s="6">
+        <v>3</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E151" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C152" s="6">
+        <v>3</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E152" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C153" s="6">
+        <v>5</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E153" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C154" s="6">
+        <v>6</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E154" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -7143,20 +7385,21 @@
     <hyperlink ref="F138" r:id="rId78" xr:uid="{73577FD1-F30B-48E9-AF79-D1BA01F478D5}"/>
     <hyperlink ref="F139:F141" r:id="rId79" display="Vermin Lords" xr:uid="{D6516090-D0B6-4EAF-97A2-C190EC7D976F}"/>
     <hyperlink ref="F52" r:id="rId80" xr:uid="{5CE19490-B946-4897-A0EC-4BC7B57C44DE}"/>
-    <hyperlink ref="F71" r:id="rId81" xr:uid="{46436697-CEC5-4D9B-925D-E29A84FEA684}"/>
-    <hyperlink ref="F72" r:id="rId82" xr:uid="{D7AF36A8-54CB-45BE-B1D7-5E14F6F49504}"/>
-    <hyperlink ref="F73" r:id="rId83" xr:uid="{47F665A9-B8C7-4BA0-9898-3925142D1DDE}"/>
-    <hyperlink ref="F82" r:id="rId84" xr:uid="{92F550B1-01AB-4344-973C-B6877B83AF44}"/>
-    <hyperlink ref="F134" r:id="rId85" xr:uid="{51164C6A-A9F7-4A28-B7D3-AF192BA2417F}"/>
-    <hyperlink ref="F142" r:id="rId86" xr:uid="{C1F7E12E-EF50-4423-99AA-0F3CA3292053}"/>
-    <hyperlink ref="F143" r:id="rId87" xr:uid="{BF6FA57C-5DA0-4A85-A9C8-0A0854FB57CB}"/>
-    <hyperlink ref="F144" r:id="rId88" xr:uid="{60621CCC-2280-4ECB-B444-6D840E38AB20}"/>
-    <hyperlink ref="F145" r:id="rId89" xr:uid="{1D6F84B7-4DBB-4040-B5A1-A632B3DB18F5}"/>
-    <hyperlink ref="F146" r:id="rId90" xr:uid="{0C338EB9-380C-4F96-AABF-205139E805EC}"/>
-    <hyperlink ref="F147" r:id="rId91" xr:uid="{DA813958-DD99-4DA3-ABCE-FAE4D9CFC2A6}"/>
+    <hyperlink ref="F71:F73" r:id="rId81" display="Ratfolk" xr:uid="{23196B9A-9CAE-4D01-91B2-AFEC1F8AF730}"/>
+    <hyperlink ref="F82" r:id="rId82" xr:uid="{2D4B397C-4ECA-490A-9578-A037B6EA2B27}"/>
+    <hyperlink ref="F134" r:id="rId83" xr:uid="{9DBFB1C2-2475-4AC8-BCEE-210E7A202658}"/>
+    <hyperlink ref="F142:F147" r:id="rId84" display="Ratfolk" xr:uid="{0C434EE3-8288-4C90-9A27-ECDB2DEE64F3}"/>
+    <hyperlink ref="F148" r:id="rId85" xr:uid="{71674E00-231B-4A86-B247-C29C70D3AF2C}"/>
+    <hyperlink ref="I148" r:id="rId86" xr:uid="{CE571496-0EAB-46AD-8069-3EA02FD272D0}"/>
+    <hyperlink ref="I149:I150" r:id="rId87" display="Wolf Creature Guide" xr:uid="{52BC55BC-48E1-4075-9721-64307B01A257}"/>
+    <hyperlink ref="F149:F150" r:id="rId88" display="Wolves" xr:uid="{4AA7C9C6-A091-4D4F-A964-1B12D75EB01F}"/>
+    <hyperlink ref="F151" r:id="rId89" xr:uid="{9FD4C8F0-3A78-4124-8C8E-DFF14F8457BF}"/>
+    <hyperlink ref="F152:F154" r:id="rId90" display="Werewolves" xr:uid="{7FDE62EE-CF55-45C0-92B7-8FD41BD87B5E}"/>
+    <hyperlink ref="I151" r:id="rId91" xr:uid="{E530F206-E40D-48C5-8270-9FB5B004484D}"/>
+    <hyperlink ref="I152:I154" r:id="rId92" display="Werewolf Creture Guide" xr:uid="{16BACF67-2263-4F83-8444-5F7AEB781FCC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId92"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId93"/>
 </worksheet>
 </file>
 
@@ -7172,8 +7415,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="55.140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="16" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" bestFit="1" customWidth="1"/>
@@ -7184,10 +7427,10 @@
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>357</v>
       </c>
       <c r="D1" s="8" t="s">
@@ -7201,10 +7444,10 @@
       <c r="A2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="16" t="s">
         <v>358</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -7218,10 +7461,10 @@
       <c r="A3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>359</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -7246,7 +7489,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECB4EEB-6E0F-4DBC-8ACA-83CFF1219E40}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -7259,53 +7502,51 @@
   <cols>
     <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="11"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="18" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="18" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>306</v>
       </c>
     </row>
@@ -7331,631 +7572,631 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" style="14" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="23" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" style="24" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="24" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="34" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="35" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="33" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="12.85546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="21" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="31" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="32" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:15" s="19" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="38" t="s">
         <v>349</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="38" t="s">
         <v>371</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="42" t="s">
         <v>372</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="40" t="s">
         <v>373</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="40" t="s">
         <v>374</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="40" t="s">
         <v>375</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="44" t="s">
         <v>377</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-    </row>
-    <row r="2" spans="1:15" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="43" t="s">
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+    </row>
+    <row r="2" spans="1:15" s="19" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="46" t="s">
         <v>381</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="48" t="s">
         <v>382</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="48" t="s">
         <v>383</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="48" t="s">
         <v>384</v>
       </c>
-      <c r="N2" s="45" t="s">
+      <c r="N2" s="48" t="s">
         <v>385</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="48" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
+    <row r="3" spans="1:15" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
     </row>
     <row r="4" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="24" t="s">
         <v>387</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="31" t="s">
+      <c r="E4" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="28" t="s">
         <v>386</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="29" t="s">
         <v>390</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="33">
         <v>2</v>
       </c>
-      <c r="K4" s="37">
+      <c r="K4" s="34">
         <v>2</v>
       </c>
-      <c r="L4" s="35">
+      <c r="L4" s="32">
         <v>3</v>
       </c>
-      <c r="M4" s="35">
+      <c r="M4" s="32">
         <v>3</v>
       </c>
-      <c r="N4" s="35">
+      <c r="N4" s="32">
         <v>1</v>
       </c>
-      <c r="O4" s="35">
+      <c r="O4" s="32">
         <f t="shared" ref="O4:O14" si="0">AVERAGE(J4:N4)</f>
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="31">
         <v>3</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K5" s="32">
         <v>4</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5" s="32">
         <v>3</v>
       </c>
-      <c r="M5" s="35">
+      <c r="M5" s="32">
         <v>3</v>
       </c>
-      <c r="N5" s="35">
+      <c r="N5" s="32">
         <v>3</v>
       </c>
-      <c r="O5" s="35">
+      <c r="O5" s="32">
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="31">
         <v>5</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="32">
         <v>5</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="32">
         <v>4</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M6" s="32">
         <v>4</v>
       </c>
-      <c r="N6" s="35">
+      <c r="N6" s="32">
         <v>4</v>
       </c>
-      <c r="O6" s="35">
+      <c r="O6" s="32">
         <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="32">
         <v>3</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="32">
         <v>3</v>
       </c>
-      <c r="L7" s="38">
+      <c r="L7" s="35">
         <v>3</v>
       </c>
-      <c r="M7" s="35">
+      <c r="M7" s="32">
         <v>4</v>
       </c>
-      <c r="N7" s="35">
+      <c r="N7" s="32">
         <v>4</v>
       </c>
-      <c r="O7" s="35">
+      <c r="O7" s="32">
         <f t="shared" si="0"/>
         <v>3.4</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="32">
         <v>3</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="32">
         <v>3</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="35">
         <v>4</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8" s="32">
         <v>4</v>
       </c>
-      <c r="N8" s="35">
+      <c r="N8" s="32">
         <v>4</v>
       </c>
-      <c r="O8" s="35">
+      <c r="O8" s="32">
         <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="20" t="s">
         <v>410</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="32">
         <v>3</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="32">
         <v>5</v>
       </c>
-      <c r="L9" s="38">
+      <c r="L9" s="35">
         <v>5</v>
       </c>
-      <c r="M9" s="35">
+      <c r="M9" s="32">
         <v>3</v>
       </c>
-      <c r="N9" s="35">
+      <c r="N9" s="32">
         <v>4</v>
       </c>
-      <c r="O9" s="35">
+      <c r="O9" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="20" t="s">
         <v>412</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="32">
         <v>5</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="32">
         <v>5</v>
       </c>
-      <c r="L10" s="38">
+      <c r="L10" s="35">
         <v>5</v>
       </c>
-      <c r="M10" s="35">
+      <c r="M10" s="32">
         <v>4</v>
       </c>
-      <c r="N10" s="35">
+      <c r="N10" s="32">
         <v>5</v>
       </c>
-      <c r="O10" s="35">
+      <c r="O10" s="32">
         <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="21" t="s">
         <v>416</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="32">
         <v>4</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="32">
         <v>4</v>
       </c>
-      <c r="L11" s="38">
+      <c r="L11" s="35">
         <v>5</v>
       </c>
-      <c r="M11" s="35">
+      <c r="M11" s="32">
         <v>4</v>
       </c>
-      <c r="N11" s="35">
+      <c r="N11" s="32">
         <v>4</v>
       </c>
-      <c r="O11" s="35">
+      <c r="O11" s="32">
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="21" t="s">
         <v>419</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="32">
         <v>2</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="32">
         <v>3</v>
       </c>
-      <c r="L12" s="38">
+      <c r="L12" s="35">
         <v>4</v>
       </c>
-      <c r="M12" s="35">
+      <c r="M12" s="32">
         <v>2</v>
       </c>
-      <c r="N12" s="35">
+      <c r="N12" s="32">
         <v>3</v>
       </c>
-      <c r="O12" s="35">
+      <c r="O12" s="32">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="22" t="s">
         <v>420</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="20" t="s">
         <v>422</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="32">
         <v>4</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="32">
         <v>5</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L13" s="35">
         <v>5</v>
       </c>
-      <c r="M13" s="35">
+      <c r="M13" s="32">
         <v>4</v>
       </c>
-      <c r="N13" s="35">
+      <c r="N13" s="32">
         <v>5</v>
       </c>
-      <c r="O13" s="35">
+      <c r="O13" s="32">
         <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="32">
         <v>3</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="32">
         <v>5</v>
       </c>
-      <c r="L14" s="38">
+      <c r="L14" s="35">
         <v>5</v>
       </c>
-      <c r="M14" s="35">
+      <c r="M14" s="32">
         <v>5</v>
       </c>
-      <c r="N14" s="35">
+      <c r="N14" s="32">
         <v>4</v>
       </c>
-      <c r="O14" s="35">
+      <c r="O14" s="32">
         <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
@@ -7967,6 +8208,13 @@
     </sortState>
   </autoFilter>
   <mergeCells count="16">
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
@@ -7976,13 +8224,6 @@
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{B4A7D905-D120-4788-AC98-B53455EB3FC4}"/>
@@ -8721,7 +8962,7 @@
       <c r="E12" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="18" t="s">
         <v>156</v>
       </c>
     </row>
@@ -8741,7 +8982,7 @@
       <c r="E13" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="18" t="s">
         <v>306</v>
       </c>
     </row>
@@ -8761,7 +9002,7 @@
       <c r="E14" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="18" t="s">
         <v>306</v>
       </c>
     </row>
@@ -8781,7 +9022,7 @@
       <c r="E15" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="18" t="s">
         <v>306</v>
       </c>
     </row>
@@ -8801,7 +9042,7 @@
       <c r="E16" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="18" t="s">
         <v>306</v>
       </c>
     </row>
@@ -8821,7 +9062,7 @@
       <c r="E17" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="18" t="s">
         <v>306</v>
       </c>
     </row>
@@ -8876,7 +9117,7 @@
     <col min="12" max="12" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.42578125" style="2" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -8885,7 +9126,7 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>242</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -8921,13 +9162,13 @@
       <c r="M1" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="11" t="s">
         <v>349</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="16"/>
+      <c r="P1" s="14"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -8972,7 +9213,7 @@
       <c r="N2" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -9019,7 +9260,7 @@
       <c r="N3" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -9066,7 +9307,7 @@
       <c r="N4" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -9113,7 +9354,7 @@
       <c r="N5" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -9160,7 +9401,7 @@
       <c r="N6" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -9207,7 +9448,7 @@
       <c r="N7" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -9254,7 +9495,7 @@
       <c r="N8" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="O8" s="16" t="s">
+      <c r="O8" s="14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -9301,7 +9542,7 @@
       <c r="N9" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="O9" s="16" t="s">
+      <c r="O9" s="14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -9348,7 +9589,7 @@
       <c r="N10" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="O10" s="16" t="s">
+      <c r="O10" s="14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -9395,7 +9636,7 @@
       <c r="N11" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="O11" s="16" t="s">
+      <c r="O11" s="14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -9442,7 +9683,7 @@
       <c r="N12" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="O12" s="16" t="s">
+      <c r="O12" s="14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -9489,7 +9730,7 @@
       <c r="N13" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="O13" s="16" t="s">
+      <c r="O13" s="14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -9536,7 +9777,7 @@
       <c r="N14" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="O14" s="16" t="s">
+      <c r="O14" s="14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -9583,7 +9824,7 @@
       <c r="N15" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="O15" s="16" t="s">
+      <c r="O15" s="14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -9630,7 +9871,7 @@
       <c r="N16" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="O16" s="16" t="s">
+      <c r="O16" s="14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -9677,7 +9918,7 @@
       <c r="N17" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="O17" s="16" t="s">
+      <c r="O17" s="14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -9724,7 +9965,7 @@
       <c r="N18" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="O18" s="16" t="s">
+      <c r="O18" s="14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -9771,7 +10012,7 @@
       <c r="N19" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="O19" s="16" t="s">
+      <c r="O19" s="14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -9818,7 +10059,7 @@
       <c r="N20" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="O20" s="16" t="s">
+      <c r="O20" s="14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -9865,7 +10106,7 @@
       <c r="N21" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="O21" s="16" t="s">
+      <c r="O21" s="14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -9912,7 +10153,7 @@
       <c r="N22" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="O22" s="16" t="s">
+      <c r="O22" s="14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -9959,7 +10200,7 @@
       <c r="N23" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="O23" s="16" t="s">
+      <c r="O23" s="14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -10006,7 +10247,7 @@
       <c r="N24" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="O24" s="16" t="s">
+      <c r="O24" s="14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -10053,7 +10294,7 @@
       <c r="N25" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="O25" s="16" t="s">
+      <c r="O25" s="14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -10100,7 +10341,7 @@
       <c r="N26" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="O26" s="16" t="s">
+      <c r="O26" s="14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -10147,7 +10388,7 @@
       <c r="N27" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="O27" s="16" t="s">
+      <c r="O27" s="14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -10194,7 +10435,7 @@
       <c r="N28" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="O28" s="16" t="s">
+      <c r="O28" s="14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -10270,7 +10511,7 @@
       <c r="B2" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="16" t="s">
         <v>350</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -10284,7 +10525,7 @@
       <c r="B3" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>350</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -10298,7 +10539,7 @@
       <c r="B4" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="16" t="s">
         <v>350</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -10312,7 +10553,7 @@
       <c r="B5" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="16" t="s">
         <v>350</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -10326,7 +10567,7 @@
       <c r="B6" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="16" t="s">
         <v>350</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -10340,7 +10581,7 @@
       <c r="B7" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="16" t="s">
         <v>350</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -10380,7 +10621,7 @@
     <col min="6" max="6" width="21.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="16" customWidth="1"/>
     <col min="10" max="10" width="37.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -10410,7 +10651,7 @@
       <c r="H1" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="15" t="s">
         <v>349</v>
       </c>
       <c r="J1" s="8" t="s">
@@ -10418,7 +10659,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -10442,7 +10683,7 @@
       <c r="H2" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -10471,7 +10712,7 @@
       <c r="H3" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -10503,7 +10744,7 @@
       <c r="H4" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -10535,7 +10776,7 @@
       <c r="H5" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -10567,7 +10808,7 @@
       <c r="H6" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -10599,7 +10840,7 @@
       <c r="H7" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J7" s="3" t="s">
@@ -10628,7 +10869,7 @@
       <c r="H8" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J8" s="3" t="s">
@@ -10660,7 +10901,7 @@
       <c r="H9" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J9" s="3" t="s">
@@ -10689,7 +10930,7 @@
       <c r="H10" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J10" s="3" t="s">
@@ -10718,7 +10959,7 @@
       <c r="H11" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J11" s="3" t="s">
@@ -10750,7 +10991,7 @@
       <c r="H12" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J12" s="3" t="s">
@@ -10782,7 +11023,7 @@
       <c r="H13" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J13" s="3" t="s">
@@ -10814,7 +11055,7 @@
       <c r="H14" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -10843,7 +11084,7 @@
       <c r="H15" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J15" s="3" t="s">
@@ -10875,7 +11116,7 @@
       <c r="H16" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J16" s="3" t="s">
@@ -10904,7 +11145,7 @@
       <c r="H17" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J17" s="3" t="s">
@@ -10933,7 +11174,7 @@
       <c r="H18" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J18" s="3" t="s">
@@ -10962,7 +11203,7 @@
       <c r="H19" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I19" s="19" t="s">
+      <c r="I19" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J19" s="3" t="s">
@@ -10991,7 +11232,7 @@
       <c r="H20" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J20" s="3" t="s">
@@ -11020,7 +11261,7 @@
       <c r="H21" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="I21" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J21" s="3" t="s">
@@ -11049,7 +11290,7 @@
       <c r="H22" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I22" s="19" t="s">
+      <c r="I22" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J22" s="3" t="s">
@@ -11081,7 +11322,7 @@
       <c r="H23" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J23" s="3" t="s">
@@ -11110,7 +11351,7 @@
       <c r="H24" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I24" s="19" t="s">
+      <c r="I24" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J24" s="3" t="s">
@@ -11139,7 +11380,7 @@
       <c r="H25" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I25" s="19" t="s">
+      <c r="I25" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J25" s="3" t="s">
@@ -11171,7 +11412,7 @@
       <c r="H26" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I26" s="19" t="s">
+      <c r="I26" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J26" s="3" t="s">
@@ -11200,7 +11441,7 @@
       <c r="H27" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I27" s="19" t="s">
+      <c r="I27" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J27" s="3" t="s">
@@ -11232,7 +11473,7 @@
       <c r="H28" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I28" s="19" t="s">
+      <c r="I28" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J28" s="3" t="s">
@@ -11264,7 +11505,7 @@
       <c r="H29" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I29" s="19" t="s">
+      <c r="I29" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J29" s="3" t="s">
@@ -11296,7 +11537,7 @@
       <c r="H30" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I30" s="19" t="s">
+      <c r="I30" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J30" s="3" t="s">
@@ -11328,7 +11569,7 @@
       <c r="H31" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I31" s="19" t="s">
+      <c r="I31" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J31" s="3" t="s">
@@ -11360,7 +11601,7 @@
       <c r="H32" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I32" s="19" t="s">
+      <c r="I32" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J32" s="3" t="s">
@@ -11392,7 +11633,7 @@
       <c r="H33" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I33" s="19" t="s">
+      <c r="I33" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J33" s="3" t="s">
@@ -11424,7 +11665,7 @@
       <c r="H34" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I34" s="19" t="s">
+      <c r="I34" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J34" s="3" t="s">
@@ -11456,7 +11697,7 @@
       <c r="H35" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I35" s="19" t="s">
+      <c r="I35" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J35" s="3" t="s">
@@ -11485,7 +11726,7 @@
       <c r="H36" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I36" s="19" t="s">
+      <c r="I36" s="16" t="s">
         <v>350</v>
       </c>
       <c r="J36" s="3" t="s">

--- a/PublicContentList.xlsx
+++ b/PublicContentList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DDC3B0-794A-41AC-8563-3FE70897F002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292AC00B-C900-4526-82E2-CF814D1256D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2590" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="548">
   <si>
     <t>Name</t>
   </si>
@@ -1830,6 +1830,42 @@
   </si>
   <si>
     <t>Werewolf Creture Guide</t>
+  </si>
+  <si>
+    <t>Small Dog</t>
+  </si>
+  <si>
+    <t>Arctic, Coastal, Desert, Forest, Grassland, Hills, Jungle, Mountain, Swamp, Underdark, Urban</t>
+  </si>
+  <si>
+    <t>Dogs</t>
+  </si>
+  <si>
+    <t>Medium Dog</t>
+  </si>
+  <si>
+    <t>Large Dog</t>
+  </si>
+  <si>
+    <t>Magic Dog Familiar</t>
+  </si>
+  <si>
+    <t>Celestial, Fey, or Fiend</t>
+  </si>
+  <si>
+    <t>Magic Dog Steed</t>
+  </si>
+  <si>
+    <t>Dwarven Mine Dog</t>
+  </si>
+  <si>
+    <t>Elven Hunting Hound</t>
+  </si>
+  <si>
+    <t>Gnomish Trinket Retriever</t>
+  </si>
+  <si>
+    <t>Halfling Riding Mastiff</t>
   </si>
 </sst>
 </file>
@@ -2155,6 +2191,24 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2171,24 +2225,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2728,11 +2764,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I154"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B151" sqref="B151"/>
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I162" sqref="I162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7215,6 +7251,267 @@
       </c>
       <c r="I154" s="3" t="s">
         <v>535</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C155" s="6">
+        <v>0</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E155" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C156" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E156" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C157" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E157" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C158" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E158" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C159" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E159" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C160" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E160" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C161" s="6">
+        <v>1</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E161" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C162" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E162" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C163" s="6">
+        <v>1</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E163" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -7397,9 +7694,11 @@
     <hyperlink ref="F152:F154" r:id="rId90" display="Werewolves" xr:uid="{7FDE62EE-CF55-45C0-92B7-8FD41BD87B5E}"/>
     <hyperlink ref="I151" r:id="rId91" xr:uid="{E530F206-E40D-48C5-8270-9FB5B004484D}"/>
     <hyperlink ref="I152:I154" r:id="rId92" display="Werewolf Creture Guide" xr:uid="{16BACF67-2263-4F83-8444-5F7AEB781FCC}"/>
+    <hyperlink ref="F155" r:id="rId93" xr:uid="{11674076-40F4-4715-B10D-9B7F948457E8}"/>
+    <hyperlink ref="F156:F163" r:id="rId94" display="Dogs" xr:uid="{76B9A0A5-62FA-469A-812A-8AB42A7B076F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId93"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId95"/>
 </worksheet>
 </file>
 
@@ -7591,87 +7890,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="19" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="44" t="s">
         <v>349</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="44" t="s">
         <v>371</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="48" t="s">
         <v>372</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="46" t="s">
         <v>373</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="46" t="s">
         <v>374</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="46" t="s">
         <v>375</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="46" t="s">
         <v>376</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
     </row>
     <row r="2" spans="1:15" s="19" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="46" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="40" t="s">
         <v>381</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="42" t="s">
         <v>382</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="42" t="s">
         <v>384</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="42" t="s">
         <v>385</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="42" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
@@ -8208,13 +8507,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="16">
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
@@ -8224,6 +8516,13 @@
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{B4A7D905-D120-4788-AC98-B53455EB3FC4}"/>

--- a/PublicContentList.xlsx
+++ b/PublicContentList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292AC00B-C900-4526-82E2-CF814D1256D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892EC516-E32E-4277-B1D1-81CB6DCC62CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="551">
   <si>
     <t>Name</t>
   </si>
@@ -1866,6 +1866,15 @@
   </si>
   <si>
     <t>Halfling Riding Mastiff</t>
+  </si>
+  <si>
+    <t>Kallikantzaros</t>
+  </si>
+  <si>
+    <t>Extraplanar, Forest, Urban</t>
+  </si>
+  <si>
+    <t>Kallikantzaros Foreman</t>
   </si>
 </sst>
 </file>
@@ -2191,6 +2200,24 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2207,24 +2234,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2764,11 +2773,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I163"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I162" sqref="I162"/>
+      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7511,6 +7520,64 @@
         <v>40</v>
       </c>
       <c r="I163" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C164" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E164" s="37" t="s">
+        <v>549</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C165" s="6">
+        <v>2</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E165" s="37" t="s">
+        <v>549</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I165" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -7696,9 +7763,11 @@
     <hyperlink ref="I152:I154" r:id="rId92" display="Werewolf Creture Guide" xr:uid="{16BACF67-2263-4F83-8444-5F7AEB781FCC}"/>
     <hyperlink ref="F155" r:id="rId93" xr:uid="{11674076-40F4-4715-B10D-9B7F948457E8}"/>
     <hyperlink ref="F156:F163" r:id="rId94" display="Dogs" xr:uid="{76B9A0A5-62FA-469A-812A-8AB42A7B076F}"/>
+    <hyperlink ref="F164" r:id="rId95" xr:uid="{D40EA6A1-C093-496E-859C-C44BF7C9329E}"/>
+    <hyperlink ref="F165" r:id="rId96" xr:uid="{A91F655D-D2F4-44F6-9210-7F3A21ADD68A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId95"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId97"/>
 </worksheet>
 </file>
 
@@ -7890,87 +7959,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="19" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="38" t="s">
         <v>349</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="38" t="s">
         <v>371</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="42" t="s">
         <v>372</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="40" t="s">
         <v>373</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="40" t="s">
         <v>374</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="40" t="s">
         <v>375</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="44" t="s">
         <v>377</v>
       </c>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
     </row>
     <row r="2" spans="1:15" s="19" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="40" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="46" t="s">
         <v>381</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="48" t="s">
         <v>382</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="48" t="s">
         <v>383</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="48" t="s">
         <v>384</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="48" t="s">
         <v>385</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="48" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
     </row>
     <row r="4" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
@@ -8507,6 +8576,13 @@
     </sortState>
   </autoFilter>
   <mergeCells count="16">
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
@@ -8516,13 +8592,6 @@
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{B4A7D905-D120-4788-AC98-B53455EB3FC4}"/>

--- a/PublicContentList.xlsx
+++ b/PublicContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892EC516-E32E-4277-B1D1-81CB6DCC62CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D726F4F9-9865-45F1-8AEF-54DDD1B01ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="565">
   <si>
     <t>Name</t>
   </si>
@@ -1875,6 +1875,48 @@
   </si>
   <si>
     <t>Kallikantzaros Foreman</t>
+  </si>
+  <si>
+    <t>Orcish War Chariot</t>
+  </si>
+  <si>
+    <t>Chariot</t>
+  </si>
+  <si>
+    <t>Scythed Chariot</t>
+  </si>
+  <si>
+    <t>Wagon</t>
+  </si>
+  <si>
+    <t>Sleigh</t>
+  </si>
+  <si>
+    <t>Small Wagon</t>
+  </si>
+  <si>
+    <t>War Chariot</t>
+  </si>
+  <si>
+    <t>Chariots</t>
+  </si>
+  <si>
+    <t>Burning Chariot</t>
+  </si>
+  <si>
+    <t>Chariot of The Seas</t>
+  </si>
+  <si>
+    <t>Chariot of The Wilds</t>
+  </si>
+  <si>
+    <t>Winged Chariot</t>
+  </si>
+  <si>
+    <t>Patron</t>
+  </si>
+  <si>
+    <t>Magic Chariots</t>
   </si>
 </sst>
 </file>
@@ -2200,6 +2242,24 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2216,24 +2276,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2775,9 +2817,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C168" sqref="C168"/>
+      <selection pane="bottomLeft" activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7959,87 +8001,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="19" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="44" t="s">
         <v>349</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="44" t="s">
         <v>371</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="48" t="s">
         <v>372</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="46" t="s">
         <v>373</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="46" t="s">
         <v>374</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="46" t="s">
         <v>375</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="46" t="s">
         <v>376</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
     </row>
     <row r="2" spans="1:15" s="19" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="46" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="40" t="s">
         <v>381</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="42" t="s">
         <v>382</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="42" t="s">
         <v>384</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="42" t="s">
         <v>385</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="42" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
@@ -8576,13 +8618,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="16">
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
@@ -8592,6 +8627,13 @@
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{B4A7D905-D120-4788-AC98-B53455EB3FC4}"/>
@@ -10844,10 +10886,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACF069B-924A-40FE-91D9-4FC2DC64FE41}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10956,6 +10998,90 @@
         <v>514</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -10965,6 +11091,8 @@
     <hyperlink ref="D5" r:id="rId4" xr:uid="{7407AFE8-AF0D-449E-89D6-AF4335C721D2}"/>
     <hyperlink ref="D6" r:id="rId5" xr:uid="{0D9F4104-DF23-4002-A24F-9EFF3DE1C4D9}"/>
     <hyperlink ref="D7" r:id="rId6" xr:uid="{968FD4DF-7BB0-4A2C-8238-CE0016CFEC3F}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{38DC9863-2BDC-40BF-9ABE-9C166A2A977C}"/>
+    <hyperlink ref="D9:D13" r:id="rId8" display="Chariots" xr:uid="{08FC90A3-3196-47D4-90DB-664B307476BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10972,11 +11100,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDE69A5-0DEA-4E6C-8C42-A4C78FD0BD58}">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12919,14 +13047,121 @@
         <v>513</v>
       </c>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J65" s="3"/>
-    </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J66" s="3"/>
-    </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J67" s="3"/>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>564</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J69" xr:uid="{2BDE69A5-0DEA-4E6C-8C42-A4C78FD0BD58}">
@@ -12999,9 +13234,11 @@
     <hyperlink ref="J62" r:id="rId61" xr:uid="{88FA4A17-32DB-469E-99AA-A1FD3DD970C5}"/>
     <hyperlink ref="J63" r:id="rId62" xr:uid="{B3C29C54-D104-45BF-98EA-76E26FB8CFED}"/>
     <hyperlink ref="J64" r:id="rId63" xr:uid="{1DC0CA99-B8FF-480F-94CB-76D698CFF46D}"/>
+    <hyperlink ref="J65" r:id="rId64" xr:uid="{4C6C0279-ACBB-43F8-8503-5FA86682EC05}"/>
+    <hyperlink ref="J66:J68" r:id="rId65" display="Magic Chariots" xr:uid="{8FB54666-F574-4701-83FD-D95696C00E6F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId64"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId66"/>
 </worksheet>
 </file>
 

--- a/PublicContentList.xlsx
+++ b/PublicContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D726F4F9-9865-45F1-8AEF-54DDD1B01ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44276390-EC4F-4FF2-B3D7-171CD5EE6B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="575">
   <si>
     <t>Name</t>
   </si>
@@ -1917,6 +1917,36 @@
   </si>
   <si>
     <t>Magic Chariots</t>
+  </si>
+  <si>
+    <t>Aralez</t>
+  </si>
+  <si>
+    <t>Arctic, Coastal, Desert, Extraplanar, Forest, Freshwater, Grassland, Hills, Jungle, Mountain, Swamp, Urban</t>
+  </si>
+  <si>
+    <t>Chamrosh</t>
+  </si>
+  <si>
+    <t>Coastal, Desert, Extraplanar, Forest, Freshwater, Grassland, Hills, Jungle, Mountain, Swamp,</t>
+  </si>
+  <si>
+    <t>Flood Hound</t>
+  </si>
+  <si>
+    <t>Elemental</t>
+  </si>
+  <si>
+    <t>Arctic, Coastal, Desert, Extraplanar, Forest, Freshwater, Grassland, Hills, Jungle, Mountain, Swamp, Underwater, Urban</t>
+  </si>
+  <si>
+    <t>Miniature Blink Dog</t>
+  </si>
+  <si>
+    <t>Extraplanar, Forest, Grassland, Hills</t>
+  </si>
+  <si>
+    <t>Magic Dogs</t>
   </si>
 </sst>
 </file>
@@ -2242,6 +2272,24 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2258,24 +2306,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2815,11 +2845,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I165"/>
+  <dimension ref="A1:I169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A166" sqref="A166"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7620,6 +7650,122 @@
         <v>40</v>
       </c>
       <c r="I165" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C166" s="6">
+        <v>3</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E166" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C167" s="6">
+        <v>7</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E167" s="37" t="s">
+        <v>568</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C168" s="6">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E168" s="37" t="s">
+        <v>571</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C169" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="37" t="s">
+        <v>573</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I169" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -7807,9 +7953,11 @@
     <hyperlink ref="F156:F163" r:id="rId94" display="Dogs" xr:uid="{76B9A0A5-62FA-469A-812A-8AB42A7B076F}"/>
     <hyperlink ref="F164" r:id="rId95" xr:uid="{D40EA6A1-C093-496E-859C-C44BF7C9329E}"/>
     <hyperlink ref="F165" r:id="rId96" xr:uid="{A91F655D-D2F4-44F6-9210-7F3A21ADD68A}"/>
+    <hyperlink ref="F166" r:id="rId97" xr:uid="{1B6DB6F3-249D-431B-AFD9-B5A35361723B}"/>
+    <hyperlink ref="F167:F169" r:id="rId98" display="Magic Dogs" xr:uid="{5C4FDEE5-B0A8-4348-8234-1910AE193D72}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId97"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId99"/>
 </worksheet>
 </file>
 
@@ -8001,87 +8149,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="19" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="38" t="s">
         <v>349</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="38" t="s">
         <v>371</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="42" t="s">
         <v>372</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="40" t="s">
         <v>373</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="40" t="s">
         <v>374</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="40" t="s">
         <v>375</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="44" t="s">
         <v>377</v>
       </c>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
     </row>
     <row r="2" spans="1:15" s="19" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="40" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="46" t="s">
         <v>381</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="48" t="s">
         <v>382</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="48" t="s">
         <v>383</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="48" t="s">
         <v>384</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="48" t="s">
         <v>385</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="48" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
     </row>
     <row r="4" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
@@ -8618,6 +8766,13 @@
     </sortState>
   </autoFilter>
   <mergeCells count="16">
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
@@ -8627,13 +8782,6 @@
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{B4A7D905-D120-4788-AC98-B53455EB3FC4}"/>
@@ -11102,7 +11250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDE69A5-0DEA-4E6C-8C42-A4C78FD0BD58}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
     </sheetView>

--- a/PublicContentList.xlsx
+++ b/PublicContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44276390-EC4F-4FF2-B3D7-171CD5EE6B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2444C4F1-7376-4664-B076-EC3197EFF99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2781" uniqueCount="578">
   <si>
     <t>Name</t>
   </si>
@@ -1947,6 +1947,15 @@
   </si>
   <si>
     <t>Magic Dogs</t>
+  </si>
+  <si>
+    <t>Ratfolk Volcanic Slasher</t>
+  </si>
+  <si>
+    <t>Humanoid(Ratfolk)</t>
+  </si>
+  <si>
+    <t>Swamp, Underdark, Urban, Volcanic</t>
   </si>
 </sst>
 </file>
@@ -2272,6 +2281,24 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2288,24 +2315,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2845,11 +2854,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I169"/>
+  <dimension ref="A1:I170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D172" sqref="D172"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I152" sqref="I152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7133,7 +7142,7 @@
     </row>
     <row r="148" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>520</v>
+        <v>575</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>350</v>
@@ -7142,13 +7151,13 @@
         <v>0.5</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>62</v>
+        <v>576</v>
       </c>
       <c r="E148" s="37" t="s">
-        <v>521</v>
+        <v>577</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>522</v>
+        <v>252</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>40</v>
@@ -7156,19 +7165,19 @@
       <c r="H148" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I148" s="3" t="s">
-        <v>527</v>
+      <c r="I148" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>350</v>
       </c>
       <c r="C149" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>62</v>
@@ -7189,21 +7198,21 @@
         <v>527</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>350</v>
       </c>
       <c r="C150" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>525</v>
+        <v>62</v>
       </c>
       <c r="E150" s="37" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>522</v>
@@ -7220,22 +7229,22 @@
     </row>
     <row r="151" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>350</v>
       </c>
       <c r="C151" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E151" s="37" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>40</v>
@@ -7244,12 +7253,12 @@
         <v>40</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>350</v>
@@ -7278,13 +7287,13 @@
     </row>
     <row r="153" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>350</v>
       </c>
       <c r="C153" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>529</v>
@@ -7307,13 +7316,13 @@
     </row>
     <row r="154" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>350</v>
       </c>
       <c r="C154" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>529</v>
@@ -7334,24 +7343,24 @@
         <v>535</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>350</v>
       </c>
       <c r="C155" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>62</v>
+        <v>529</v>
       </c>
       <c r="E155" s="37" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>40</v>
@@ -7359,19 +7368,19 @@
       <c r="H155" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I155" s="1" t="s">
-        <v>40</v>
+      <c r="I155" s="3" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>350</v>
       </c>
       <c r="C156" s="6">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>62</v>
@@ -7394,13 +7403,13 @@
     </row>
     <row r="157" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>350</v>
       </c>
       <c r="C157" s="6">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>62</v>
@@ -7423,7 +7432,7 @@
     </row>
     <row r="158" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>350</v>
@@ -7432,7 +7441,7 @@
         <v>0.25</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>542</v>
+        <v>62</v>
       </c>
       <c r="E158" s="37" t="s">
         <v>537</v>
@@ -7452,13 +7461,13 @@
     </row>
     <row r="159" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>350</v>
       </c>
       <c r="C159" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>542</v>
@@ -7481,7 +7490,7 @@
     </row>
     <row r="160" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>350</v>
@@ -7490,7 +7499,7 @@
         <v>0.5</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>62</v>
+        <v>542</v>
       </c>
       <c r="E160" s="37" t="s">
         <v>537</v>
@@ -7510,13 +7519,13 @@
     </row>
     <row r="161" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>350</v>
       </c>
       <c r="C161" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>62</v>
@@ -7539,13 +7548,13 @@
     </row>
     <row r="162" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>350</v>
       </c>
       <c r="C162" s="6">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>62</v>
@@ -7568,13 +7577,13 @@
     </row>
     <row r="163" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>350</v>
       </c>
       <c r="C163" s="6">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>62</v>
@@ -7595,24 +7604,24 @@
         <v>40</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>350</v>
       </c>
       <c r="C164" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E164" s="37" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>40</v>
@@ -7626,13 +7635,13 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>350</v>
       </c>
       <c r="C165" s="6">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>64</v>
@@ -7653,24 +7662,24 @@
         <v>40</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>350</v>
       </c>
       <c r="C166" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>525</v>
+        <v>64</v>
       </c>
       <c r="E166" s="37" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>40</v>
@@ -7684,19 +7693,19 @@
     </row>
     <row r="167" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>350</v>
       </c>
       <c r="C167" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>525</v>
       </c>
       <c r="E167" s="37" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F167" s="3" t="s">
         <v>574</v>
@@ -7711,21 +7720,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>350</v>
       </c>
       <c r="C168" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>570</v>
+        <v>525</v>
       </c>
       <c r="E168" s="37" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F168" s="3" t="s">
         <v>574</v>
@@ -7740,21 +7749,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>350</v>
       </c>
       <c r="C169" s="6">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>64</v>
+        <v>570</v>
       </c>
       <c r="E169" s="37" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F169" s="3" t="s">
         <v>574</v>
@@ -7766,6 +7775,35 @@
         <v>40</v>
       </c>
       <c r="I169" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C170" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E170" s="37" t="s">
+        <v>573</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I170" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -7816,7 +7854,7 @@
       <formula>NOT(ISERROR(SEARCH("Complete",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G147">
+  <conditionalFormatting sqref="G2:G148">
     <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",G2)))</formula>
     </cfRule>
@@ -7941,23 +7979,24 @@
     <hyperlink ref="F82" r:id="rId82" xr:uid="{2D4B397C-4ECA-490A-9578-A037B6EA2B27}"/>
     <hyperlink ref="F134" r:id="rId83" xr:uid="{9DBFB1C2-2475-4AC8-BCEE-210E7A202658}"/>
     <hyperlink ref="F142:F147" r:id="rId84" display="Ratfolk" xr:uid="{0C434EE3-8288-4C90-9A27-ECDB2DEE64F3}"/>
-    <hyperlink ref="F148" r:id="rId85" xr:uid="{71674E00-231B-4A86-B247-C29C70D3AF2C}"/>
-    <hyperlink ref="I148" r:id="rId86" xr:uid="{CE571496-0EAB-46AD-8069-3EA02FD272D0}"/>
-    <hyperlink ref="I149:I150" r:id="rId87" display="Wolf Creature Guide" xr:uid="{52BC55BC-48E1-4075-9721-64307B01A257}"/>
-    <hyperlink ref="F149:F150" r:id="rId88" display="Wolves" xr:uid="{4AA7C9C6-A091-4D4F-A964-1B12D75EB01F}"/>
-    <hyperlink ref="F151" r:id="rId89" xr:uid="{9FD4C8F0-3A78-4124-8C8E-DFF14F8457BF}"/>
-    <hyperlink ref="F152:F154" r:id="rId90" display="Werewolves" xr:uid="{7FDE62EE-CF55-45C0-92B7-8FD41BD87B5E}"/>
-    <hyperlink ref="I151" r:id="rId91" xr:uid="{E530F206-E40D-48C5-8270-9FB5B004484D}"/>
-    <hyperlink ref="I152:I154" r:id="rId92" display="Werewolf Creture Guide" xr:uid="{16BACF67-2263-4F83-8444-5F7AEB781FCC}"/>
-    <hyperlink ref="F155" r:id="rId93" xr:uid="{11674076-40F4-4715-B10D-9B7F948457E8}"/>
-    <hyperlink ref="F156:F163" r:id="rId94" display="Dogs" xr:uid="{76B9A0A5-62FA-469A-812A-8AB42A7B076F}"/>
-    <hyperlink ref="F164" r:id="rId95" xr:uid="{D40EA6A1-C093-496E-859C-C44BF7C9329E}"/>
-    <hyperlink ref="F165" r:id="rId96" xr:uid="{A91F655D-D2F4-44F6-9210-7F3A21ADD68A}"/>
-    <hyperlink ref="F166" r:id="rId97" xr:uid="{1B6DB6F3-249D-431B-AFD9-B5A35361723B}"/>
-    <hyperlink ref="F167:F169" r:id="rId98" display="Magic Dogs" xr:uid="{5C4FDEE5-B0A8-4348-8234-1910AE193D72}"/>
+    <hyperlink ref="F149" r:id="rId85" xr:uid="{71674E00-231B-4A86-B247-C29C70D3AF2C}"/>
+    <hyperlink ref="I149" r:id="rId86" xr:uid="{CE571496-0EAB-46AD-8069-3EA02FD272D0}"/>
+    <hyperlink ref="I150:I151" r:id="rId87" display="Wolf Creature Guide" xr:uid="{52BC55BC-48E1-4075-9721-64307B01A257}"/>
+    <hyperlink ref="F150:F151" r:id="rId88" display="Wolves" xr:uid="{4AA7C9C6-A091-4D4F-A964-1B12D75EB01F}"/>
+    <hyperlink ref="F152" r:id="rId89" xr:uid="{9FD4C8F0-3A78-4124-8C8E-DFF14F8457BF}"/>
+    <hyperlink ref="F153:F155" r:id="rId90" display="Werewolves" xr:uid="{7FDE62EE-CF55-45C0-92B7-8FD41BD87B5E}"/>
+    <hyperlink ref="I152" r:id="rId91" xr:uid="{E530F206-E40D-48C5-8270-9FB5B004484D}"/>
+    <hyperlink ref="I153:I155" r:id="rId92" display="Werewolf Creture Guide" xr:uid="{16BACF67-2263-4F83-8444-5F7AEB781FCC}"/>
+    <hyperlink ref="F156" r:id="rId93" xr:uid="{11674076-40F4-4715-B10D-9B7F948457E8}"/>
+    <hyperlink ref="F157:F164" r:id="rId94" display="Dogs" xr:uid="{76B9A0A5-62FA-469A-812A-8AB42A7B076F}"/>
+    <hyperlink ref="F165" r:id="rId95" xr:uid="{D40EA6A1-C093-496E-859C-C44BF7C9329E}"/>
+    <hyperlink ref="F166" r:id="rId96" xr:uid="{A91F655D-D2F4-44F6-9210-7F3A21ADD68A}"/>
+    <hyperlink ref="F167" r:id="rId97" xr:uid="{1B6DB6F3-249D-431B-AFD9-B5A35361723B}"/>
+    <hyperlink ref="F168:F170" r:id="rId98" display="Magic Dogs" xr:uid="{5C4FDEE5-B0A8-4348-8234-1910AE193D72}"/>
+    <hyperlink ref="F148" r:id="rId99" xr:uid="{CDC96D2E-C480-436F-849F-7B1E9EC06858}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId99"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId100"/>
 </worksheet>
 </file>
 
@@ -8149,87 +8188,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="19" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="44" t="s">
         <v>349</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="44" t="s">
         <v>371</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="48" t="s">
         <v>372</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="46" t="s">
         <v>373</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="46" t="s">
         <v>374</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="46" t="s">
         <v>375</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="46" t="s">
         <v>376</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
     </row>
     <row r="2" spans="1:15" s="19" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="46" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="40" t="s">
         <v>381</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="42" t="s">
         <v>382</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="42" t="s">
         <v>384</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="42" t="s">
         <v>385</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="42" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
@@ -8766,13 +8805,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="16">
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
@@ -8782,6 +8814,13 @@
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{B4A7D905-D120-4788-AC98-B53455EB3FC4}"/>
@@ -11037,7 +11076,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11243,6 +11282,7 @@
     <hyperlink ref="D9:D13" r:id="rId8" display="Chariots" xr:uid="{08FC90A3-3196-47D4-90DB-664B307476BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -11250,9 +11290,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDE69A5-0DEA-4E6C-8C42-A4C78FD0BD58}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
+      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13392,11 +13432,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2F1729-7251-4389-9641-85685F236F2B}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13440,12 +13480,25 @@
         <v>43</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{7A2F1729-7251-4389-9641-85685F236F2B}"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{BD2521FD-FF87-4C8B-99BE-7B21AA39FFD0}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{D4EA4825-1487-4570-B412-DF8E221C1BA1}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{8B8AC258-1FEA-4911-A9C8-C52291EC04C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>